--- a/course_assignments.xlsx
+++ b/course_assignments.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F293"/>
+  <dimension ref="A1:F333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B F2.5</t>
+          <t>B F1.25 Computer Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1173,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1201,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RC.G1 - GBE Laboratory I</t>
+          <t>RC.G4 - GBE IV</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2769,7 +2769,7 @@
         <v>12</v>
       </c>
       <c r="E84" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3637,7 +3637,7 @@
         <v>5</v>
       </c>
       <c r="E115" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>A F3.10 - Architecture Classroom</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B F2.5</t>
+          <t>B F1.9</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>B F1.8</t>
+          <t>B F2.6</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7299,7 +7299,7 @@
         <v>5</v>
       </c>
       <c r="E246" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7495,7 +7495,7 @@
         <v>8</v>
       </c>
       <c r="E253" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -8618,6 +8618,1126 @@
         <v>25</v>
       </c>
       <c r="F293" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>ARCH510.1</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Wed. 17:00-18:50</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>9</v>
+      </c>
+      <c r="E294" t="n">
+        <v>12</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>ARCH517.1</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Tue. 10:00-15:50</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>15</v>
+      </c>
+      <c r="E295" t="n">
+        <v>18</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>ARCH569.1</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Thu. 17:00-18:50</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>5</v>
+      </c>
+      <c r="E296" t="n">
+        <v>12</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>ARCH570.1</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Tue. 17:00-18:50</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>5</v>
+      </c>
+      <c r="E297" t="n">
+        <v>12</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>BIO513.1</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>A F2.16 - Architecture Studio</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Fri. 14:00-16:50</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>9</v>
+      </c>
+      <c r="E298" t="n">
+        <v>20</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>BIO514.1</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Wed. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>6</v>
+      </c>
+      <c r="E299" t="n">
+        <v>18</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>BIO518.1</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>A F2.16 - Architecture Studio</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Thu. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>9</v>
+      </c>
+      <c r="E300" t="n">
+        <v>20</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>BIO604.1</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>A F2.16 - Architecture Studio</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Wed. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>3</v>
+      </c>
+      <c r="E301" t="n">
+        <v>20</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>BIO646.1</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>A F2.16 - Architecture Studio</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Tue. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>3</v>
+      </c>
+      <c r="E302" t="n">
+        <v>20</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>BUS602.1</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Fri. 14:00-16:50</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>2</v>
+      </c>
+      <c r="E303" t="n">
+        <v>18</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>CS509.1</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Tue. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>13</v>
+      </c>
+      <c r="E304" t="n">
+        <v>18</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>CS511.1</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>RC1.3 - GSM and Network Laboratories</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Thu. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>15</v>
+      </c>
+      <c r="E305" t="n">
+        <v>20</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>ECON506.1</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>A F3.8 - Big Architecture Studio</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Thu. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>2</v>
+      </c>
+      <c r="E306" t="n">
+        <v>25</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>ECON601.1</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>A F1.3 - Computer Lab</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Thu. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>2</v>
+      </c>
+      <c r="E307" t="n">
+        <v>25</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>EDU583.1</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Thu. 16:00-18:50</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>7</v>
+      </c>
+      <c r="E308" t="n">
+        <v>12</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>ELT562.1</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>A F2.16 - Architecture Studio</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Fri. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>9</v>
+      </c>
+      <c r="E309" t="n">
+        <v>20</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>ELT565.1</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>B F1.2 - Class/ECON Lab</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Thu. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>9</v>
+      </c>
+      <c r="E310" t="n">
+        <v>20</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>ELT599.1</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Mon. 17:00-17:50</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>4</v>
+      </c>
+      <c r="E311" t="n">
+        <v>12</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>ELT660.1</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Fri. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" t="n">
+        <v>18</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>ELT670.1</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Thu. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>1</v>
+      </c>
+      <c r="E313" t="n">
+        <v>12</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>IBF507.1</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>A B.2 - EE Lab</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Wed. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>22</v>
+      </c>
+      <c r="E314" t="n">
+        <v>25</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>IBF562.1</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>A F1.4 - Class/Laboratory</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Tue. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>27</v>
+      </c>
+      <c r="E315" t="n">
+        <v>30</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>IE502.1</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Fri. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>4</v>
+      </c>
+      <c r="E316" t="n">
+        <v>12</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>IR520.1</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>B F1.2 - Class/ECON Lab</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Tue. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>3</v>
+      </c>
+      <c r="E317" t="n">
+        <v>20</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>IR651.1</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>A F2.16 - Architecture Studio</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Mon. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>2</v>
+      </c>
+      <c r="E318" t="n">
+        <v>20</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>IR652.1</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>RC1.4 - Computer Laboratory</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Tue. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
+      <c r="E319" t="n">
+        <v>20</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>LAW530.1</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Fri. 18:00-20:50</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>4</v>
+      </c>
+      <c r="E320" t="n">
+        <v>12</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>MBA525.1</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>A B.2 - EE Lab</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Fri. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>21</v>
+      </c>
+      <c r="E321" t="n">
+        <v>25</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>MBA535.1</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>A B.1 - VACD Multimedia Studio</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Mon. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>31</v>
+      </c>
+      <c r="E322" t="n">
+        <v>35</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>MBA581.1</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>RC1.3 - GSM and Network Laboratories</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Wed. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>6</v>
+      </c>
+      <c r="E323" t="n">
+        <v>20</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>ME510.1</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>A F1.3 - Computer Lab</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Tue. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>3</v>
+      </c>
+      <c r="E324" t="n">
+        <v>25</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>PSY519.1</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>RC1.3 - GSM and Network Laboratories</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Tue. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>7</v>
+      </c>
+      <c r="E325" t="n">
+        <v>20</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>PSY524.1</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Mon. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>4</v>
+      </c>
+      <c r="E326" t="n">
+        <v>18</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>PSY529.1</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>RC1.4 - Computer Laboratory</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Thu. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>6</v>
+      </c>
+      <c r="E327" t="n">
+        <v>20</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>SOC503.1</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>B F1.2 - Class/ECON Lab</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Wed. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>3</v>
+      </c>
+      <c r="E328" t="n">
+        <v>20</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>SPS509.1</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Mon. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>1</v>
+      </c>
+      <c r="E329" t="n">
+        <v>12</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>SPS603.1</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Wed. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>1</v>
+      </c>
+      <c r="E330" t="n">
+        <v>12</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>VA502.1</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Thu. 18:00-20:50</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>7</v>
+      </c>
+      <c r="E331" t="n">
+        <v>12</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>VA517.1</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Tue. 17:00-19:50</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>7</v>
+      </c>
+      <c r="E332" t="n">
+        <v>12</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>VA519.1</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Mon. 18:00-20:50</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>7</v>
+      </c>
+      <c r="E333" t="n">
+        <v>12</v>
+      </c>
+      <c r="F333" t="inlineStr">
         <is>
           <t>Assigned</t>
         </is>

--- a/course_assignments.xlsx
+++ b/course_assignments.xlsx
@@ -825,7 +825,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1173,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1201,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1453,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RC.G4 - GBE IV</t>
+          <t>RC.G5 - ME Laboratory</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2769,7 +2769,7 @@
         <v>12</v>
       </c>
       <c r="E84" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A F1.25</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A F3.10 - Architecture Classroom</t>
+          <t>A F1.25</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>B F2.6</t>
+          <t>A F1.11</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>B F2.5</t>
+          <t>B F1.9</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7243,7 +7243,7 @@
         <v>6</v>
       </c>
       <c r="E244" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -8267,7 +8267,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -8895,7 +8895,7 @@
         <v>2</v>
       </c>
       <c r="E303" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8923,7 +8923,7 @@
         <v>13</v>
       </c>
       <c r="E304" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8951,7 +8951,7 @@
         <v>15</v>
       </c>
       <c r="E305" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8979,7 +8979,7 @@
         <v>2</v>
       </c>
       <c r="E306" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>2</v>
       </c>
       <c r="E307" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>3</v>
       </c>
       <c r="E324" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -9555,7 +9555,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -9567,7 +9567,7 @@
         <v>6</v>
       </c>
       <c r="E327" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -9707,7 +9707,7 @@
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>

--- a/course_assignments.xlsx
+++ b/course_assignments.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:F334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B F1.25 Computer Lab</t>
+          <t>B F2.5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1453,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RC.G5 - ME Laboratory</t>
+          <t>A F1.25</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2769,7 +2769,7 @@
         <v>12</v>
       </c>
       <c r="E84" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4068,24 +4068,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ENS207-6.1</t>
+          <t>ENS209</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>A F1.25</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Fri. 09:00-09:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E131" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A F1.25</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>A F2.3</t>
+          <t>A F3.7 - Small Architecture Studio &amp; A F3.10 - Architecture Classroom</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B F1.9</t>
+          <t>B F1.25 Computer Lab</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A F1.11</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>B F1.9</t>
+          <t>B F2.5</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -7819,7 +7819,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8923,7 +8923,7 @@
         <v>13</v>
       </c>
       <c r="E304" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -8939,7 +8939,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8951,7 +8951,7 @@
         <v>15</v>
       </c>
       <c r="E305" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8979,7 +8979,7 @@
         <v>2</v>
       </c>
       <c r="E306" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>2</v>
       </c>
       <c r="E307" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -9511,7 +9511,7 @@
         <v>7</v>
       </c>
       <c r="E325" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -9539,7 +9539,7 @@
         <v>4</v>
       </c>
       <c r="E326" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -9567,7 +9567,7 @@
         <v>6</v>
       </c>
       <c r="E327" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -9707,7 +9707,7 @@
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -9738,6 +9738,34 @@
         <v>12</v>
       </c>
       <c r="F333" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>ENS207</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>B F2.16</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Fri. 09:00-09:50</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>71</v>
+      </c>
+      <c r="E334" t="n">
+        <v>80</v>
+      </c>
+      <c r="F334" t="inlineStr">
         <is>
           <t>Assigned</t>
         </is>

--- a/course_assignments.xlsx
+++ b/course_assignments.xlsx
@@ -825,7 +825,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2769,7 +2769,7 @@
         <v>12</v>
       </c>
       <c r="E84" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3637,7 +3637,7 @@
         <v>5</v>
       </c>
       <c r="E115" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ENS209</t>
+          <t>ENS209-3/6.1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A F3.10 - Architecture Classroom</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio &amp; A F3.10 - Architecture Classroom</t>
+          <t>A F2.3</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B F1.25 Computer Lab</t>
+          <t>B F1.9</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A F1.23</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A F1.26</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>B F2.5</t>
+          <t>B F1.9</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7243,7 +7243,7 @@
         <v>6</v>
       </c>
       <c r="E244" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -9343,7 +9343,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>3</v>
       </c>
       <c r="E324" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -9539,7 +9539,7 @@
         <v>4</v>
       </c>
       <c r="E326" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -9567,7 +9567,7 @@
         <v>6</v>
       </c>
       <c r="E327" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -9746,12 +9746,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ENS207</t>
+          <t>ENS207-3/6.1</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">

--- a/course_assignments.xlsx
+++ b/course_assignments.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F334"/>
+  <dimension ref="A1:F333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B F2.5</t>
+          <t>B F1.9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ARCH216.1</t>
+          <t>ARCH216-3/6.1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
@@ -1100,24 +1100,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ARCH216-6.1</t>
+          <t>ARCH303.1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1128,12 +1128,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ARCH303.1</t>
+          <t>ARCH303.2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1156,12 +1156,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ARCH303.2</t>
+          <t>ARCH304.1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1184,12 +1184,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ARCH304.1</t>
+          <t>ARCH304.2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1212,24 +1212,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ARCH304.2</t>
+          <t>ARCH307.1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Fri. 09:00-10:50</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1240,24 +1240,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ARCH307.1</t>
+          <t>ARCH308.1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fri. 09:00-10:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1268,24 +1268,24 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ARCH308.1</t>
+          <t>ARCH311.1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1296,24 +1296,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ARCH311.1</t>
+          <t>ARCH357.1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1324,24 +1324,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ARCH357.1</t>
+          <t>ARCH358.1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E33" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1352,24 +1352,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ARCH358.1</t>
+          <t>ARCH360.1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Fri. 14:00-15:50</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E34" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ARCH360.1</t>
+          <t>ARCH403.1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fri. 14:00-15:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1408,24 +1408,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ARCH403.1</t>
+          <t>ARCH405.1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1436,24 +1436,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ARCH405.1</t>
+          <t>ARCH412.1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1464,24 +1464,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ARCH412.1</t>
+          <t>ARCH414.1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Thu. 11:00-12:50</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E38" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1492,24 +1492,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ARCH414.1</t>
+          <t>BIO305.1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Thu. 11:00-12:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1520,24 +1520,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BIO305.1</t>
+          <t>BIO306.1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1548,24 +1548,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BIO306.1</t>
+          <t>BIO312.1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Mon. 09:00-10:50</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E41" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1576,24 +1576,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BIO312.1</t>
+          <t>BIO404.1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mon. 09:00-10:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1604,21 +1604,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BIO404.1</t>
+          <t>BIO407.1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -1632,7 +1632,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BIO407.1</t>
+          <t>BIO424.1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1642,11 +1642,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E44" t="n">
         <v>20</v>
@@ -1660,24 +1660,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BIO424.1</t>
+          <t>BOS111.1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E45" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BOS111.1</t>
+          <t>BOS111.2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1698,11 +1698,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E46" t="n">
         <v>65</v>
@@ -1716,24 +1716,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BOS111.2</t>
+          <t>BOS112.1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Tue. 14:00-15:50</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E47" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1744,21 +1744,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BOS112.1</t>
+          <t>BOS112.2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tue. 14:00-15:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48" t="n">
         <v>45</v>
@@ -1772,24 +1772,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BOS112.2</t>
+          <t>BOS112.3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E49" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1800,24 +1800,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BOS112.3</t>
+          <t>CS103.1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="E50" t="n">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CS103.1</t>
+          <t>CS103.2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1838,11 +1838,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E51" t="n">
         <v>154</v>
@@ -1856,7 +1856,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CS103.2</t>
+          <t>CS105.1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1866,11 +1866,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E52" t="n">
         <v>154</v>
@@ -1884,24 +1884,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CS105.1</t>
+          <t>CS105.2</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F2.3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E53" t="n">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1912,24 +1912,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CS105.2</t>
+          <t>CS207.1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A F2.3</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1940,17 +1940,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CS207.1</t>
+          <t>CS207.2</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1968,24 +1968,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CS207.2</t>
+          <t>CS303.1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1996,24 +1996,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CS303.1</t>
+          <t>CS304.1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2024,21 +2024,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CS304.1</t>
+          <t>CS306.1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E58" t="n">
         <v>154</v>
@@ -2052,7 +2052,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CS306.1</t>
+          <t>CS308.1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2062,11 +2062,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 16:00-18:50</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E59" t="n">
         <v>154</v>
@@ -2080,21 +2080,21 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CS308.1</t>
+          <t>CS310.1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mon. 16:00-18:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E60" t="n">
         <v>154</v>
@@ -2108,12 +2108,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CS310.1</t>
+          <t>CS314.1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="E61" t="n">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2136,24 +2136,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CS314.1</t>
+          <t>CS404.1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E62" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2164,24 +2164,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CS404.1</t>
+          <t>CS413.1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Wed. 16:00-18:50</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E63" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2192,24 +2192,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CS413.1</t>
+          <t>CS417.1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Wed. 16:00-18:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E64" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2220,24 +2220,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CS417.1</t>
+          <t>CS427.1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E65" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2248,24 +2248,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CS427.1</t>
+          <t>CULT101.1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.23</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 09:00-10:50</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E66" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2276,24 +2276,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CULT101.1</t>
+          <t>CULT101.2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A F1.25</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tue. 09:00-10:50</t>
+          <t>Tue. 11:00-12:50</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E67" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2304,24 +2304,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CULT101.2</t>
+          <t>ECON108.1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tue. 11:00-12:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E68" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2332,24 +2332,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ECON108.1</t>
+          <t>ECON112.1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E69" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2360,12 +2360,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ECON112.1</t>
+          <t>ECON112.2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E70" t="n">
         <v>80</v>
@@ -2388,24 +2388,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ECON112.2</t>
+          <t>ECON202.1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="E71" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2416,12 +2416,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ECON202.1</t>
+          <t>ECON202.2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2430,10 +2430,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E72" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2444,24 +2444,24 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ECON202.2</t>
+          <t>ECON204.1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>B F2.1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E73" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2472,24 +2472,24 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ECON204.1</t>
+          <t>ECON221.1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>B F2.1</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E74" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2500,12 +2500,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ECON221.1</t>
+          <t>ECON221.2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2514,10 +2514,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E75" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2528,24 +2528,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ECON221.2</t>
+          <t>ECON311.1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E76" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2556,24 +2556,24 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ECON311.1</t>
+          <t>ECON320.1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ECON320.1</t>
+          <t>ECON404.1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2612,24 +2612,24 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ECON404.1</t>
+          <t>ECON430.1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E79" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ECON430.1</t>
+          <t>EDU102.1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2650,11 +2650,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
         <v>20</v>
@@ -2668,12 +2668,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EDU102.1</t>
+          <t>EDU103.1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2682,10 +2682,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E81" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2696,24 +2696,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EDU103.1</t>
+          <t>EDU323.1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="E82" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2724,24 +2724,24 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EDU323.1</t>
+          <t>EE301.1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2752,24 +2752,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EE301.1</t>
+          <t>EE305.1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E84" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2780,24 +2780,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EE305.1</t>
+          <t>EE321.1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2808,24 +2808,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EE321.1</t>
+          <t>EE325.1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.11</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2836,24 +2836,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EE325.1</t>
+          <t>EE422.1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>A F1.11</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2864,24 +2864,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EE422.1</t>
+          <t>EE429.1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2892,24 +2892,24 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EE429.1</t>
+          <t>ELIT100.1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E89" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2920,24 +2920,24 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ELIT100.1</t>
+          <t>ELIT100.2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E90" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ELIT100.2</t>
+          <t>ELIT100.3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E91" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2976,24 +2976,24 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ELIT100.3</t>
+          <t>ELIT100.4</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E92" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3004,24 +3004,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ELIT100.4</t>
+          <t>ELIT100.5</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E93" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3032,24 +3032,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ELIT100.5</t>
+          <t>ELIT100.6</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>Sports Hall</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3060,24 +3060,24 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ELIT100.6</t>
+          <t>ELIT100.7</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sports Hall</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3088,24 +3088,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ELIT100.7</t>
+          <t>ELIT103.1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 09:00-10:50</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E96" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3116,24 +3116,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ELIT103.1</t>
+          <t>ELIT103.2</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wed. 09:00-10:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E97" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3144,24 +3144,24 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ELIT103.2</t>
+          <t>ELIT200.1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E98" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3172,24 +3172,24 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ELIT200.1</t>
+          <t>ELIT200.10</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E99" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3200,24 +3200,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ELIT200.10</t>
+          <t>ELIT200.11</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E100" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3228,21 +3228,21 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ELIT200.11</t>
+          <t>ELIT200.12</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E101" t="n">
         <v>40</v>
@@ -3256,24 +3256,24 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ELIT200.12</t>
+          <t>ELIT200.13</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E102" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3284,17 +3284,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ELIT200.13</t>
+          <t>ELIT200.14</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3312,24 +3312,24 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ELIT200.14</t>
+          <t>ELIT200.2</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E104" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3340,24 +3340,24 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ELIT200.2</t>
+          <t>ELIT200.3</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E105" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3368,24 +3368,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ELIT200.3</t>
+          <t>ELIT200.4</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Thu. 10:00-12:50</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E106" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ELIT200.4</t>
+          <t>ELIT200.5</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3406,11 +3406,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Thu. 10:00-12:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E107" t="n">
         <v>35</v>
@@ -3424,24 +3424,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ELIT200.5</t>
+          <t>ELIT200.6</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Mon. 14:00-16:50</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E108" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3452,24 +3452,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ELIT200.6</t>
+          <t>ELIT200.8</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Mon. 14:00-16:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E109" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3480,21 +3480,21 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ELIT200.8</t>
+          <t>ELIT200.9</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E110" t="n">
         <v>30</v>
@@ -3508,24 +3508,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ELIT200.9</t>
+          <t>ELIT201.1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E111" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3536,24 +3536,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ELIT201.1</t>
+          <t>ELIT203.1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E112" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3564,24 +3564,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ELIT203.1</t>
+          <t>ELIT208.1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E113" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3592,24 +3592,24 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ELIT208.1</t>
+          <t>ELIT401.1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E114" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3620,24 +3620,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ELIT401.1</t>
+          <t>ELIT406.1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E115" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3648,24 +3648,24 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ELIT406.1</t>
+          <t>ELIT413.1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E116" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3676,24 +3676,24 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ELIT413.1</t>
+          <t>ELIT415.1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E117" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3704,24 +3704,24 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ELIT415.1</t>
+          <t>ELT105.1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E118" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3732,24 +3732,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ELT105.1</t>
+          <t>ELT212.1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="E119" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3760,24 +3760,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ELT212.1</t>
+          <t>ELT322.1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D120" t="n">
         <v>14</v>
       </c>
       <c r="E120" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ELT322.1</t>
+          <t>ELT323.1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E121" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3816,24 +3816,24 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ELT323.1</t>
+          <t>ELT370.1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3844,12 +3844,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ELT370.1</t>
+          <t>ELT371.1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
         <v>20</v>
@@ -3872,12 +3872,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ELT371.1</t>
+          <t>ELT471.1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3900,12 +3900,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ELT471.1</t>
+          <t>ELT571.1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3914,10 +3914,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E125" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3928,24 +3928,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ELT571.1</t>
+          <t>ENS201.1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E126" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3956,24 +3956,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ENS201.1</t>
+          <t>ENS203.1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="E127" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3984,24 +3984,24 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ENS203.1</t>
+          <t>ENS204.1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="E128" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4012,24 +4012,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ENS204.1</t>
+          <t>ENS206.1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E129" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4040,24 +4040,24 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ENS206.1</t>
+          <t>ENS209</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E130" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4068,12 +4068,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ENS209-3/6.1</t>
+          <t>ENS211.1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4082,10 +4082,10 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E131" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4096,24 +4096,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ENS211.1</t>
+          <t>ENS309.1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="E132" t="n">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4124,24 +4124,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ENS309.1</t>
+          <t>IBF105.1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F1.23</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Mon. 16:00-17:50</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="E133" t="n">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4152,24 +4152,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>IBF105.1</t>
+          <t>IBF205.1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A F3.10 - Architecture Classroom</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Mon. 16:00-17:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E134" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4180,12 +4180,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IBF205.1</t>
+          <t>IBF205.2</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4194,10 +4194,10 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E135" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4208,24 +4208,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>IBF205.2</t>
+          <t>IBF208.1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E136" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4236,21 +4236,21 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>IBF208.1</t>
+          <t>IBF208.2</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E137" t="n">
         <v>35</v>
@@ -4264,24 +4264,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>IBF208.2</t>
+          <t>IBF310.1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E138" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4292,24 +4292,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IBF310.1</t>
+          <t>IBF401.1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E139" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4320,24 +4320,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>IBF401.1</t>
+          <t>IBF407.1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E140" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4348,24 +4348,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>IBF407.1</t>
+          <t>IBF409.1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E141" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4376,24 +4376,24 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>IBF409.1</t>
+          <t>IBF410.1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E142" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4404,24 +4404,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>IBF410.1</t>
+          <t>IE303.1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu. 13:00-15:50</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E143" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4432,24 +4432,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>IE303.1</t>
+          <t>IE305.1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Thu. 13:00-15:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="E144" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -4460,24 +4460,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>IE305.1</t>
+          <t>IE307.1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E145" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>IE307.1</t>
+          <t>IE425.1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4498,11 +4498,11 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E146" t="n">
         <v>20</v>
@@ -4516,24 +4516,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>IE425.1</t>
+          <t>IR100.1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F3.7 - Small Architecture Studio &amp; A F3.10 - Architecture Classroom</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>nThu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E147" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -4544,24 +4544,24 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>IR100.1</t>
+          <t>IR101.1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>A F2.3</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>nThu. 13:00-14:50</t>
+          <t>Wed. 14:00-16:50</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E148" t="n">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -4572,24 +4572,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>IR101.1</t>
+          <t>IR212.1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Wed. 14:00-16:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E149" t="n">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -4600,24 +4600,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>IR212.1</t>
+          <t>IR213.1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E150" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -4628,24 +4628,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IR213.1</t>
+          <t>IR214.1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E151" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4656,21 +4656,21 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>IR214.1</t>
+          <t>IR216.1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E152" t="n">
         <v>20</v>
@@ -4684,12 +4684,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>IR216.1</t>
+          <t>IR304.1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4698,10 +4698,10 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E153" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4712,17 +4712,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>IR304.1</t>
+          <t>IR305.1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 13:00-15:50</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -4740,21 +4740,21 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>IR305.1</t>
+          <t>IR467.1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Thu. 13:00-15:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E155" t="n">
         <v>25</v>
@@ -4768,24 +4768,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>IR467.1</t>
+          <t>IR472.1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E156" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4796,24 +4796,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>IR472.1</t>
+          <t>IR478.1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E157" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4824,24 +4824,24 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>IR478.1</t>
+          <t>ITA101.1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E158" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4852,24 +4852,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ITA101.1</t>
+          <t>ITA102.1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Fri. 10:00-12:50</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E159" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4880,24 +4880,24 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ITA102.1</t>
+          <t>LAW104.1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Fri. 10:00-12:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E160" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4908,21 +4908,21 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>LAW104.1</t>
+          <t>LAW106.1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E161" t="n">
         <v>40</v>
@@ -4936,24 +4936,24 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>LAW106.1</t>
+          <t>LAW118.1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 12:00-15:50</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E162" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4964,24 +4964,24 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>LAW118.1</t>
+          <t>LAW120.1</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Tue. 12:00-15:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E163" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>LAW120.1</t>
+          <t>LAW202.1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>B F2.5</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E164" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -5020,24 +5020,24 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>LAW202.1</t>
+          <t>LAW204.1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B F1.9</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Thu. 15:00-18:50</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E165" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -5048,24 +5048,24 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>LAW204.1</t>
+          <t>LAW206.1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Thu. 15:00-18:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E166" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5076,24 +5076,24 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>LAW206.1</t>
+          <t>LAW210.1</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F1.25</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 17:00-20:50</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E167" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -5104,24 +5104,24 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>LAW210.1</t>
+          <t>LAW218.1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Tue. 17:00-20:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E168" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -5132,24 +5132,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>LAW218.1</t>
+          <t>LAW242.1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E169" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -5160,24 +5160,24 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>LAW242.1</t>
+          <t>LAW302.1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E170" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -5188,17 +5188,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>LAW302.1</t>
+          <t>LAW310.1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 09:00-12:50</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -5216,24 +5216,24 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>LAW310.1</t>
+          <t>LAW316.1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Mon. 09:00-12:50</t>
+          <t>Wed. 12:00-15:50</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E172" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -5244,21 +5244,21 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>LAW316.1</t>
+          <t>LAW333.1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Wed. 12:00-15:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E173" t="n">
         <v>40</v>
@@ -5272,24 +5272,24 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LAW333.1</t>
+          <t>LAW402.1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E174" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -5300,17 +5300,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LAW402.1</t>
+          <t>LAW406.1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Fri. 14:00-17:50</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -5328,7 +5328,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>LAW406.1</t>
+          <t>LAW408.1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Fri. 14:00-17:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -5356,24 +5356,24 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>LAW408.1</t>
+          <t>LAW416.1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 15:00-18:50</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E177" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -5384,24 +5384,24 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>LAW416.1</t>
+          <t>LAW443.1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Mon. 15:00-18:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E178" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5412,24 +5412,24 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>LAW443.1</t>
+          <t>MAC102.1</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E179" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5440,24 +5440,24 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MAC102.1</t>
+          <t>MAN102.1</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="E180" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -5468,24 +5468,24 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MAN102.1</t>
+          <t>MAN105.1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F2.3</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 16:00-17:50</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E181" t="n">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -5496,24 +5496,24 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MAN105.1</t>
+          <t>MAN302.1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>A F2.3</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Mon. 16:00-17:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E182" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -5524,24 +5524,24 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MAN302.1</t>
+          <t>MAN303.1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 10:00-12:50</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E183" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -5552,24 +5552,24 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MAN303.1</t>
+          <t>MAN304.1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>A F1.23</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Wed. 10:00-12:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E184" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -5580,12 +5580,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MAN304.1</t>
+          <t>MAN328.1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5594,10 +5594,10 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E185" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -5608,24 +5608,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MAN328.1</t>
+          <t>MAN332.1</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 17:00-20:50</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E186" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -5636,24 +5636,24 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MAN332.1</t>
+          <t>MAN352.1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Tue. 17:00-20:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E187" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -5664,24 +5664,24 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MAN352.1</t>
+          <t>MAN402.1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E188" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -5692,24 +5692,24 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MAN402.1</t>
+          <t>MAN406.1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E189" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -5720,21 +5720,21 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MAN406.1</t>
+          <t>MAN443.1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E190" t="n">
         <v>20</v>
@@ -5748,21 +5748,21 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MAN443.1</t>
+          <t>MAN453.1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E191" t="n">
         <v>20</v>
@@ -5776,24 +5776,24 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MAN453.1</t>
+          <t>MATH100.1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E192" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -5804,24 +5804,24 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MATH100.1</t>
+          <t>MATH100.2</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="E193" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5832,24 +5832,24 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MATH100.2</t>
+          <t>MATH101.1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E194" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5860,21 +5860,21 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MATH101.1</t>
+          <t>MATH101.2</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Wed. 16:00-16:50</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E195" t="n">
         <v>154</v>
@@ -5888,21 +5888,21 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MATH101.2</t>
+          <t>MATH102.1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Wed. 16:00-16:50</t>
+          <t>Mon. 09:00-09:50</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="E196" t="n">
         <v>154</v>
@@ -5916,74 +5916,74 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MATH102.1</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>B F1.23 - Amphitheater I</t>
-        </is>
-      </c>
+          <t>MATH201.1</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Mon. 09:00-09:50</t>
+          <t>Mon. 14:00-14:50</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>128</v>
-      </c>
-      <c r="E197" t="n">
-        <v>154</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Infeasible</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MATH201.1</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr"/>
+          <t>MATH201.2</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>B F2.15 - Amphitheater II</t>
+        </is>
+      </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Mon. 14:00-14:50</t>
+          <t>Mon. 10:00-10:50</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>164</v>
-      </c>
-      <c r="E198" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="E198" t="n">
+        <v>154</v>
+      </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Infeasible</t>
+          <t>Assigned</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MATH201.2</t>
+          <t>MATH201.3</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Mon. 10:00-10:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="E199" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5994,24 +5994,24 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MATH201.3</t>
+          <t>MATH205.1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="E200" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -6022,24 +6022,24 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>MATH205.1</t>
+          <t>MATH207.1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E201" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -6050,24 +6050,24 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MATH207.1</t>
+          <t>MATH209.1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E202" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -6078,24 +6078,24 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MATH209.1</t>
+          <t>MATH209.2</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E203" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -6106,24 +6106,24 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MATH209.2</t>
+          <t>MATH306.1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 13:00-15:50</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E204" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -6134,24 +6134,24 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MATH306.1</t>
+          <t>ME206.1</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Wed. 13:00-15:50</t>
+          <t>Wed. 10:00-12:50</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E205" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ME206.1</t>
+          <t>ME211.1</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Wed. 10:00-12:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -6190,24 +6190,24 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ME211.1</t>
+          <t>ME304.1</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E207" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -6218,24 +6218,24 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ME304.1</t>
+          <t>ME411.1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E208" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -6246,24 +6246,24 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ME411.1</t>
+          <t>NS103.1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E209" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -6274,24 +6274,24 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>NS103.1</t>
+          <t>NS112.1</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 09:00-10:50</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="E210" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -6302,24 +6302,24 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>NS112.1</t>
+          <t>NS122.1</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Thu. 09:00-10:50</t>
+          <t>Tue. 14:00-16:50</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="E211" t="n">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -6330,24 +6330,24 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>NS122.1</t>
+          <t>NS207.1</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A F1.26</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Tue. 14:00-16:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E212" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -6358,12 +6358,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>NS207.1</t>
+          <t>NS209.1</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>RC1.5 - Electronic Laboratory</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6372,10 +6372,10 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E213" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -6386,24 +6386,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>NS209.1</t>
+          <t>POLS101.1</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>RC1.5 - Electronic Laboratory</t>
+          <t>A F1.26</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E214" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -6414,24 +6414,24 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>POLS101.1</t>
+          <t>POLS211.1</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>A F1.26</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E215" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -6442,24 +6442,24 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>POLS211.1</t>
+          <t>POLS302.1</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E216" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -6470,24 +6470,24 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>POLS302.1</t>
+          <t>POLS499.1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Wed. 16:00-17:50</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -6498,24 +6498,24 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>POLS499.1</t>
+          <t>PSY103.1</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Wed. 16:00-17:50</t>
+          <t>Fri. 13:00-15:50</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E218" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -6526,24 +6526,24 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>PSY103.1</t>
+          <t>PSY103.2</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Fri. 13:00-15:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E219" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -6554,12 +6554,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>PSY103.2</t>
+          <t>PSY105.1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6568,7 +6568,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E220" t="n">
         <v>30</v>
@@ -6582,12 +6582,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>PSY105.1</t>
+          <t>PSY105.2</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6596,10 +6596,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E221" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -6610,24 +6610,24 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PSY105.2</t>
+          <t>PSY303.1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="E222" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -6638,24 +6638,24 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>PSY303.1</t>
+          <t>PSY308.1</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F2.5</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E223" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -6666,24 +6666,24 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>PSY308.1</t>
+          <t>PSY310.1</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>B F1.9</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E224" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -6694,24 +6694,24 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>PSY310.1</t>
+          <t>PSY311.1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E225" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -6722,24 +6722,24 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>PSY311.1</t>
+          <t>PSY312.1</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E226" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -6750,24 +6750,24 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>PSY312.1</t>
+          <t>PSY329.1</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E227" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -6778,24 +6778,24 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PSY329.1</t>
+          <t>PSY336.1</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E228" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -6806,24 +6806,24 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PSY336.1</t>
+          <t>PSY402.1</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E229" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -6834,24 +6834,24 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>PSY402.1</t>
+          <t>PSY406.1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E230" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -6862,24 +6862,24 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>PSY406.1</t>
+          <t>PSY412.1</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Tue. 10:00-12:50</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E231" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -6890,24 +6890,24 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>PSY412.1</t>
+          <t>PSY414.1</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Tue. 10:00-12:50</t>
+          <t>Fri. 15:00-17:50</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E232" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -6918,24 +6918,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>PSY414.1</t>
+          <t>PSY424.1</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Fri. 15:00-17:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E233" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -6946,24 +6946,24 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>PSY424.1</t>
+          <t>PSY457.1</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E234" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -6974,24 +6974,24 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>PSY457.1</t>
+          <t>PSY458.1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E235" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -7002,24 +7002,24 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>PSY458.1</t>
+          <t>PSY490.1</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E236" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -7030,24 +7030,24 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>PSY490.1</t>
+          <t>PSY496.1</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E237" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -7058,24 +7058,24 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>PSY496.1</t>
+          <t>SE211.1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E238" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -7086,24 +7086,24 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SE211.1</t>
+          <t>SE308.1</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="E239" t="n">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SE308.1</t>
+          <t>SE308.2</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -7142,24 +7142,24 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SE308.2</t>
+          <t>SE407.1</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F1.25 Computer Lab</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E241" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -7170,24 +7170,24 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SE407.1</t>
+          <t>SOC102.1</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>B F1.25 Computer Lab</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E242" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -7198,24 +7198,24 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SOC102.1</t>
+          <t>SOC311.1</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E243" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -7226,24 +7226,24 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SOC311.1</t>
+          <t>SPS312.1</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E244" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SPS312.1</t>
+          <t>TLT114.1</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -7264,11 +7264,11 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Tue 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E245" t="n">
         <v>18</v>
@@ -7282,7 +7282,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>TLT114.1</t>
+          <t>TLT212.1</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -7292,11 +7292,11 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Tue 09:00 – 11:50</t>
+          <t>Thu 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E246" t="n">
         <v>18</v>
@@ -7310,24 +7310,24 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>TLT212.1</t>
+          <t>TLT214.1</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Thu 09:00 – 11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E247" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>TLT214.1</t>
+          <t>TLT312.1</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -7348,7 +7348,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -7366,7 +7366,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>TLT312.1</t>
+          <t>TLT317.1</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -7376,11 +7376,11 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Tue 12:00 – 14:50</t>
+          <t>Thu 15:00 – 17:50</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E249" t="n">
         <v>12</v>
@@ -7394,7 +7394,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>TLT317.1</t>
+          <t>TLT319.1</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -7404,11 +7404,11 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Thu 15:00 – 17:50</t>
+          <t>Wed 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E250" t="n">
         <v>12</v>
@@ -7422,24 +7422,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>TLT319.1</t>
+          <t>TLT371.1</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Wed 09:00 – 11:50</t>
+          <t>Mon 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -7450,24 +7450,24 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>TLT371.1</t>
+          <t>TLT411.1</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Mon 12:00 – 14:50</t>
+          <t>Tue 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E252" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>TLT411.1</t>
+          <t>TLT427.1</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -7488,11 +7488,11 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Tue 09:00 – 11:50</t>
+          <t>Thu 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E253" t="n">
         <v>12</v>
@@ -7506,7 +7506,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>TLT427.1</t>
+          <t>TLT471.1</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -7516,11 +7516,11 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Thu 12:00 – 14:50</t>
+          <t>Mon 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E254" t="n">
         <v>12</v>
@@ -7534,7 +7534,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>TLT471.1</t>
+          <t>TT304.1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -7544,11 +7544,11 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Mon 12:00 – 14:50</t>
+          <t>Thu 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E255" t="n">
         <v>12</v>
@@ -7562,24 +7562,24 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>TT304.1</t>
+          <t>TURK111.1</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Thu 09:00 – 11:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E256" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -7590,24 +7590,24 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>TURK111.1</t>
+          <t>TURK111.2</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Fri. 15:00-16:50</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E257" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -7618,24 +7618,24 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>TURK111.2</t>
+          <t>TURK112.1</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Fri. 15:00-16:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E258" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -7646,24 +7646,24 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>TURK112.1</t>
+          <t>TURK112.2</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Tue. 10:00-11:50</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E259" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -7674,24 +7674,24 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>TURK112.2</t>
+          <t>TURK112.3</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Tue. 10:00-11:50</t>
+          <t>Tue. 14:00-15:50</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E260" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -7702,24 +7702,24 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>TURK112.3</t>
+          <t>TURK112.4</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>Sports Hall</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Tue. 14:00-15:50</t>
+          <t>Wed. 11:00-12:50</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -7730,24 +7730,24 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>TURK112.4</t>
+          <t>TURK112.5</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Sports Hall</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Wed. 11:00-12:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -7758,24 +7758,24 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TURK112.5</t>
+          <t>TURK112.6</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Wed. 14:00-15:50</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E263" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -7786,24 +7786,24 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>TURK112.6</t>
+          <t>TURK112.7</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Wed. 14:00-15:50</t>
+          <t>Mon. 15:00-16:50</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E264" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -7814,24 +7814,24 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>TURK112.7</t>
+          <t>TURK112.8</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Mon. 15:00-16:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E265" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -7842,24 +7842,24 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>TURK112.8</t>
+          <t>TURK112.9</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E266" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -7870,24 +7870,24 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>TURK112.9</t>
+          <t>VA104.1</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E267" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -7898,24 +7898,24 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>VA104.1</t>
+          <t>VA104.2</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E268" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -7926,24 +7926,24 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>VA104.2</t>
+          <t>VA211.1</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E269" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -7954,24 +7954,24 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>VA211.1</t>
+          <t>VA211.2</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E270" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -7982,24 +7982,24 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>VA211.2</t>
+          <t>VA217.1</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E271" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -8010,24 +8010,24 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>VA217.1</t>
+          <t>VA217.2</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Mon. 14:00-16:50</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E272" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -8038,24 +8038,24 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>VA217.2</t>
+          <t>VA217.3</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Mon. 14:00-16:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E273" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -8066,24 +8066,24 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>VA217.3</t>
+          <t>VA304.1</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E274" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -8094,24 +8094,24 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>VA304.1</t>
+          <t>VA306.1</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E275" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -8122,24 +8122,24 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>VA306.1</t>
+          <t>VA306.2</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E276" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -8150,21 +8150,21 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>VA306.2</t>
+          <t>VA310.1</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E277" t="n">
         <v>40</v>
@@ -8178,21 +8178,21 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>VA310.1</t>
+          <t>VA312.1</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E278" t="n">
         <v>40</v>
@@ -8206,7 +8206,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>VA312.1</t>
+          <t>VA312.2</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -8216,11 +8216,11 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E279" t="n">
         <v>40</v>
@@ -8234,24 +8234,24 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>VA312.2</t>
+          <t>VA314.1</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E280" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>VA314.1</t>
+          <t>VA315.1</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -8272,11 +8272,11 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E281" t="n">
         <v>25</v>
@@ -8290,7 +8290,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>VA315.1</t>
+          <t>VA323.1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -8300,11 +8300,11 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E282" t="n">
         <v>25</v>
@@ -8318,24 +8318,24 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>VA323.1</t>
+          <t>VA323.2</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Fri. 12:00-14:50</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E283" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -8346,24 +8346,24 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>VA323.2</t>
+          <t>VA324.1</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Fri. 12:00-14:50</t>
+          <t>Fri. 15:00-17:50</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E284" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -8374,24 +8374,24 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>VA324.1</t>
+          <t>VA334.1</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>A F1.23</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Fri. 15:00-17:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E285" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -8402,24 +8402,24 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>VA334.1</t>
+          <t>VA341.1</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E286" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -8430,24 +8430,24 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>VA341.1</t>
+          <t>VA406.1</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E287" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -8458,24 +8458,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>VA406.1</t>
+          <t>VA416.1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E288" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -8486,24 +8486,24 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>VA416.1</t>
+          <t>VA443.1</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E289" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -8514,24 +8514,24 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>VA443.1</t>
+          <t>VA451.1</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E290" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -8542,24 +8542,24 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>VA451.1</t>
+          <t>VA452.1</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E291" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -8570,21 +8570,21 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>VA452.1</t>
+          <t>VA455.1</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E292" t="n">
         <v>25</v>
@@ -8598,24 +8598,24 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>VA455.1</t>
+          <t>ARCH510.1</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Wed. 17:00-18:50</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E293" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -8626,24 +8626,24 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ARCH510.1</t>
+          <t>ARCH517.1</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Wed. 17:00-18:50</t>
+          <t>Tue. 10:00-15:50</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E294" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -8654,24 +8654,24 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ARCH517.1</t>
+          <t>ARCH569.1</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Tue. 10:00-15:50</t>
+          <t>Thu. 17:00-18:50</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E295" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ARCH569.1</t>
+          <t>ARCH570.1</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -8692,7 +8692,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Thu. 17:00-18:50</t>
+          <t>Tue. 17:00-18:50</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -8710,24 +8710,24 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ARCH570.1</t>
+          <t>BIO513.1</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Tue. 17:00-18:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E297" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -8738,24 +8738,24 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>BIO513.1</t>
+          <t>BIO514.1</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E298" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -8766,24 +8766,24 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>BIO514.1</t>
+          <t>BIO518.1</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E299" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -8794,7 +8794,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>BIO518.1</t>
+          <t>BIO604.1</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -8804,11 +8804,11 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E300" t="n">
         <v>20</v>
@@ -8822,7 +8822,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>BIO604.1</t>
+          <t>BIO646.1</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -8850,24 +8850,24 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>BIO646.1</t>
+          <t>BUS602.1</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E302" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -8878,24 +8878,24 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>BUS602.1</t>
+          <t>CS509.1</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E303" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>CS509.1</t>
+          <t>CS511.1</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -8916,11 +8916,11 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E304" t="n">
         <v>18</v>
@@ -8934,12 +8934,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>CS511.1</t>
+          <t>ECON506.1</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8948,10 +8948,10 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E305" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -8962,12 +8962,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ECON506.1</t>
+          <t>ECON601.1</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8979,7 +8979,7 @@
         <v>2</v>
       </c>
       <c r="E306" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -8990,24 +8990,24 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ECON601.1</t>
+          <t>EDU583.1</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Thu. 16:00-18:50</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E307" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -9018,24 +9018,24 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>EDU583.1</t>
+          <t>ELT562.1</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Thu. 16:00-18:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E308" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -9046,17 +9046,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ELT562.1</t>
+          <t>ELT565.1</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -9074,24 +9074,24 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ELT565.1</t>
+          <t>ELT599.1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Mon. 17:00-17:50</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E310" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -9102,24 +9102,24 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ELT599.1</t>
+          <t>ELT660.1</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Mon. 17:00-17:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -9130,24 +9130,24 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ELT660.1</t>
+          <t>ELT670.1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D312" t="n">
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -9158,24 +9158,24 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ELT670.1</t>
+          <t>IBF507.1</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E313" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -9186,24 +9186,24 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>IBF507.1</t>
+          <t>IBF562.1</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E314" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -9214,24 +9214,24 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>IBF562.1</t>
+          <t>IE502.1</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E315" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -9242,24 +9242,24 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>IE502.1</t>
+          <t>IR520.1</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E316" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -9270,21 +9270,21 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>IR520.1</t>
+          <t>IR651.1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E317" t="n">
         <v>20</v>
@@ -9298,24 +9298,24 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>IR651.1</t>
+          <t>IR652.1</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>IR652.1</t>
+          <t>LAW530.1</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -9336,11 +9336,11 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Fri. 18:00-20:50</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E319" t="n">
         <v>12</v>
@@ -9354,24 +9354,24 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>LAW530.1</t>
+          <t>MBA525.1</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Fri. 18:00-20:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E320" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -9382,24 +9382,24 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>MBA525.1</t>
+          <t>MBA535.1</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E321" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -9410,24 +9410,24 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>MBA535.1</t>
+          <t>MBA581.1</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E322" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>MBA581.1</t>
+          <t>ME510.1</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -9448,11 +9448,11 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E323" t="n">
         <v>20</v>
@@ -9466,7 +9466,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ME510.1</t>
+          <t>PSY519.1</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -9480,7 +9480,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E324" t="n">
         <v>20</v>
@@ -9494,24 +9494,24 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>PSY519.1</t>
+          <t>PSY524.1</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E325" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -9522,24 +9522,24 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>PSY524.1</t>
+          <t>PSY529.1</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E326" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -9550,24 +9550,24 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>PSY529.1</t>
+          <t>SOC503.1</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E327" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -9578,24 +9578,24 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SOC503.1</t>
+          <t>SPS509.1</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SPS509.1</t>
+          <t>SPS603.1</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -9634,7 +9634,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SPS603.1</t>
+          <t>VA502.1</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -9644,11 +9644,11 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Thu. 18:00-20:50</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E330" t="n">
         <v>12</v>
@@ -9662,24 +9662,24 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>VA502.1</t>
+          <t>VA517.1</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Thu. 18:00-20:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D331" t="n">
         <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -9690,24 +9690,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>VA517.1</t>
+          <t>VA519.1</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Mon. 18:00-20:50</t>
         </is>
       </c>
       <c r="D332" t="n">
         <v>7</v>
       </c>
       <c r="E332" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -9718,54 +9718,26 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>VA519.1</t>
+          <t>ENS207</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Mon. 18:00-20:50</t>
+          <t>Fri. 09:00-09:50</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="E333" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F333" t="inlineStr">
-        <is>
-          <t>Assigned</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>ENS207-3/6.1</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>B F2.17</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>Fri. 09:00-09:50</t>
-        </is>
-      </c>
-      <c r="D334" t="n">
-        <v>71</v>
-      </c>
-      <c r="E334" t="n">
-        <v>80</v>
-      </c>
-      <c r="F334" t="inlineStr">
         <is>
           <t>Assigned</t>
         </is>

--- a/course_assignments.xlsx
+++ b/course_assignments.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F333"/>
+  <dimension ref="A1:F337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B F1.9</t>
+          <t>B F2.5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>RC.G4 - GBE IV</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2741,7 +2741,7 @@
         <v>12</v>
       </c>
       <c r="E83" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>A F3.10 - Architecture Classroom</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4813,7 +4813,7 @@
         <v>8</v>
       </c>
       <c r="E157" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>RC1.5 - Electronic Laboratory</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A F1.26</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7019,7 +7019,7 @@
         <v>14</v>
       </c>
       <c r="E236" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -8895,7 +8895,7 @@
         <v>13</v>
       </c>
       <c r="E303" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8923,7 +8923,7 @@
         <v>15</v>
       </c>
       <c r="E304" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -9315,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -9455,7 +9455,7 @@
         <v>3</v>
       </c>
       <c r="E323" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -9511,7 +9511,7 @@
         <v>4</v>
       </c>
       <c r="E325" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -9539,7 +9539,7 @@
         <v>6</v>
       </c>
       <c r="E326" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -9595,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -9679,7 +9679,7 @@
         <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -9738,6 +9738,118 @@
         <v>80</v>
       </c>
       <c r="F333" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>CS600.1</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Tue. 17:00 - 19:50</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>3</v>
+      </c>
+      <c r="E334" t="n">
+        <v>12</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>EE603.1</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Mon. 15:00 - 17:50</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>3</v>
+      </c>
+      <c r="E335" t="n">
+        <v>12</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>ME605.1</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Wed. 17:00 - 19:50</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>3</v>
+      </c>
+      <c r="E336" t="n">
+        <v>12</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>ME580.1</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Mon. 17:00 - 19:50</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>13</v>
+      </c>
+      <c r="E337" t="n">
+        <v>18</v>
+      </c>
+      <c r="F337" t="inlineStr">
         <is>
           <t>Assigned</t>
         </is>

--- a/course_assignments.xlsx
+++ b/course_assignments.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F337"/>
+  <dimension ref="A1:F338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,21 +456,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AID101.1</t>
+          <t>LAW106.1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -484,24 +484,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AID304.1</t>
+          <t>VA334.1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F1.23</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Thu. 14:00-16:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -512,24 +512,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARCH100.1</t>
+          <t>ELIT200.4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 10:00-12:50</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -540,24 +540,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ARCH101.1</t>
+          <t>TURK112.5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -568,24 +568,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ARCH102.1</t>
+          <t>ARCH202.2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B F2.5</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wed. 12:00-12:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -596,24 +596,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ARCH106.1</t>
+          <t>VA315.1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -624,24 +624,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ARCH107.1</t>
+          <t>BIO312.1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Mon. 09:00-10:50</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -652,24 +652,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ARCH108.1</t>
+          <t>ARCH101.1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -680,12 +680,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ARCH108.2</t>
+          <t>PSY310.1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -708,24 +708,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ARCH109.1</t>
+          <t>VA443.1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -736,24 +736,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ARCH109.2</t>
+          <t>MBA535.1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -764,24 +764,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ARCH110.1</t>
+          <t>EDU583.1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Thu. 16:00-18:50</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -792,24 +792,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ARCH201.1</t>
+          <t>TLT319.1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Wed 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
         <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>18</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -820,24 +820,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ARCH201.2</t>
+          <t>ARCH100.1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -848,21 +848,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ARCH202.1</t>
+          <t>ARCH109.1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
         <v>20</v>
@@ -876,24 +876,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ARCH202.2</t>
+          <t>SOC102.1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -904,24 +904,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ARCH202.3</t>
+          <t>VA304.1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -932,24 +932,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ARCH208.1</t>
+          <t>TT304.1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Thu 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -960,24 +960,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ARCH208.2</t>
+          <t>ARCH358.1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -988,24 +988,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ARCH209.1</t>
+          <t>ELIT208.1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1016,24 +1016,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ARCH210.1</t>
+          <t>VA416.1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mon. 09:00-10:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1044,24 +1044,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ARCH211.1</t>
+          <t>CS103.1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Thu. 09:00-10:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1072,24 +1072,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ARCH216-3/6.1</t>
+          <t>EE422.1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1100,24 +1100,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ARCH303.1</t>
+          <t>IBF562.1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1128,24 +1128,24 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ARCH303.2</t>
+          <t>IR305.1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Thu. 13:00-15:50</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ARCH304.1</t>
+          <t>MAN406.1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
@@ -1184,24 +1184,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ARCH304.2</t>
+          <t>CS314.1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1212,24 +1212,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ARCH307.1</t>
+          <t>TLT114.1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fri. 09:00-10:50</t>
+          <t>Tue 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1240,24 +1240,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ARCH308.1</t>
+          <t>PSY105.2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E30" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1268,12 +1268,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ARCH311.1</t>
+          <t>BOS111.2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1296,24 +1296,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ARCH357.1</t>
+          <t>IE303.1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Thu. 13:00-15:50</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="E32" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1324,24 +1324,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ARCH358.1</t>
+          <t>IR213.1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E33" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1352,24 +1352,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ARCH360.1</t>
+          <t>ELIT200.8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fri. 14:00-15:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ARCH403.1</t>
+          <t>ELIT406.1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E35" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1408,24 +1408,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ARCH405.1</t>
+          <t>BIO518.1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1436,24 +1436,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ARCH412.1</t>
+          <t>VA104.2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E37" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1464,24 +1464,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ARCH414.1</t>
+          <t>TURK111.1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Thu. 11:00-12:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1492,24 +1492,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BIO305.1</t>
+          <t>MATH209.2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E39" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1520,24 +1520,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BIO306.1</t>
+          <t>ELT212.1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E40" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BIO312.1</t>
+          <t>ARCH108.1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1558,11 +1558,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mon. 09:00-10:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n">
         <v>18</v>
@@ -1576,24 +1576,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BIO404.1</t>
+          <t>TURK112.4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>Sports Hall</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 11:00-12:50</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1604,24 +1604,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BIO407.1</t>
+          <t>VA310.1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E43" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1632,24 +1632,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BIO424.1</t>
+          <t>POLS302.1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E44" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1660,24 +1660,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BOS111.1</t>
+          <t>ELIT200.2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E45" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1688,24 +1688,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BOS111.2</t>
+          <t>VA217.1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E46" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1716,24 +1716,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BOS112.1</t>
+          <t>ELT370.1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tue. 14:00-15:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1744,24 +1744,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BOS112.2</t>
+          <t>ME304.1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E48" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1772,24 +1772,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BOS112.3</t>
+          <t>PSY303.1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E49" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1800,24 +1800,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CS103.1</t>
+          <t>ELIT100.5</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="E50" t="n">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1828,24 +1828,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CS103.2</t>
+          <t>ARCH412.1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E51" t="n">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CS105.1</t>
+          <t>MATH201.2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1866,11 +1866,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Mon. 10:00-10:50</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E52" t="n">
         <v>154</v>
@@ -1884,12 +1884,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CS105.2</t>
+          <t>ELT322.1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A F2.3</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1898,10 +1898,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1912,21 +1912,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CS207.1</t>
+          <t>POLS304.1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E54" t="n">
         <v>20</v>
@@ -1940,24 +1940,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CS207.2</t>
+          <t>TLT317.1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu 15:00 – 17:50</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1968,24 +1968,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CS303.1</t>
+          <t>BUS602.1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1996,24 +1996,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CS304.1</t>
+          <t>PSY496.1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2024,24 +2024,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CS306.1</t>
+          <t>ECON204.1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="E58" t="n">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2052,24 +2052,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CS308.1</t>
+          <t>POLS101.1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F1.26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mon. 16:00-18:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E59" t="n">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2080,24 +2080,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CS310.1</t>
+          <t>POLS211.1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E60" t="n">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2108,35 +2108,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CS314.1</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>B F2.14</t>
-        </is>
-      </c>
+          <t>MATH201.1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Mon. 14:00-14:50</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>40</v>
-      </c>
-      <c r="E61" t="n">
-        <v>40</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Infeasible</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CS404.1</t>
+          <t>SOC311.1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2146,11 +2140,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
         <v>18</v>
@@ -2164,7 +2158,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CS413.1</t>
+          <t>ENS211.1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2174,11 +2168,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Wed. 16:00-18:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E63" t="n">
         <v>25</v>
@@ -2192,24 +2186,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CS417.1</t>
+          <t>IBF105.1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F1.23</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Mon. 16:00-17:50</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E64" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2220,24 +2214,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CS427.1</t>
+          <t>ECON430.1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E65" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2248,24 +2242,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CULT101.1</t>
+          <t>ELIT200.14</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RC.G4 - GBE IV</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Tue. 09:00-10:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E66" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2276,24 +2270,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CULT101.2</t>
+          <t>IR216.1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tue. 11:00-12:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2304,24 +2298,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ECON108.1</t>
+          <t>NS112.1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Thu. 09:00-10:50</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2332,24 +2326,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ECON112.1</t>
+          <t>ARCH403.1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E69" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2360,24 +2354,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ECON112.2</t>
+          <t>NS103.1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E70" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2388,24 +2382,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ECON202.1</t>
+          <t>ARCH109.2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E71" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2416,24 +2410,24 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ECON202.2</t>
+          <t>VA324.1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Fri. 15:00-17:50</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E72" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2444,24 +2438,24 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ECON204.1</t>
+          <t>ARCH357.1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>B F2.1</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E73" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2472,24 +2466,24 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ECON221.1</t>
+          <t>TURK111.2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Fri. 15:00-16:50</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E74" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2500,24 +2494,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ECON221.2</t>
+          <t>IE502.1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2528,24 +2522,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ECON311.1</t>
+          <t>BOS112.1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Tue. 14:00-15:50</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E76" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2556,24 +2550,24 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ECON320.1</t>
+          <t>PSY311.1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E77" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2584,7 +2578,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ECON404.1</t>
+          <t>ELT670.1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2594,11 +2588,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>12</v>
@@ -2612,21 +2606,21 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ECON430.1</t>
+          <t>IE425.1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
         <v>20</v>
@@ -2640,7 +2634,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EDU102.1</t>
+          <t>ECON108.1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2650,11 +2644,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E80" t="n">
         <v>20</v>
@@ -2668,24 +2662,24 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>EDU103.1</t>
+          <t>ECON311.1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E81" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2696,24 +2690,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>EDU323.1</t>
+          <t>CS413.1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 16:00-18:50</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2724,24 +2718,24 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>EE301.1</t>
+          <t>ARCH360.1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Fri. 14:00-15:50</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E83" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2752,24 +2746,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EE305.1</t>
+          <t>LAW202.1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>B F1.9</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E84" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2780,24 +2774,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EE321.1</t>
+          <t>TURK112.1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2808,24 +2802,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EE325.1</t>
+          <t>VA323.2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>A F1.11</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Fri. 12:00-14:50</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E86" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2836,7 +2830,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EE422.1</t>
+          <t>POLS499.1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2846,11 +2840,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 16:00-17:50</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>12</v>
@@ -2864,7 +2858,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EE429.1</t>
+          <t>BIO407.1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2874,11 +2868,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
         <v>20</v>
@@ -2892,24 +2886,24 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ELIT100.1</t>
+          <t>CULT101.2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 11:00-12:50</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E89" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2920,12 +2914,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ELIT100.2</t>
+          <t>CS304.1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2934,10 +2928,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="E90" t="n">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2948,21 +2942,21 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ELIT100.3</t>
+          <t>PSY406.1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E91" t="n">
         <v>30</v>
@@ -2976,24 +2970,24 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ELIT100.4</t>
+          <t>ARCH216-3/6.1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E92" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3004,24 +2998,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ELIT100.5</t>
+          <t>MBA581.1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E93" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3032,24 +3026,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ELIT100.6</t>
+          <t>ENS201.1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sports Hall</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3060,24 +3054,24 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ELIT100.7</t>
+          <t>ELIT415.1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E95" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3088,24 +3082,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ELIT103.1</t>
+          <t>EE603.1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Wed. 09:00-10:50</t>
+          <t>Mon. 15:00 - 17:50</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3116,24 +3110,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ELIT103.2</t>
+          <t>VA312.2</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E97" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3144,24 +3138,24 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ELIT200.1</t>
+          <t>EDU323.1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E98" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3172,24 +3166,24 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ELIT200.10</t>
+          <t>IBF409.1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E99" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3200,24 +3194,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ELIT200.11</t>
+          <t>IR100.1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F3.7 - Small Architecture Studio &amp; A F3.10 - Architecture Classroom</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>nThu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E100" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3228,24 +3222,24 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ELIT200.12</t>
+          <t>SPS509.1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3256,24 +3250,24 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ELIT200.13</t>
+          <t>MAN332.1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 17:00-20:50</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E102" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3284,24 +3278,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ELIT200.14</t>
+          <t>MATH209.1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E103" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3312,21 +3306,21 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ELIT200.2</t>
+          <t>MAN328.1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E104" t="n">
         <v>20</v>
@@ -3340,24 +3334,24 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ELIT200.3</t>
+          <t>ELIT203.1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E105" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3368,24 +3362,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ELIT200.4</t>
+          <t>EE305.1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Thu. 10:00-12:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E106" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3396,24 +3390,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ELIT200.5</t>
+          <t>CS105.1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="E107" t="n">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3424,24 +3418,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ELIT200.6</t>
+          <t>SE308.2</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Mon. 14:00-16:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="E108" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3452,24 +3446,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ELIT200.8</t>
+          <t>BOS112.2</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E109" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3480,24 +3474,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ELIT200.9</t>
+          <t>ELIT100.6</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>Sports Hall</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3508,24 +3502,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ELIT201.1</t>
+          <t>ENS204.1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E111" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3536,21 +3530,21 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ELIT203.1</t>
+          <t>ELIT100.1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E112" t="n">
         <v>30</v>
@@ -3564,24 +3558,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ELIT208.1</t>
+          <t>VA519.1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 18:00-20:50</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3592,24 +3586,24 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ELIT401.1</t>
+          <t>IBF401.1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E114" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3620,24 +3614,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ELIT406.1</t>
+          <t>IR478.1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E115" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3648,24 +3642,24 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ELIT413.1</t>
+          <t>ARCH202.3</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E116" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3676,24 +3670,24 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ELIT415.1</t>
+          <t>ELIT200.3</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E117" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3704,24 +3698,24 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ELT105.1</t>
+          <t>VA104.1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E118" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3732,24 +3726,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ELT212.1</t>
+          <t>SOC503.1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E119" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3760,21 +3754,21 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ELT322.1</t>
+          <t>CS207.1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E120" t="n">
         <v>20</v>
@@ -3788,24 +3782,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ELT323.1</t>
+          <t>ENS207</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Fri. 09:00-09:50</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E121" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3816,24 +3810,24 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ELT370.1</t>
+          <t>IBF208.2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E122" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3844,21 +3838,21 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ELT371.1</t>
+          <t>ARCH201.2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E123" t="n">
         <v>20</v>
@@ -3872,24 +3866,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ELT471.1</t>
+          <t>ECON202.2</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E124" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3900,24 +3894,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ELT571.1</t>
+          <t>ELIT200.9</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E125" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3928,24 +3922,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ENS201.1</t>
+          <t>ARCH414.1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Thu. 11:00-12:50</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E126" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3956,24 +3950,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ENS203.1</t>
+          <t>LAW406.1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 14:00-17:50</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="E127" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3984,24 +3978,24 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ENS204.1</t>
+          <t>NS209.1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.5 - Electronic Laboratory</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E128" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4012,24 +4006,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ENS206.1</t>
+          <t>IBF407.1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E129" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4040,24 +4034,24 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ENS209</t>
+          <t>IR651.1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E130" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4068,21 +4062,21 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ENS211.1</t>
+          <t>TURK112.9</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E131" t="n">
         <v>25</v>
@@ -4096,24 +4090,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ENS309.1</t>
+          <t>ELIT401.1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="E132" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4124,24 +4118,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>IBF105.1</t>
+          <t>VA211.2</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>A F3.10 - Architecture Classroom</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Mon. 16:00-17:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E133" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4152,24 +4146,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>IBF205.1</t>
+          <t>LAW402.1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E134" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4180,24 +4174,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IBF205.2</t>
+          <t>CS404.1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E135" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4208,24 +4202,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>IBF208.1</t>
+          <t>ELT371.1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4236,24 +4230,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>IBF208.2</t>
+          <t>ARCH303.2</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E137" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4264,24 +4258,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>IBF310.1</t>
+          <t>IBF205.1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E138" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4292,24 +4286,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IBF401.1</t>
+          <t>TLT312.1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E139" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4320,24 +4314,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>IBF407.1</t>
+          <t>TLT371.1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Mon 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4348,24 +4342,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>IBF409.1</t>
+          <t>SPS603.1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4376,24 +4370,24 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>IBF410.1</t>
+          <t>ELIT200.10</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E142" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4404,24 +4398,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>IE303.1</t>
+          <t>MAN303.1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Thu. 13:00-15:50</t>
+          <t>Wed. 10:00-12:50</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E143" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4432,7 +4426,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>IE305.1</t>
+          <t>ME605.1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4442,11 +4436,11 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Wed. 17:00 - 19:50</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E144" t="n">
         <v>12</v>
@@ -4460,24 +4454,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>IE307.1</t>
+          <t>LAW530.1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Fri. 18:00-20:50</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4488,24 +4482,24 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>IE425.1</t>
+          <t>VA312.1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E146" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -4516,24 +4510,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>IR100.1</t>
+          <t>VA323.1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio &amp; A F3.10 - Architecture Classroom</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>nThu. 13:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E147" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -4544,24 +4538,24 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>IR101.1</t>
+          <t>IE305.1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Wed. 14:00-16:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -4572,24 +4566,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>IR212.1</t>
+          <t>BIO404.1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E149" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -4600,21 +4594,21 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>IR213.1</t>
+          <t>MATH100.2</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E150" t="n">
         <v>20</v>
@@ -4628,24 +4622,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IR214.1</t>
+          <t>IR212.1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E151" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4656,24 +4650,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>IR216.1</t>
+          <t>LAW204.1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 15:00-18:50</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E152" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4684,24 +4678,24 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>IR304.1</t>
+          <t>VA306.1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E153" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4712,24 +4706,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>IR305.1</t>
+          <t>ME211.1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Thu. 13:00-15:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E154" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4740,24 +4734,24 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>IR467.1</t>
+          <t>ENS203.1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="E155" t="n">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4768,24 +4762,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>IR472.1</t>
+          <t>LAW118.1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 12:00-15:50</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E156" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4796,24 +4790,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>IR478.1</t>
+          <t>VA517.1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E157" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4824,24 +4818,24 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ITA101.1</t>
+          <t>MAN302.1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E158" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4852,24 +4846,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ITA102.1</t>
+          <t>BIO424.1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Fri. 10:00-12:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E159" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4880,24 +4874,24 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>LAW104.1</t>
+          <t>VA451.1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E160" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4908,24 +4902,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>LAW106.1</t>
+          <t>ARCH107.1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E161" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4936,24 +4930,24 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>LAW118.1</t>
+          <t>PSY312.1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Tue. 12:00-15:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E162" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4964,21 +4958,21 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>LAW120.1</t>
+          <t>ECON202.1</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E163" t="n">
         <v>35</v>
@@ -4992,24 +4986,24 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>LAW202.1</t>
+          <t>MBA525.1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>B F2.5</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E164" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -5020,24 +5014,24 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>LAW204.1</t>
+          <t>LAW206.1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Thu. 15:00-18:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E165" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -5048,21 +5042,21 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>LAW206.1</t>
+          <t>LAW104.1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E166" t="n">
         <v>40</v>
@@ -5076,24 +5070,24 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>LAW210.1</t>
+          <t>MAN453.1</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>A F1.25</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Tue. 17:00-20:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E167" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -5104,24 +5098,24 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>LAW218.1</t>
+          <t>TLT214.1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E168" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -5132,24 +5126,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>LAW242.1</t>
+          <t>ITA101.1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E169" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -5160,24 +5154,24 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>LAW302.1</t>
+          <t>CS103.2</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E170" t="n">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -5188,24 +5182,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>LAW310.1</t>
+          <t>ECON112.2</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Mon. 09:00-12:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E171" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -5216,24 +5210,24 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>LAW316.1</t>
+          <t>IR214.1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Wed. 12:00-15:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E172" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -5244,24 +5238,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>LAW333.1</t>
+          <t>LAW218.1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E173" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -5272,24 +5266,24 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LAW402.1</t>
+          <t>ELIT200.11</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E174" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -5300,24 +5294,24 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LAW406.1</t>
+          <t>ENS206.1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Fri. 14:00-17:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E175" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5328,24 +5322,24 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>LAW408.1</t>
+          <t>LAW316.1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 12:00-15:50</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E176" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -5356,24 +5350,24 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>LAW416.1</t>
+          <t>ME510.1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Mon. 15:00-18:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E177" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -5384,24 +5378,24 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>LAW443.1</t>
+          <t>ELIT200.13</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E178" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5412,24 +5406,24 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MAC102.1</t>
+          <t>ARCH202.1</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E179" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5440,24 +5434,24 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MAN102.1</t>
+          <t>IBF208.1</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="E180" t="n">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -5468,24 +5462,24 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MAN105.1</t>
+          <t>MAC102.1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>A F2.3</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Mon. 16:00-17:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E181" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -5496,24 +5490,24 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MAN302.1</t>
+          <t>NS122.1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>B F2.4</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 14:00-16:50</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E182" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -5524,24 +5518,24 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MAN303.1</t>
+          <t>IR472.1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Wed. 10:00-12:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E183" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -5552,24 +5546,24 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MAN304.1</t>
+          <t>MATH207.1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E184" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -5580,24 +5574,24 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MAN328.1</t>
+          <t>ECON112.1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="E185" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -5608,24 +5602,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MAN332.1</t>
+          <t>ARCH405.1</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Tue. 17:00-20:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E186" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -5636,24 +5630,24 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MAN352.1</t>
+          <t>LAW210.1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>A F3.10 - Architecture Classroom</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Tue. 17:00-20:50</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E187" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -5664,24 +5658,24 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MAN402.1</t>
+          <t>ELT660.1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -5692,24 +5686,24 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MAN406.1</t>
+          <t>ARCH211.1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Thu. 09:00-10:50</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E189" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -5720,24 +5714,24 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MAN443.1</t>
+          <t>ELT471.1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E190" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -5748,24 +5742,24 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MAN453.1</t>
+          <t>SPS312.1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E191" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -5776,24 +5770,24 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MATH100.1</t>
+          <t>IR467.1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="E192" t="n">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -5804,21 +5798,21 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MATH100.2</t>
+          <t>NS207.1</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E193" t="n">
         <v>20</v>
@@ -5832,24 +5826,24 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MATH101.1</t>
+          <t>AID101.1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="E194" t="n">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5865,7 +5859,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5888,24 +5882,24 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>MATH102.1</t>
+          <t>ARCH570.1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Mon. 09:00-09:50</t>
+          <t>Tue. 17:00-18:50</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="E196" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5916,46 +5910,52 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MATH201.1</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
+          <t>ITA102.1</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Mon. 14:00-14:50</t>
+          <t>Fri. 10:00-12:50</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>164</v>
-      </c>
-      <c r="E197" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>12</v>
+      </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Infeasible</t>
+          <t>Assigned</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MATH201.2</t>
+          <t>ELIT200.6</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Mon. 10:00-10:50</t>
+          <t>Mon. 14:00-16:50</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="E198" t="n">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5966,24 +5966,24 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>MATH201.3</t>
+          <t>ARCH308.1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E199" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5994,24 +5994,24 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MATH205.1</t>
+          <t>BIO513.1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="E200" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -6022,24 +6022,24 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>MATH207.1</t>
+          <t>IBF310.1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E201" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -6050,24 +6050,24 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MATH209.1</t>
+          <t>PSY329.1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="E202" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -6078,24 +6078,24 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MATH209.2</t>
+          <t>EE321.1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E203" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -6106,24 +6106,24 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MATH306.1</t>
+          <t>BIO604.1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>RC1.5 - Electronic Laboratory</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Wed. 13:00-15:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E204" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -6134,24 +6134,24 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ME206.1</t>
+          <t>PSY519.1</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Wed. 10:00-12:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -6162,24 +6162,24 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ME211.1</t>
+          <t>ELIT103.2</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E206" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -6190,24 +6190,24 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ME304.1</t>
+          <t>PSY105.1</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E207" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -6218,24 +6218,24 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ME411.1</t>
+          <t>ARCH102.1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>B F2.5</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 12:00-12:50</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="E208" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -6246,24 +6246,24 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>NS103.1</t>
+          <t>PSY424.1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E209" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -6274,24 +6274,24 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>NS112.1</t>
+          <t>MAN304.1</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F1.23</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Thu. 09:00-10:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="E210" t="n">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -6302,24 +6302,24 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>NS122.1</t>
+          <t>PSY458.1</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>A F1.26</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Tue. 14:00-16:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E211" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>NS207.1</t>
+          <t>PSY490.1</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -6344,7 +6344,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E212" t="n">
         <v>18</v>
@@ -6358,24 +6358,24 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>NS209.1</t>
+          <t>PSY412.1</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>RC1.5 - Electronic Laboratory</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 10:00-12:50</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E213" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -6386,24 +6386,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>POLS101.1</t>
+          <t>ENS209</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>A F1.26</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E214" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -6414,24 +6414,24 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>POLS211.1</t>
+          <t>BOS112.3</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E215" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -6442,24 +6442,24 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>POLS302.1</t>
+          <t>ARCH208.1</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E216" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -6470,24 +6470,24 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>POLS499.1</t>
+          <t>MAN443.1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Wed. 16:00-17:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E217" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -6498,24 +6498,24 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>PSY103.1</t>
+          <t>ARCH569.1</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Fri. 13:00-15:50</t>
+          <t>Thu. 17:00-18:50</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E218" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -6526,24 +6526,24 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>PSY103.2</t>
+          <t>PSY103.1</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Fri. 13:00-15:50</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E219" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -6554,24 +6554,24 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>PSY105.1</t>
+          <t>LAW242.1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E220" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -6582,24 +6582,24 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>PSY105.2</t>
+          <t>IBF507.1</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E221" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -6610,24 +6610,24 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PSY303.1</t>
+          <t>EE429.1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E222" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -6638,24 +6638,24 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>PSY308.1</t>
+          <t>VA314.1</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>B F2.5</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E223" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -6666,24 +6666,24 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>PSY310.1</t>
+          <t>IR652.1</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -6694,24 +6694,24 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>PSY311.1</t>
+          <t>CS600.1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 17:00 - 19:50</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E225" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -6722,24 +6722,24 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>PSY312.1</t>
+          <t>MAN352.1</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E226" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -6750,24 +6750,24 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>PSY329.1</t>
+          <t>ME411.1</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E227" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -6778,24 +6778,24 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PSY336.1</t>
+          <t>PSY103.2</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E228" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -6806,24 +6806,24 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PSY402.1</t>
+          <t>CS105.2</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A F2.3</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E229" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -6834,12 +6834,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>PSY406.1</t>
+          <t>MATH205.1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6848,10 +6848,10 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="E230" t="n">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -6862,21 +6862,21 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>PSY412.1</t>
+          <t>ELT323.1</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Tue. 10:00-12:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E231" t="n">
         <v>35</v>
@@ -6890,24 +6890,24 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>PSY414.1</t>
+          <t>PSY529.1</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Fri. 15:00-17:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E232" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -6918,24 +6918,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>PSY424.1</t>
+          <t>TLT212.1</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Thu 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E233" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -6946,24 +6946,24 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>PSY457.1</t>
+          <t>ARCH210.1</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Mon. 09:00-10:50</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E234" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -6974,24 +6974,24 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>PSY458.1</t>
+          <t>CS511.1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E235" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -7002,24 +7002,24 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>PSY490.1</t>
+          <t>ARCH106.1</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E236" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -7030,12 +7030,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>PSY496.1</t>
+          <t>VA211.1</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7044,10 +7044,10 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E237" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -7058,24 +7058,24 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SE211.1</t>
+          <t>ELIT201.1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="E238" t="n">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -7086,24 +7086,24 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SE308.1</t>
+          <t>ARCH510.1</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Wed. 17:00-18:50</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E239" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -7114,24 +7114,24 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SE308.2</t>
+          <t>ELT571.1</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E240" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SE407.1</t>
+          <t>ARCH209.1</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>B F1.25 Computer Lab</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E241" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -7170,24 +7170,24 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SOC102.1</t>
+          <t>ELIT413.1</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E242" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -7198,24 +7198,24 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SOC311.1</t>
+          <t>ECON506.1</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E243" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -7226,24 +7226,24 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SPS312.1</t>
+          <t>TLT411.1</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Tue 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D244" t="n">
         <v>8</v>
       </c>
       <c r="E244" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -7254,24 +7254,24 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TLT114.1</t>
+          <t>ARCH304.2</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Tue 09:00 – 11:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E245" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -7282,24 +7282,24 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>TLT212.1</t>
+          <t>ELT105.1</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Thu 09:00 – 11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E246" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -7310,24 +7310,24 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>TLT214.1</t>
+          <t>CS427.1</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E247" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -7338,24 +7338,24 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>TLT312.1</t>
+          <t>BIO646.1</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Tue 12:00 – 14:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D248" t="n">
         <v>3</v>
       </c>
       <c r="E248" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -7366,24 +7366,24 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>TLT317.1</t>
+          <t>ELIT200.1</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Thu 15:00 – 17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E249" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -7394,24 +7394,24 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>TLT319.1</t>
+          <t>EE325.1</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.11</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Wed 09:00 – 11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E250" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -7422,24 +7422,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>TLT371.1</t>
+          <t>BIO306.1</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Mon 12:00 – 14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E251" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -7450,24 +7450,24 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>TLT411.1</t>
+          <t>VA341.1</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Tue 09:00 – 11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E252" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -7478,24 +7478,24 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>TLT427.1</t>
+          <t>MAN102.1</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Thu 12:00 – 14:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E253" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -7506,24 +7506,24 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>TLT471.1</t>
+          <t>ELIT200.12</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Mon 12:00 – 14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E254" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -7534,24 +7534,24 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>TT304.1</t>
+          <t>ARCH108.2</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Thu 09:00 – 11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E255" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -7562,24 +7562,24 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>TURK111.1</t>
+          <t>CS308.1</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Mon. 16:00-18:50</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="E256" t="n">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -7590,24 +7590,24 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>TURK111.2</t>
+          <t>VA455.1</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Fri. 15:00-16:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E257" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -7618,24 +7618,24 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>TURK112.1</t>
+          <t>SE308.1</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E258" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -7646,21 +7646,21 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>TURK112.2</t>
+          <t>ELIT100.4</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Tue. 10:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E259" t="n">
         <v>40</v>
@@ -7674,17 +7674,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>TURK112.3</t>
+          <t>TURK112.6</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Tue. 14:00-15:50</t>
+          <t>Wed. 14:00-15:50</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -7702,24 +7702,24 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>TURK112.4</t>
+          <t>MATH102.1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Sports Hall</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Wed. 11:00-12:50</t>
+          <t>Mon. 09:00-09:50</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>TURK112.5</t>
+          <t>VA217.2</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -7740,11 +7740,11 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Mon. 14:00-16:50</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E262" t="n">
         <v>12</v>
@@ -7758,24 +7758,24 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TURK112.6</t>
+          <t>ELIT100.3</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Wed. 14:00-15:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E263" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -7786,24 +7786,24 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>TURK112.7</t>
+          <t>TLT471.1</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Mon. 15:00-16:50</t>
+          <t>Mon 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -7814,24 +7814,24 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>TURK112.8</t>
+          <t>ELIT200.5</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E265" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -7842,24 +7842,24 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>TURK112.9</t>
+          <t>IBF205.2</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E266" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -7870,24 +7870,24 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>VA104.1</t>
+          <t>ARCH110.1</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E267" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -7898,24 +7898,24 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>VA104.2</t>
+          <t>VA217.3</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E268" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -7926,24 +7926,24 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>VA211.1</t>
+          <t>MATH201.3</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E269" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -7954,24 +7954,24 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>VA211.2</t>
+          <t>PSY402.1</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E270" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -7982,24 +7982,24 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>VA217.1</t>
+          <t>LAW310.1</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Mon. 09:00-12:50</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E271" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -8010,24 +8010,24 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>VA217.2</t>
+          <t>CS417.1</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Mon. 14:00-16:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E272" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -8038,24 +8038,24 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>VA217.3</t>
+          <t>BIO514.1</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E273" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -8066,24 +8066,24 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>VA304.1</t>
+          <t>CULT101.1</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>RC.G1 - GBE Laboratory I</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Tue. 09:00-10:50</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E274" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -8094,24 +8094,24 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>VA306.1</t>
+          <t>ECON221.1</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E275" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -8122,21 +8122,21 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>VA306.2</t>
+          <t>PSY414.1</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Fri. 15:00-17:50</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E276" t="n">
         <v>40</v>
@@ -8150,24 +8150,24 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>VA310.1</t>
+          <t>PSY524.1</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E277" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -8178,24 +8178,24 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>VA312.1</t>
+          <t>IE307.1</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E278" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -8206,24 +8206,24 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>VA312.2</t>
+          <t>ECON221.2</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E279" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>VA314.1</t>
+          <t>ELIT103.1</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -8244,11 +8244,11 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Wed. 09:00-10:50</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E280" t="n">
         <v>25</v>
@@ -8262,24 +8262,24 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>VA315.1</t>
+          <t>MATH306.1</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 13:00-15:50</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E281" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -8290,24 +8290,24 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>VA323.1</t>
+          <t>PSY336.1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E282" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -8318,24 +8318,24 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>VA323.2</t>
+          <t>SE211.1</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Fri. 12:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="E283" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -8346,24 +8346,24 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>VA324.1</t>
+          <t>SE407.1</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>B F1.25 Computer Lab</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Fri. 15:00-17:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E284" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -8374,24 +8374,24 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>VA334.1</t>
+          <t>MAN105.1</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>A F2.3</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 16:00-17:50</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E285" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -8402,24 +8402,24 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>VA341.1</t>
+          <t>CS509.1</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E286" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -8430,24 +8430,24 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>VA406.1</t>
+          <t>BOS111.1</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E287" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -8458,24 +8458,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>VA416.1</t>
+          <t>LAW302.1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E288" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -8486,24 +8486,24 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>VA443.1</t>
+          <t>ARCH311.1</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E289" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -8514,21 +8514,21 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>VA451.1</t>
+          <t>CS303.1</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E290" t="n">
         <v>30</v>
@@ -8542,24 +8542,24 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>VA452.1</t>
+          <t>ME580.1</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 17:00 - 19:50</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E291" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -8570,24 +8570,24 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>VA455.1</t>
+          <t>PSY457.1</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E292" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -8598,24 +8598,24 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ARCH510.1</t>
+          <t>EDU103.1</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Wed. 17:00-18:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E293" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -8626,24 +8626,24 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ARCH517.1</t>
+          <t>ARCH208.2</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Tue. 10:00-15:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E294" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -8654,24 +8654,24 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ARCH569.1</t>
+          <t>MAN402.1</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Thu. 17:00-18:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E295" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -8682,24 +8682,24 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ARCH570.1</t>
+          <t>ELIT100.2</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Tue. 17:00-18:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E296" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -8710,21 +8710,21 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>BIO513.1</t>
+          <t>LAW408.1</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E297" t="n">
         <v>20</v>
@@ -8738,24 +8738,24 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>BIO514.1</t>
+          <t>AID304.1</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Thu. 14:00-16:50</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E298" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>BIO518.1</t>
+          <t>ARCH303.1</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -8776,11 +8776,11 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E299" t="n">
         <v>20</v>
@@ -8794,24 +8794,24 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>BIO604.1</t>
+          <t>VA406.1</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E300" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -8822,24 +8822,24 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>BIO646.1</t>
+          <t>TURK112.7</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Mon. 15:00-16:50</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E301" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -8850,24 +8850,24 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>BUS602.1</t>
+          <t>IR101.1</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Wed. 14:00-16:50</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="E302" t="n">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -8878,24 +8878,24 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>CS509.1</t>
+          <t>TURK112.3</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Tue. 14:00-15:50</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E303" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -8906,21 +8906,21 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>CS511.1</t>
+          <t>ECON320.1</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E304" t="n">
         <v>20</v>
@@ -8934,24 +8934,24 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ECON506.1</t>
+          <t>VA502.1</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Thu. 18:00-20:50</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E305" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ECON601.1</t>
+          <t>LAW443.1</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -8972,11 +8972,11 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E306" t="n">
         <v>20</v>
@@ -8990,24 +8990,24 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>EDU583.1</t>
+          <t>ARCH517.1</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Thu. 16:00-18:50</t>
+          <t>Tue. 10:00-15:50</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E307" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -9018,24 +9018,24 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ELT562.1</t>
+          <t>PSY308.1</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.5</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E308" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -9046,24 +9046,24 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ELT565.1</t>
+          <t>CS310.1</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E309" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -9074,24 +9074,24 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ELT599.1</t>
+          <t>ECON601.1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Mon. 17:00-17:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E310" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -9102,24 +9102,24 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ELT660.1</t>
+          <t>TURK112.2</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Tue. 10:00-11:50</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E311" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ELT670.1</t>
+          <t>ELT599.1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -9140,11 +9140,11 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Mon. 17:00-17:50</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E312" t="n">
         <v>12</v>
@@ -9158,24 +9158,24 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>IBF507.1</t>
+          <t>ELIT100.7</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E313" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -9186,24 +9186,24 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>IBF562.1</t>
+          <t>MATH101.1</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E314" t="n">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -9214,24 +9214,24 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>IE502.1</t>
+          <t>EDU102.1</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E315" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -9242,24 +9242,24 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>IR520.1</t>
+          <t>IR304.1</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E316" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -9270,21 +9270,21 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>IR651.1</t>
+          <t>IR520.1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E317" t="n">
         <v>20</v>
@@ -9298,24 +9298,24 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>IR652.1</t>
+          <t>ENS309.1</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="E318" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>LAW530.1</t>
+          <t>ECON404.1</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -9336,11 +9336,11 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Fri. 18:00-20:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E319" t="n">
         <v>12</v>
@@ -9354,24 +9354,24 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>MBA525.1</t>
+          <t>TURK112.8</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E320" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -9382,24 +9382,24 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>MBA535.1</t>
+          <t>ELT565.1</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E321" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -9410,24 +9410,24 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>MBA581.1</t>
+          <t>ME206.1</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Wed. 10:00-12:50</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E322" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -9438,24 +9438,24 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ME510.1</t>
+          <t>EE301.1</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E323" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -9466,24 +9466,24 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>PSY519.1</t>
+          <t>TLT427.1</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Thu 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E324" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -9494,24 +9494,24 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>PSY524.1</t>
+          <t>MATH100.1</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="E325" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -9522,24 +9522,24 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>PSY529.1</t>
+          <t>VA306.2</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E326" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -9550,21 +9550,21 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SOC503.1</t>
+          <t>BIO305.1</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E327" t="n">
         <v>20</v>
@@ -9578,7 +9578,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SPS509.1</t>
+          <t>ARCH201.1</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -9588,11 +9588,11 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E328" t="n">
         <v>18</v>
@@ -9606,24 +9606,24 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SPS603.1</t>
+          <t>IBF410.1</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E329" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -9634,24 +9634,24 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>VA502.1</t>
+          <t>LAW416.1</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Thu. 18:00-20:50</t>
+          <t>Mon. 15:00-18:50</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E330" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -9662,24 +9662,24 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>VA517.1</t>
+          <t>LAW120.1</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E331" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -9690,24 +9690,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>VA519.1</t>
+          <t>VA452.1</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Mon. 18:00-20:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E332" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -9718,24 +9718,24 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ENS207</t>
+          <t>LAW333.1</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Fri. 09:00-09:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E333" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -9746,24 +9746,24 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>CS600.1</t>
+          <t>ELT562.1</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Tue. 17:00 - 19:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E334" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -9774,24 +9774,24 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>EE603.1</t>
+          <t>CS207.2</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Mon. 15:00 - 17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E335" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -9802,24 +9802,24 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ME605.1</t>
+          <t>ARCH307.1</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Wed. 17:00 - 19:50</t>
+          <t>Fri. 09:00-10:50</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E336" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -9830,26 +9830,54 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ME580.1</t>
+          <t>ARCH304.1</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Mon. 17:00 - 19:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E337" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F337" t="inlineStr">
+        <is>
+          <t>Assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>CS306.1</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>B F1.23 - Amphitheater I</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Tue. 12:00-14:50</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>140</v>
+      </c>
+      <c r="E338" t="n">
+        <v>154</v>
+      </c>
+      <c r="F338" t="inlineStr">
         <is>
           <t>Assigned</t>
         </is>

--- a/course_assignments.xlsx
+++ b/course_assignments.xlsx
@@ -456,24 +456,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LAW106.1</t>
+          <t>PSY424.1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -484,24 +484,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VA334.1</t>
+          <t>PSY519.1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -512,24 +512,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELIT200.4</t>
+          <t>ELT471.1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thu. 10:00-12:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -540,24 +540,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TURK112.5</t>
+          <t>IR305.1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Thu. 13:00-15:50</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -568,24 +568,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ARCH202.2</t>
+          <t>MAN302.1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -596,24 +596,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VA315.1</t>
+          <t>BOS111.2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -624,24 +624,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BIO312.1</t>
+          <t>ELT370.1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon. 09:00-10:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -652,24 +652,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ARCH101.1</t>
+          <t>TURK112.3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 14:00-15:50</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -680,24 +680,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PSY310.1</t>
+          <t>VA104.2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -708,24 +708,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VA443.1</t>
+          <t>CS304.1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -736,24 +736,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MBA535.1</t>
+          <t>VA314.1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -764,24 +764,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EDU583.1</t>
+          <t>PSY458.1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Thu. 16:00-18:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -792,24 +792,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TLT319.1</t>
+          <t>VA323.1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wed 09:00 – 11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -820,24 +820,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ARCH100.1</t>
+          <t>PSY312.1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -848,24 +848,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ARCH109.1</t>
+          <t>ELIT200.9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -876,24 +876,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOC102.1</t>
+          <t>ARCH209.1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E17" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -904,24 +904,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VA304.1</t>
+          <t>ELIT103.2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -932,24 +932,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TT304.1</t>
+          <t>IR101.1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Thu 09:00 – 11:50</t>
+          <t>Wed. 14:00-16:50</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -960,24 +960,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ARCH358.1</t>
+          <t>VA104.1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -988,24 +988,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELIT208.1</t>
+          <t>CS207.1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1016,24 +1016,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>VA416.1</t>
+          <t>LAW218.1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E22" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1044,24 +1044,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CS103.1</t>
+          <t>SOC311.1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1072,21 +1072,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EE422.1</t>
+          <t>ARCH109.2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E24" t="n">
         <v>25</v>
@@ -1100,12 +1100,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IBF562.1</t>
+          <t>ENS211.1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1128,24 +1128,24 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IR305.1</t>
+          <t>SPS509.1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Thu. 13:00-15:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MAN406.1</t>
+          <t>IR472.1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
@@ -1184,24 +1184,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CS314.1</t>
+          <t>ECON112.2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1212,24 +1212,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TLT114.1</t>
+          <t>IE303.1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tue 09:00 – 11:50</t>
+          <t>Thu. 13:00-15:50</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="E29" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1240,12 +1240,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PSY105.2</t>
+          <t>ARCH106.1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1268,24 +1268,24 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BOS111.2</t>
+          <t>VA306.2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E31" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1296,24 +1296,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IE303.1</t>
+          <t>BOS111.1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Thu. 13:00-15:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E32" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1324,24 +1324,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IR213.1</t>
+          <t>POLS499.1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 16:00-17:50</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1352,24 +1352,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ELIT200.8</t>
+          <t>CS103.2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ELIT406.1</t>
+          <t>TURK112.9</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1408,24 +1408,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BIO518.1</t>
+          <t>ARCH100.1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E36" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1436,24 +1436,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>VA104.2</t>
+          <t>SE407.1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.25 Computer Lab</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E37" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1464,24 +1464,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TURK111.1</t>
+          <t>MATH101.2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Wed. 16:00-16:50</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="E38" t="n">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1492,24 +1492,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MATH209.2</t>
+          <t>LAW406.1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Fri. 14:00-17:50</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1520,24 +1520,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ELT212.1</t>
+          <t>ELIT203.1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E40" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1548,24 +1548,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ARCH108.1</t>
+          <t>TLT471.1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1576,24 +1576,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TURK112.4</t>
+          <t>VA334.1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sports Hall</t>
+          <t>A F1.23</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wed. 11:00-12:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1604,24 +1604,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>VA310.1</t>
+          <t>VA455.1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E43" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1632,24 +1632,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>POLS302.1</t>
+          <t>PSY496.1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1660,24 +1660,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ELIT200.2</t>
+          <t>IBF407.1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E45" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1688,24 +1688,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>VA217.1</t>
+          <t>ARCH108.1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E46" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1716,24 +1716,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ELT370.1</t>
+          <t>TLT371.1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Mon 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ME304.1</t>
+          <t>ARCH303.2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1754,11 +1754,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E48" t="n">
         <v>18</v>
@@ -1772,24 +1772,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PSY303.1</t>
+          <t>ELIT200.1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1800,12 +1800,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ELIT100.5</t>
+          <t>ELIT100.7</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1814,10 +1814,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E50" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1828,24 +1828,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ARCH412.1</t>
+          <t>MATH306.1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Wed. 13:00-15:50</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E51" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1856,24 +1856,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MATH201.2</t>
+          <t>LAW242.1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mon. 10:00-10:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="E52" t="n">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1884,24 +1884,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ELT322.1</t>
+          <t>IR478.1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1912,24 +1912,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>POLS304.1</t>
+          <t>CS105.1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="E54" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1940,24 +1940,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TLT317.1</t>
+          <t>ECON311.1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Thu 15:00 – 17:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1968,24 +1968,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BUS602.1</t>
+          <t>PSY105.1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1996,24 +1996,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PSY496.1</t>
+          <t>CS105.2</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E57" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2024,24 +2024,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ECON204.1</t>
+          <t>EE603.1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B F2.1</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 15:00 - 17:50</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2052,21 +2052,21 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>POLS101.1</t>
+          <t>PSY303.1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>A F1.26</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E59" t="n">
         <v>65</v>
@@ -2080,24 +2080,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>POLS211.1</t>
+          <t>ELT565.1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2108,46 +2108,52 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MATH201.1</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
+          <t>ELT562.1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>A F2.16 - Architecture Studio</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mon. 14:00-14:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>164</v>
-      </c>
-      <c r="E61" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="E61" t="n">
+        <v>20</v>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Infeasible</t>
+          <t>Assigned</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOC311.1</t>
+          <t>ARCH202.3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E62" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2158,24 +2164,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ENS211.1</t>
+          <t>NS209.1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>RC1.5 - Electronic Laboratory</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E63" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2186,24 +2192,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IBF105.1</t>
+          <t>BIO604.1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mon. 16:00-17:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2214,24 +2220,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ECON430.1</t>
+          <t>IBF410.1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E65" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2242,24 +2248,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ELIT200.14</t>
+          <t>MAN453.1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E66" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2270,24 +2276,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IR216.1</t>
+          <t>ELIT200.5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E67" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2298,24 +2304,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NS112.1</t>
+          <t>ELIT100.4</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Thu. 09:00-10:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="E68" t="n">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2326,24 +2332,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ARCH403.1</t>
+          <t>EDU583.1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Thu. 16:00-18:50</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2354,24 +2360,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NS103.1</t>
+          <t>ELIT413.1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2382,24 +2388,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ARCH109.2</t>
+          <t>TURK112.1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E71" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2410,24 +2416,24 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>VA324.1</t>
+          <t>MATH100.1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fri. 15:00-17:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E72" t="n">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2438,24 +2444,24 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ARCH357.1</t>
+          <t>LAW202.1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.9</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E73" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2466,24 +2472,24 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TURK111.2</t>
+          <t>IR212.1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Fri. 15:00-16:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E74" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2494,24 +2500,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IE502.1</t>
+          <t>TURK112.2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Tue. 10:00-11:50</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E75" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2522,24 +2528,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BOS112.1</t>
+          <t>ENS209</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tue. 14:00-15:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E76" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2550,24 +2556,24 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PSY311.1</t>
+          <t>PSY529.1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2578,24 +2584,24 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ELT670.1</t>
+          <t>ELT371.1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2606,24 +2612,24 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IE425.1</t>
+          <t>SE211.1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="E79" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2634,24 +2640,24 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ECON108.1</t>
+          <t>ECON204.1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E80" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2662,12 +2668,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ECON311.1</t>
+          <t>BIO424.1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2676,10 +2682,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E81" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2690,24 +2696,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CS413.1</t>
+          <t>PSY406.1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Wed. 16:00-18:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E82" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2718,24 +2724,24 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ARCH360.1</t>
+          <t>CULT101.1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F3.10 - Architecture Classroom</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fri. 14:00-15:50</t>
+          <t>Tue. 09:00-10:50</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E83" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2746,24 +2752,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>LAW202.1</t>
+          <t>ARCH201.1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B F1.9</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E84" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2774,24 +2780,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TURK112.1</t>
+          <t>ELIT201.1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E85" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2802,24 +2808,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>VA323.2</t>
+          <t>MAC102.1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fri. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2830,24 +2836,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>POLS499.1</t>
+          <t>ELT212.1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Wed. 16:00-17:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2858,24 +2864,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BIO407.1</t>
+          <t>IBF208.2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E88" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2886,24 +2892,24 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CULT101.2</t>
+          <t>ME211.1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Tue. 11:00-12:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E89" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2914,12 +2920,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CS304.1</t>
+          <t>POLS211.1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2928,10 +2934,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="E90" t="n">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2942,24 +2948,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PSY406.1</t>
+          <t>ARCH211.1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu. 09:00-10:50</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2970,24 +2976,24 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ARCH216-3/6.1</t>
+          <t>TLT312.1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Tue 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2998,21 +3004,21 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MBA581.1</t>
+          <t>IBF409.1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E93" t="n">
         <v>20</v>
@@ -3026,21 +3032,21 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ENS201.1</t>
+          <t>ECON430.1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E94" t="n">
         <v>20</v>
@@ -3054,24 +3060,24 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ELIT415.1</t>
+          <t>MAN303.1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 10:00-12:50</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E95" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3082,24 +3088,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EE603.1</t>
+          <t>LAW443.1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Mon. 15:00 - 17:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E96" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3110,7 +3116,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>VA312.2</t>
+          <t>ELIT200.11</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3120,7 +3126,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -3138,24 +3144,24 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EDU323.1</t>
+          <t>LAW416.1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Mon. 15:00-18:50</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E98" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3166,24 +3172,24 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>IBF409.1</t>
+          <t>ECON506.1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3194,24 +3200,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>IR100.1</t>
+          <t>TLT114.1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio &amp; A F3.10 - Architecture Classroom</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>nThu. 13:00-14:50</t>
+          <t>Tue 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="E100" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3222,24 +3228,24 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SPS509.1</t>
+          <t>BIO518.1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E101" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3250,24 +3256,24 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MAN332.1</t>
+          <t>IR100.1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A F3.7 - Small Architecture Studio &amp; A F3.10 - Architecture Classroom</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Tue. 17:00-20:50</t>
+          <t>nThu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E102" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3278,24 +3284,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MATH209.1</t>
+          <t>ELT571.1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3306,24 +3312,24 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MAN328.1</t>
+          <t>ENS206.1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E104" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3334,24 +3340,24 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ELIT203.1</t>
+          <t>VA312.1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E105" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3362,12 +3368,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EE305.1</t>
+          <t>CS303.1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3376,7 +3382,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E106" t="n">
         <v>30</v>
@@ -3390,24 +3396,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CS105.1</t>
+          <t>PSY308.1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.5</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="E107" t="n">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3418,24 +3424,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SE308.2</t>
+          <t>ARCH102.1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F1.25 Computer Lab</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 12:00-12:50</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E108" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3446,24 +3452,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BOS112.2</t>
+          <t>CULT101.2</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Tue. 11:00-12:50</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E109" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3474,24 +3480,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ELIT100.6</t>
+          <t>CS306.1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sports Hall</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3502,24 +3508,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ENS204.1</t>
+          <t>EE305.1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3530,24 +3536,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ELIT100.1</t>
+          <t>ELIT200.10</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E112" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3558,24 +3564,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>VA519.1</t>
+          <t>ARCH202.1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Mon. 18:00-20:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E113" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3586,24 +3592,24 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>IBF401.1</t>
+          <t>VA502.1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 18:00-20:50</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3614,24 +3620,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IR478.1</t>
+          <t>ENS309.1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3642,24 +3648,24 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ARCH202.3</t>
+          <t>MAN332.1</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Tue. 17:00-20:50</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E116" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3670,24 +3676,24 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ELIT200.3</t>
+          <t>CS509.1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E117" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3698,24 +3704,24 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>VA104.1</t>
+          <t>TURK112.8</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E118" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3726,24 +3732,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOC503.1</t>
+          <t>ECON221.1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E119" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3754,24 +3760,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CS207.1</t>
+          <t>ECON221.2</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E120" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3782,24 +3788,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ENS207</t>
+          <t>IR213.1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Fri. 09:00-09:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E121" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3810,24 +3816,24 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>IBF208.2</t>
+          <t>LAW206.1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E122" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3838,24 +3844,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ARCH201.2</t>
+          <t>NS112.1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Thu. 09:00-10:50</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E123" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3866,24 +3872,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ECON202.2</t>
+          <t>LAW530.1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Fri. 18:00-20:50</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E124" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3894,24 +3900,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ELIT200.9</t>
+          <t>TLT317.1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Thu 15:00 – 17:50</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3922,24 +3928,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ARCH414.1</t>
+          <t>EDU323.1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Thu. 11:00-12:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E126" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3950,24 +3956,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>LAW406.1</t>
+          <t>CS310.1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Fri. 14:00-17:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="E127" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3978,21 +3984,21 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>NS209.1</t>
+          <t>ELIT200.13</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>RC1.5 - Electronic Laboratory</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E128" t="n">
         <v>30</v>
@@ -4006,24 +4012,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IBF407.1</t>
+          <t>MBA581.1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E129" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4034,24 +4040,24 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>IR651.1</t>
+          <t>ARCH307.1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Fri. 09:00-10:50</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E130" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4062,24 +4068,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TURK112.9</t>
+          <t>IBF208.1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E131" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4090,24 +4096,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ELIT401.1</t>
+          <t>SE308.2</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E132" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4118,24 +4124,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>VA211.2</t>
+          <t>TURK112.6</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Wed. 14:00-15:50</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E133" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4146,24 +4152,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>LAW402.1</t>
+          <t>ARCH405.1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E134" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4174,24 +4180,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CS404.1</t>
+          <t>AID101.1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E135" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4202,24 +4208,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ELT371.1</t>
+          <t>ME206.1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Wed. 10:00-12:50</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E136" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4230,24 +4236,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ARCH303.2</t>
+          <t>VA519.1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Mon. 18:00-20:50</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E137" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4258,24 +4264,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>IBF205.1</t>
+          <t>ME580.1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Mon. 17:00 - 19:50</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E138" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4286,24 +4292,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TLT312.1</t>
+          <t>IBF507.1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Tue 12:00 – 14:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E139" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4314,24 +4320,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TLT371.1</t>
+          <t>VA217.2</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Mon 12:00 – 14:50</t>
+          <t>Mon. 14:00-16:50</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E140" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4342,24 +4348,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SPS603.1</t>
+          <t>ARCH303.1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E141" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4370,24 +4376,24 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ELIT200.10</t>
+          <t>ENS201.1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E142" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4398,24 +4404,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MAN303.1</t>
+          <t>LAW106.1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Wed. 10:00-12:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E143" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4426,24 +4432,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ME605.1</t>
+          <t>VA312.2</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Wed. 17:00 - 19:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E144" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -4454,24 +4460,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>LAW530.1</t>
+          <t>ARCH108.2</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Fri. 18:00-20:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E145" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4482,24 +4488,24 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>VA312.1</t>
+          <t>MAN352.1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E146" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -4510,24 +4516,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>VA323.1</t>
+          <t>PSY310.1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E147" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -4538,24 +4544,24 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>IE305.1</t>
+          <t>MATH102.1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Mon. 09:00-09:50</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="E148" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -4566,24 +4572,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BIO404.1</t>
+          <t>VA416.1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E149" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -4594,7 +4600,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MATH100.2</t>
+          <t>BIO404.1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4604,11 +4610,11 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E150" t="n">
         <v>20</v>
@@ -4622,24 +4628,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IR212.1</t>
+          <t>LAW316.1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 12:00-15:50</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E151" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4650,24 +4656,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>LAW204.1</t>
+          <t>PSY414.1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Thu. 15:00-18:50</t>
+          <t>Fri. 15:00-17:50</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E152" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4678,24 +4684,24 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>VA306.1</t>
+          <t>SOC102.1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E153" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4706,24 +4712,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ME211.1</t>
+          <t>VA315.1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E154" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4734,24 +4740,24 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ENS203.1</t>
+          <t>IE425.1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="E155" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4762,24 +4768,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>LAW118.1</t>
+          <t>ARCH412.1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Tue. 12:00-15:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E156" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4790,7 +4796,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>VA517.1</t>
+          <t>ELT670.1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4800,11 +4806,11 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
         <v>12</v>
@@ -4818,24 +4824,24 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MAN302.1</t>
+          <t>SPS603.1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4846,24 +4852,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BIO424.1</t>
+          <t>ECON404.1</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E159" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4874,7 +4880,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>VA451.1</t>
+          <t>PSY329.1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4884,7 +4890,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -4902,24 +4908,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ARCH107.1</t>
+          <t>CS427.1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E161" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4930,24 +4936,24 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PSY312.1</t>
+          <t>PSY412.1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Tue. 10:00-12:50</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E162" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4958,24 +4964,24 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ECON202.1</t>
+          <t>TLT427.1</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E163" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4986,24 +4992,24 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MBA525.1</t>
+          <t>ARCH107.1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E164" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -5014,24 +5020,24 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>LAW206.1</t>
+          <t>POLS101.1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F1.26</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E165" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -5042,24 +5048,24 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>LAW104.1</t>
+          <t>ARCH570.1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 17:00-18:50</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E166" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5070,21 +5076,21 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MAN453.1</t>
+          <t>LAW408.1</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E167" t="n">
         <v>20</v>
@@ -5098,24 +5104,24 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TLT214.1</t>
+          <t>EDU103.1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E168" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -5126,24 +5132,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ITA101.1</t>
+          <t>VA452.1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E169" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -5154,24 +5160,24 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CS103.2</t>
+          <t>ECON202.1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="E170" t="n">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -5182,24 +5188,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ECON112.2</t>
+          <t>TLT411.1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="E171" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -5210,21 +5216,21 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>IR214.1</t>
+          <t>LAW402.1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E172" t="n">
         <v>20</v>
@@ -5238,24 +5244,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>LAW218.1</t>
+          <t>IE307.1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E173" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -5266,24 +5272,24 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ELIT200.11</t>
+          <t>IR652.1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -5294,24 +5300,24 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ENS206.1</t>
+          <t>VA323.2</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Fri. 12:00-14:50</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E175" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5322,24 +5328,24 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>LAW316.1</t>
+          <t>TURK112.5</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Wed. 12:00-15:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="E176" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -5350,24 +5356,24 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ME510.1</t>
+          <t>TLT214.1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D177" t="n">
         <v>3</v>
       </c>
       <c r="E177" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -5378,24 +5384,24 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ELIT200.13</t>
+          <t>ITA101.1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E178" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5406,24 +5412,24 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ARCH202.1</t>
+          <t>ARCH208.2</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E179" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5434,24 +5440,24 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>IBF208.1</t>
+          <t>LAW210.1</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A F3.10 - Architecture Classroom</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 17:00-20:50</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E180" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -5462,24 +5468,24 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MAC102.1</t>
+          <t>TURK111.1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E181" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -5490,24 +5496,24 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>NS122.1</t>
+          <t>LAW104.1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>B F2.4</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Tue. 14:00-16:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E182" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -5518,24 +5524,24 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>IR472.1</t>
+          <t>LAW204.1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 15:00-18:50</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E183" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -5546,12 +5552,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MATH207.1</t>
+          <t>IR304.1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5560,10 +5566,10 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E184" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -5574,24 +5580,24 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ECON112.1</t>
+          <t>ELIT401.1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="E185" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -5602,24 +5608,24 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ARCH405.1</t>
+          <t>MATH201.2</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Mon. 10:00-10:50</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="E186" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -5630,24 +5636,24 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>LAW210.1</t>
+          <t>ECON320.1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>A F3.10 - Architecture Classroom</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Tue. 17:00-20:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E187" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -5658,24 +5664,24 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ELT660.1</t>
+          <t>MATH205.1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="E188" t="n">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -5686,24 +5692,24 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ARCH211.1</t>
+          <t>BOS112.2</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Thu. 09:00-10:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E189" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -5714,24 +5720,24 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ELT471.1</t>
+          <t>BIO312.1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Mon. 09:00-10:50</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E190" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -5742,24 +5748,24 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SPS312.1</t>
+          <t>CS103.1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="E191" t="n">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -5770,7 +5776,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>IR467.1</t>
+          <t>BIO306.1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5780,11 +5786,11 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E192" t="n">
         <v>25</v>
@@ -5798,24 +5804,24 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>NS207.1</t>
+          <t>ELIT100.5</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E193" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5826,24 +5832,24 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AID101.1</t>
+          <t>ARCH201.2</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5854,24 +5860,24 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MATH101.2</t>
+          <t>VA304.1</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Wed. 16:00-16:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="E195" t="n">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5882,24 +5888,24 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ARCH570.1</t>
+          <t>VA341.1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Tue. 17:00-18:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E196" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5910,24 +5916,24 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ITA102.1</t>
+          <t>PSY336.1</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Fri. 10:00-12:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E197" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5938,24 +5944,24 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ELIT200.6</t>
+          <t>ELT322.1</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Mon. 14:00-16:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E198" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5966,24 +5972,24 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ARCH308.1</t>
+          <t>ELIT200.4</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Thu. 10:00-12:50</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E199" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5994,24 +6000,24 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BIO513.1</t>
+          <t>LAW118.1</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Tue. 12:00-15:50</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E200" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -6022,24 +6028,24 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>IBF310.1</t>
+          <t>ELIT415.1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E201" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -6050,24 +6056,24 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>PSY329.1</t>
+          <t>ELIT200.3</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E202" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -6078,24 +6084,24 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>EE321.1</t>
+          <t>MBA525.1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E203" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -6106,24 +6112,24 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BIO604.1</t>
+          <t>ARCH414.1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Thu. 11:00-12:50</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E204" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -6134,24 +6140,24 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>PSY519.1</t>
+          <t>EDU102.1</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E205" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -6162,24 +6168,24 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ELIT103.2</t>
+          <t>ELIT103.1</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Wed. 09:00-10:50</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E206" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -6190,24 +6196,24 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>PSY105.1</t>
+          <t>ARCH357.1</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E207" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -6218,24 +6224,24 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ARCH102.1</t>
+          <t>NS103.1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>B F2.5</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Wed. 12:00-12:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E208" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -6246,24 +6252,24 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>PSY424.1</t>
+          <t>ME304.1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E209" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -6274,24 +6280,24 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>MAN304.1</t>
+          <t>PSY402.1</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E210" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -6302,24 +6308,24 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>PSY458.1</t>
+          <t>LAW302.1</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E211" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -6330,24 +6336,24 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>PSY490.1</t>
+          <t>IBF205.2</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E212" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -6358,24 +6364,24 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>PSY412.1</t>
+          <t>EE422.1</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Tue. 10:00-12:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E213" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -6386,24 +6392,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ENS209</t>
+          <t>VA217.3</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E214" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -6414,24 +6420,24 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BOS112.3</t>
+          <t>ARCH110.1</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E215" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -6442,24 +6448,24 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ARCH208.1</t>
+          <t>TLT319.1</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E216" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -6470,24 +6476,24 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>MAN443.1</t>
+          <t>ECON202.2</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E217" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -6498,24 +6504,24 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ARCH569.1</t>
+          <t>NS122.1</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.35 FBA Conference Room &amp; B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Thu. 17:00-18:50</t>
+          <t>Tue. 14:00-16:50</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E218" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -6526,24 +6532,24 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>PSY103.1</t>
+          <t>VA517.1</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Fri. 13:00-15:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E219" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -6554,21 +6560,21 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>LAW242.1</t>
+          <t>CS314.1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E220" t="n">
         <v>40</v>
@@ -6582,24 +6588,24 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>IBF507.1</t>
+          <t>ELT599.1</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Mon. 17:00-17:50</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E221" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -6610,24 +6616,24 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>EE429.1</t>
+          <t>LAW120.1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E222" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -6638,24 +6644,24 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>VA314.1</t>
+          <t>BIO305.1</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E223" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -6666,24 +6672,24 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>IR652.1</t>
+          <t>MATH209.1</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E224" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -6694,24 +6700,24 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>CS600.1</t>
+          <t>MATH207.1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Tue. 17:00 - 19:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E225" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -6722,24 +6728,24 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>MAN352.1</t>
+          <t>POLS304.1</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E226" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -6750,24 +6756,24 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ME411.1</t>
+          <t>ARCH510.1</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 17:00-18:50</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E227" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -6778,24 +6784,24 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>PSY103.2</t>
+          <t>ELT323.1</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E228" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -6806,52 +6812,46 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>CS105.2</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>A F2.3</t>
-        </is>
-      </c>
+          <t>ELIT100.6</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>66</v>
-      </c>
-      <c r="E229" t="n">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Unassigned (enrollment=0)</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MATH205.1</t>
+          <t>ARCH360.1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Fri. 14:00-15:50</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="E230" t="n">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ELT323.1</t>
+          <t>IBF401.1</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -6872,11 +6872,11 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E231" t="n">
         <v>35</v>
@@ -6890,24 +6890,24 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>PSY529.1</t>
+          <t>ARCH208.1</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E232" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -6918,24 +6918,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>TLT212.1</t>
+          <t>TURK111.2</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Thu 09:00 – 11:50</t>
+          <t>Fri. 15:00-16:50</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E233" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -6946,24 +6946,24 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ARCH210.1</t>
+          <t>ELIT200.8</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Mon. 09:00-10:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E234" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -6974,24 +6974,24 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>CS511.1</t>
+          <t>IE502.1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E235" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -7002,24 +7002,24 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ARCH106.1</t>
+          <t>CS511.1</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E236" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -7030,24 +7030,24 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>VA211.1</t>
+          <t>IR214.1</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E237" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -7058,24 +7058,24 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ELIT201.1</t>
+          <t>SE308.1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E238" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -7086,24 +7086,24 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ARCH510.1</t>
+          <t>VA451.1</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Wed. 17:00-18:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E239" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -7114,24 +7114,24 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ELT571.1</t>
+          <t>ARCH304.2</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E240" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ARCH209.1</t>
+          <t>MAN406.1</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E241" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -7170,24 +7170,24 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ELIT413.1</t>
+          <t>BUS602.1</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E242" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -7198,24 +7198,24 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ECON506.1</t>
+          <t>ELT105.1</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E243" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -7226,24 +7226,24 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>TLT411.1</t>
+          <t>MAN105.1</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.3</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Tue 09:00 – 11:50</t>
+          <t>Mon. 16:00-17:50</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E244" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -7254,24 +7254,24 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ARCH304.2</t>
+          <t>MATH209.2</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E245" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -7282,24 +7282,24 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ELT105.1</t>
+          <t>PSY524.1</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E246" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -7310,24 +7310,24 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>CS427.1</t>
+          <t>PSY311.1</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E247" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -7338,24 +7338,24 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>BIO646.1</t>
+          <t>CS600.1</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Tue. 17:00 - 19:50</t>
         </is>
       </c>
       <c r="D248" t="n">
         <v>3</v>
       </c>
       <c r="E248" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -7366,28 +7366,22 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ELIT200.1</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>A B.8 - Fabrication Lab</t>
-        </is>
-      </c>
+          <t>TURK112.4</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 11:00-12:50</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>30</v>
-      </c>
-      <c r="E249" t="n">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Unassigned (enrollment=0)</t>
         </is>
       </c>
     </row>
@@ -7422,24 +7416,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>BIO306.1</t>
+          <t>MAN402.1</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E251" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -7450,21 +7444,21 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>VA341.1</t>
+          <t>VA310.1</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E252" t="n">
         <v>40</v>
@@ -7478,24 +7472,24 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>MAN102.1</t>
+          <t>LAW310.1</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 09:00-12:50</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="E253" t="n">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -7506,24 +7500,24 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ELIT200.12</t>
+          <t>ELIT406.1</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E254" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -7534,24 +7528,24 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ARCH108.2</t>
+          <t>ARCH216-3/6.1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E255" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -7562,24 +7556,24 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CS308.1</t>
+          <t>ME605.1</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Mon. 16:00-18:50</t>
+          <t>Wed. 17:00 - 19:50</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E256" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -7590,24 +7584,24 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>VA455.1</t>
+          <t>PSY103.1</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Fri. 13:00-15:50</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E257" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -7618,24 +7612,24 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SE308.1</t>
+          <t>ARCH569.1</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 17:00-18:50</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E258" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -7646,24 +7640,24 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ELIT100.4</t>
+          <t>MATH100.2</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E259" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -7674,24 +7668,24 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>TURK112.6</t>
+          <t>IBF205.1</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Wed. 14:00-15:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E260" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -7702,24 +7696,24 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>MATH102.1</t>
+          <t>ELT660.1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Mon. 09:00-09:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -7730,24 +7724,24 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>VA217.2</t>
+          <t>CS404.1</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Mon. 14:00-16:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E262" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -7758,24 +7752,24 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ELIT100.3</t>
+          <t>BOS112.3</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E263" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -7786,7 +7780,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>TLT471.1</t>
+          <t>EE321.1</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -7796,11 +7790,11 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Mon 12:00 – 14:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E264" t="n">
         <v>12</v>
@@ -7814,24 +7808,24 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ELIT200.5</t>
+          <t>ELIT200.6</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Mon. 14:00-16:50</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E265" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -7842,24 +7836,24 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>IBF205.2</t>
+          <t>ME510.1</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E266" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -7870,24 +7864,24 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ARCH110.1</t>
+          <t>TURK112.7</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Mon. 15:00-16:50</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E267" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -7898,24 +7892,24 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>VA217.3</t>
+          <t>ELIT100.2</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E268" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -7926,24 +7920,24 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>MATH201.3</t>
+          <t>CS413.1</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 16:00-18:50</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E269" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -7954,24 +7948,24 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>PSY402.1</t>
+          <t>ARCH358.1</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E270" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -7982,24 +7976,24 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>LAW310.1</t>
+          <t>ELIT100.3</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Mon. 09:00-12:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E271" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -8010,24 +8004,24 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CS417.1</t>
+          <t>ITA102.1</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Fri. 10:00-12:50</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E272" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -8038,24 +8032,24 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>BIO514.1</t>
+          <t>BOS112.1</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Tue. 14:00-15:50</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E273" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -8066,24 +8060,24 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>CULT101.1</t>
+          <t>ELIT208.1</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>RC.G1 - GBE Laboratory I</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Tue. 09:00-10:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E274" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -8094,24 +8088,24 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ECON221.1</t>
+          <t>POLS302.1</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E275" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -8122,24 +8116,24 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>PSY414.1</t>
+          <t>CS207.2</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Fri. 15:00-17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E276" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -8150,24 +8144,24 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>PSY524.1</t>
+          <t>AID304.1</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Thu. 14:00-16:50</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E277" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -8178,12 +8172,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>IE307.1</t>
+          <t>VA306.1</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -8192,10 +8186,10 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E278" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -8206,24 +8200,24 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ECON221.2</t>
+          <t>ECON112.1</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E279" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -8234,21 +8228,21 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ELIT103.1</t>
+          <t>ME411.1</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Wed. 09:00-10:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E280" t="n">
         <v>25</v>
@@ -8262,24 +8256,24 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>MATH306.1</t>
+          <t>ECON601.1</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Wed. 13:00-15:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E281" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -8290,24 +8284,24 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>PSY336.1</t>
+          <t>VA211.1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E282" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -8318,24 +8312,24 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SE211.1</t>
+          <t>BIO513.1</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="E283" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -8346,24 +8340,24 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SE407.1</t>
+          <t>IBF310.1</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>B F1.25 Computer Lab</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E284" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -8374,24 +8368,24 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>MAN105.1</t>
+          <t>ELIT100.1</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>A F2.3</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Mon. 16:00-17:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E285" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -8402,24 +8396,24 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>CS509.1</t>
+          <t>ENS207</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Fri. 09:00-09:50</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E286" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -8430,24 +8424,24 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>BOS111.1</t>
+          <t>IE305.1</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E287" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -8458,24 +8452,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>LAW302.1</t>
+          <t>MAN443.1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E288" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -8486,24 +8480,24 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ARCH311.1</t>
+          <t>MAN102.1</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="E289" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -8514,24 +8508,24 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>CS303.1</t>
+          <t>ARCH403.1</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E290" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -8542,24 +8536,24 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ME580.1</t>
+          <t>PSY457.1</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Mon. 17:00 - 19:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E291" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -8570,24 +8564,24 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>PSY457.1</t>
+          <t>ECON108.1</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E292" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -8598,24 +8592,24 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>EDU103.1</t>
+          <t>IBF105.1</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>A F1.23</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 16:00-17:50</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E293" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -8626,24 +8620,24 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ARCH208.2</t>
+          <t>PSY105.2</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E294" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -8654,24 +8648,24 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>MAN402.1</t>
+          <t>MATH101.1</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E295" t="n">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -8682,24 +8676,24 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ELIT100.2</t>
+          <t>BIO646.1</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E296" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -8710,21 +8704,21 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>LAW408.1</t>
+          <t>ARCH101.1</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E297" t="n">
         <v>20</v>
@@ -8738,24 +8732,24 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>AID304.1</t>
+          <t>EE301.1</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Thu. 14:00-16:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E298" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -8766,24 +8760,24 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ARCH303.1</t>
+          <t>LAW333.1</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E299" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -8794,24 +8788,24 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>VA406.1</t>
+          <t>IBF562.1</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E300" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -8822,7 +8816,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>TURK112.7</t>
+          <t>VA443.1</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -8832,7 +8826,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Mon. 15:00-16:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -8850,24 +8844,24 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>IR101.1</t>
+          <t>NS207.1</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Wed. 14:00-16:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E302" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -8878,24 +8872,24 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>TURK112.3</t>
+          <t>IR520.1</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Tue. 14:00-15:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E303" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -8906,7 +8900,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ECON320.1</t>
+          <t>SOC503.1</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -8916,11 +8910,11 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E304" t="n">
         <v>20</v>
@@ -8934,24 +8928,24 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>VA502.1</t>
+          <t>MBA535.1</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Thu. 18:00-20:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E305" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -8962,24 +8956,24 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>LAW443.1</t>
+          <t>CS308.1</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 16:00-18:50</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E306" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -8990,52 +8984,46 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ARCH517.1</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
-        </is>
-      </c>
+          <t>MATH201.1</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Tue. 10:00-15:50</t>
+          <t>Mon. 14:00-14:50</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>15</v>
-      </c>
-      <c r="E307" t="n">
-        <v>18</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Infeasible</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>PSY308.1</t>
+          <t>ARCH210.1</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>B F2.5</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Mon. 09:00-10:50</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E308" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -9046,24 +9034,24 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>CS310.1</t>
+          <t>ARCH304.1</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="E309" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -9074,24 +9062,24 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ECON601.1</t>
+          <t>ELIT200.12</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E310" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -9102,24 +9090,24 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>TURK112.2</t>
+          <t>BIO407.1</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Tue. 10:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E311" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -9130,7 +9118,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ELT599.1</t>
+          <t>ENS204.1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -9140,11 +9128,11 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Mon. 17:00-17:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E312" t="n">
         <v>12</v>
@@ -9158,24 +9146,24 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ELIT100.7</t>
+          <t>VA217.1</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E313" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -9186,24 +9174,24 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>MATH101.1</t>
+          <t>ARCH202.2</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="E314" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -9214,24 +9202,24 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>EDU102.1</t>
+          <t>PSY490.1</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E315" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -9242,21 +9230,21 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>IR304.1</t>
+          <t>IR467.1</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E316" t="n">
         <v>25</v>
@@ -9270,24 +9258,24 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>IR520.1</t>
+          <t>ARCH517.1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Tue. 10:00-15:50</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E317" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -9298,24 +9286,24 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ENS309.1</t>
+          <t>IR651.1</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="E318" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -9326,24 +9314,24 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ECON404.1</t>
+          <t>CS417.1</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E319" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -9354,24 +9342,24 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>TURK112.8</t>
+          <t>BIO514.1</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E320" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -9382,24 +9370,24 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ELT565.1</t>
+          <t>SPS312.1</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E321" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -9410,24 +9398,24 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ME206.1</t>
+          <t>MAN328.1</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Wed. 10:00-12:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D322" t="n">
         <v>11</v>
       </c>
       <c r="E322" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -9438,24 +9426,24 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>EE301.1</t>
+          <t>ARCH109.1</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E323" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -9466,24 +9454,24 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>TLT427.1</t>
+          <t>VA406.1</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Thu 12:00 – 14:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E324" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -9494,24 +9482,24 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>MATH100.1</t>
+          <t>ELIT200.14</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="E325" t="n">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -9522,24 +9510,24 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>VA306.2</t>
+          <t>ENS203.1</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="E326" t="n">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -9550,12 +9538,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BIO305.1</t>
+          <t>MAN304.1</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.23</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -9564,10 +9552,10 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E327" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -9578,24 +9566,24 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ARCH201.1</t>
+          <t>ARCH311.1</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D328" t="n">
+        <v>4</v>
+      </c>
+      <c r="E328" t="n">
         <v>12</v>
-      </c>
-      <c r="E328" t="n">
-        <v>18</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -9606,7 +9594,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>IBF410.1</t>
+          <t>VA211.2</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -9616,7 +9604,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -9634,24 +9622,24 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>LAW416.1</t>
+          <t>TLT212.1</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Mon. 15:00-18:50</t>
+          <t>Thu 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E330" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -9662,24 +9650,24 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>LAW120.1</t>
+          <t>VA324.1</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Fri. 15:00-17:50</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E331" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -9690,24 +9678,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>VA452.1</t>
+          <t>EE429.1</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E332" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -9718,24 +9706,24 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>LAW333.1</t>
+          <t>TT304.1</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Thu 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E333" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -9746,21 +9734,21 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ELT562.1</t>
+          <t>IR216.1</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E334" t="n">
         <v>20</v>
@@ -9774,24 +9762,24 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>CS207.2</t>
+          <t>PSY103.2</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E335" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -9802,24 +9790,24 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ARCH307.1</t>
+          <t>ELIT200.2</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Fri. 09:00-10:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E336" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -9830,24 +9818,24 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ARCH304.1</t>
+          <t>MATH201.3</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E337" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -9858,24 +9846,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>CS306.1</t>
+          <t>ARCH308.1</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="E338" t="n">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>

--- a/course_assignments.xlsx
+++ b/course_assignments.xlsx
@@ -456,24 +456,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PSY424.1</t>
+          <t>ELIT201.1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -484,24 +484,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PSY519.1</t>
+          <t>ARCH201.1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELT471.1</t>
+          <t>ARCH201.2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -522,11 +522,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
         <v>12</v>
@@ -540,24 +540,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IR305.1</t>
+          <t>ARCH303.2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Thu. 13:00-15:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -568,24 +568,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAN302.1</t>
+          <t>MATH201.3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -596,24 +596,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BOS111.2</t>
+          <t>TLT312.1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Tue 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -624,24 +624,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELT370.1</t>
+          <t>ARCH517.1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Tue. 10:00-15:50</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -652,24 +652,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TURK112.3</t>
+          <t>PSY524.1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tue. 14:00-15:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -680,24 +680,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VA104.2</t>
+          <t>ME411.1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -708,24 +708,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CS304.1</t>
+          <t>ELIT203.1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -736,12 +736,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VA314.1</t>
+          <t>BIO424.1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -764,24 +764,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PSY458.1</t>
+          <t>ME510.1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -792,24 +792,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VA323.1</t>
+          <t>NS103.1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -820,24 +820,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PSY312.1</t>
+          <t>VA443.1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -848,24 +848,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ELIT200.9</t>
+          <t>PSY312.1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -876,12 +876,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ARCH209.1</t>
+          <t>BOS111.2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E17" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -904,21 +904,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELIT103.2</t>
+          <t>BIO604.1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
@@ -932,24 +932,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IR101.1</t>
+          <t>ELIT413.1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wed. 14:00-16:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -960,24 +960,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VA104.1</t>
+          <t>ARCH358.1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -988,24 +988,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CS207.1</t>
+          <t>PSY424.1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1016,24 +1016,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LAW218.1</t>
+          <t>MATH101.1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1044,24 +1044,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOC311.1</t>
+          <t>VA306.2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1072,21 +1072,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ARCH109.2</t>
+          <t>BIO305.1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
         <v>25</v>
@@ -1100,24 +1100,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENS211.1</t>
+          <t>TT304.1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Thu 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1128,24 +1128,24 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SPS509.1</t>
+          <t>IBF562.1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IR472.1</t>
+          <t>ELT670.1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
@@ -1184,24 +1184,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ECON112.2</t>
+          <t>IBF310.1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1212,24 +1212,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IE303.1</t>
+          <t>MAN402.1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Thu. 13:00-15:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1240,24 +1240,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ARCH106.1</t>
+          <t>VA217.3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1268,24 +1268,24 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>VA306.2</t>
+          <t>LAW310.1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 09:00-12:50</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1296,24 +1296,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BOS111.1</t>
+          <t>LAW120.1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E32" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>POLS499.1</t>
+          <t>ECON320.1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1334,11 +1334,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Wed. 16:00-17:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
         <v>12</v>
@@ -1352,24 +1352,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CS103.2</t>
+          <t>ELIT103.1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Wed. 09:00-10:50</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E34" t="n">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TURK112.9</t>
+          <t>IBF105.1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.23</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Mon. 16:00-17:50</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E35" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1408,24 +1408,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ARCH100.1</t>
+          <t>ELT565.1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1436,24 +1436,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SE407.1</t>
+          <t>VA211.2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B F1.25 Computer Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1464,24 +1464,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MATH101.2</t>
+          <t>VA451.1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Wed. 16:00-16:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E38" t="n">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LAW406.1</t>
+          <t>EDU102.1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1502,11 +1502,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fri. 14:00-17:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
         <v>20</v>
@@ -1520,24 +1520,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ELIT203.1</t>
+          <t>VA416.1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1548,24 +1548,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TLT471.1</t>
+          <t>PSY103.1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mon 12:00 – 14:50</t>
+          <t>Fri. 13:00-15:50</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1576,24 +1576,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>VA334.1</t>
+          <t>ARCH307.1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Fri. 09:00-10:50</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E42" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>VA455.1</t>
+          <t>POLS304.1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1618,10 +1618,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PSY496.1</t>
+          <t>ARCH569.1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1642,11 +1642,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 17:00-18:50</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
         <v>12</v>
@@ -1660,7 +1660,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IBF407.1</t>
+          <t>ME605.1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1670,11 +1670,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Wed. 17:00 - 19:50</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
         <v>12</v>
@@ -1688,24 +1688,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ARCH108.1</t>
+          <t>ELIT415.1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E46" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1716,24 +1716,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TLT371.1</t>
+          <t>IBF507.1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mon 12:00 – 14:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E47" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1744,24 +1744,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ARCH303.2</t>
+          <t>CS103.1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="E48" t="n">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1772,24 +1772,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ELIT200.1</t>
+          <t>POLS302.1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1800,12 +1800,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ELIT100.7</t>
+          <t>MATH209.1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1814,10 +1814,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1828,24 +1828,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MATH306.1</t>
+          <t>ARCH357.1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wed. 13:00-15:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LAW242.1</t>
+          <t>ARCH360.1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1866,11 +1866,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Fri. 14:00-15:50</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E52" t="n">
         <v>40</v>
@@ -1884,24 +1884,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IR478.1</t>
+          <t>AID304.1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 14:00-16:50</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1912,24 +1912,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CS105.1</t>
+          <t>ELIT200.2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1940,24 +1940,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ECON311.1</t>
+          <t>PSY519.1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1968,24 +1968,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PSY105.1</t>
+          <t>ENS204.1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1996,24 +1996,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CS105.2</t>
+          <t>SPS603.1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A F2.3</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2024,24 +2024,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EE603.1</t>
+          <t>PSY402.1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mon. 15:00 - 17:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2052,24 +2052,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PSY303.1</t>
+          <t>TLT411.1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2080,24 +2080,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ELT565.1</t>
+          <t>IBF401.1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E60" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2108,24 +2108,24 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ELT562.1</t>
+          <t>SE211.1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="E61" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2136,24 +2136,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ARCH202.3</t>
+          <t>BOS112.3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2164,24 +2164,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NS209.1</t>
+          <t>PSY496.1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RC1.5 - Electronic Laboratory</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2192,24 +2192,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BIO604.1</t>
+          <t>ELIT200.14</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E64" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2220,12 +2220,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IBF410.1</t>
+          <t>ECON202.1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2234,10 +2234,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E65" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MAN453.1</t>
+          <t>IE425.1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2258,11 +2258,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E66" t="n">
         <v>20</v>
@@ -2276,24 +2276,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ELIT200.5</t>
+          <t>ELT212.1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E67" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2304,21 +2304,21 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ELIT100.4</t>
+          <t>LAW106.1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E68" t="n">
         <v>40</v>
@@ -2332,24 +2332,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EDU583.1</t>
+          <t>TURK112.3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Thu. 16:00-18:50</t>
+          <t>Tue. 14:00-15:50</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2360,24 +2360,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ELIT413.1</t>
+          <t>ARCH510.1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 17:00-18:50</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TURK112.1</t>
+          <t>ELIT200.10</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2398,11 +2398,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E71" t="n">
         <v>35</v>
@@ -2416,24 +2416,24 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MATH100.1</t>
+          <t>BIO513.1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2444,24 +2444,24 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LAW202.1</t>
+          <t>VA341.1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>B F1.9</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E73" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2472,24 +2472,24 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IR212.1</t>
+          <t>ELIT200.1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E74" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2500,24 +2500,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TURK112.2</t>
+          <t>MAN328.1</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Tue. 10:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E75" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ENS209</t>
+          <t>ELIT200.11</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2538,11 +2538,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E76" t="n">
         <v>40</v>
@@ -2556,24 +2556,24 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PSY529.1</t>
+          <t>ELIT100.1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E77" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ELT371.1</t>
+          <t>ELT105.1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E78" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2612,24 +2612,24 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SE211.1</t>
+          <t>ARCH303.1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E79" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2640,24 +2640,24 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ECON204.1</t>
+          <t>ELT323.1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>B F2.1</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E80" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2668,24 +2668,24 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BIO424.1</t>
+          <t>VA306.1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E81" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2696,21 +2696,21 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PSY406.1</t>
+          <t>ECON221.1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E82" t="n">
         <v>30</v>
@@ -2724,24 +2724,24 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CULT101.1</t>
+          <t>BIO306.1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>A F3.10 - Architecture Classroom</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tue. 09:00-10:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E83" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2752,24 +2752,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ARCH201.1</t>
+          <t>VA211.1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E84" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2780,24 +2780,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ELIT201.1</t>
+          <t>ARCH202.2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E85" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2808,24 +2808,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MAC102.1</t>
+          <t>PSY457.1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2836,24 +2836,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ELT212.1</t>
+          <t>IR520.1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2864,24 +2864,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>IBF208.2</t>
+          <t>ELT322.1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E88" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2892,24 +2892,24 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ME211.1</t>
+          <t>ARCH108.2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>POLS211.1</t>
+          <t>ELIT200.4</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2930,11 +2930,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Thu. 10:00-12:50</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E90" t="n">
         <v>35</v>
@@ -2948,24 +2948,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ARCH211.1</t>
+          <t>MAN303.1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Thu. 09:00-10:50</t>
+          <t>Wed. 10:00-12:50</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E91" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2976,24 +2976,24 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TLT312.1</t>
+          <t>SOC503.1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Tue 12:00 – 14:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D92" t="n">
         <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3004,24 +3004,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IBF409.1</t>
+          <t>VA324.1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Fri. 15:00-17:50</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E93" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3032,24 +3032,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ECON430.1</t>
+          <t>ENS309.1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="E94" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3060,24 +3060,24 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MAN303.1</t>
+          <t>LAW210.1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Wed. 10:00-12:50</t>
+          <t>Tue. 17:00-20:50</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E95" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3088,24 +3088,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LAW443.1</t>
+          <t>VA452.1</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E96" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3116,24 +3116,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ELIT200.11</t>
+          <t>IBF208.2</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E97" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3144,24 +3144,24 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LAW416.1</t>
+          <t>IR213.1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Mon. 15:00-18:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E98" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3172,21 +3172,21 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ECON506.1</t>
+          <t>TURK112.9</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E99" t="n">
         <v>25</v>
@@ -3200,24 +3200,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TLT114.1</t>
+          <t>VA312.1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Tue 09:00 – 11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E100" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3228,24 +3228,24 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BIO518.1</t>
+          <t>SE308.2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E101" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3256,24 +3256,24 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IR100.1</t>
+          <t>IR652.1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio &amp; A F3.10 - Architecture Classroom</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>nThu. 13:00-14:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3284,24 +3284,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ELT571.1</t>
+          <t>EDU103.1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E103" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3312,24 +3312,24 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ENS206.1</t>
+          <t>ELIT406.1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E104" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3340,24 +3340,24 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>VA312.1</t>
+          <t>IBF205.1</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E105" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3368,24 +3368,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CS303.1</t>
+          <t>CS404.1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E106" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3396,24 +3396,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PSY308.1</t>
+          <t>VA519.1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>B F2.5</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Mon. 18:00-20:50</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3424,24 +3424,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ARCH102.1</t>
+          <t>VA314.1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B F1.25 Computer Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Wed. 12:00-12:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E108" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3452,24 +3452,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CULT101.2</t>
+          <t>ARCH308.1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Tue. 11:00-12:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E109" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3480,24 +3480,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CS306.1</t>
+          <t>VA217.1</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="E110" t="n">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3508,24 +3508,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>EE305.1</t>
+          <t>VA502.1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 18:00-20:50</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3536,24 +3536,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ELIT200.10</t>
+          <t>AID101.1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E112" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3564,24 +3564,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ARCH202.1</t>
+          <t>ELIT200.13</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E113" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3592,24 +3592,24 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>VA502.1</t>
+          <t>MAN302.1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Thu. 18:00-20:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E114" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3620,24 +3620,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ENS309.1</t>
+          <t>CULT101.2</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 11:00-12:50</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="E115" t="n">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3648,52 +3648,46 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MAN332.1</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>B F1.35 FBA Conference Room</t>
-        </is>
-      </c>
+          <t>TURK112.4</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Tue. 17:00-20:50</t>
+          <t>Wed. 11:00-12:50</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>44</v>
-      </c>
-      <c r="E116" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Unassigned (enrollment=0)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CS509.1</t>
+          <t>TURK112.8</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E117" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3704,21 +3698,21 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TURK112.8</t>
+          <t>LAW118.1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Tue. 12:00-15:50</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E118" t="n">
         <v>45</v>
@@ -3732,24 +3726,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ECON221.1</t>
+          <t>CS105.1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="E119" t="n">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3760,24 +3754,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ECON221.2</t>
+          <t>MATH101.2</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Wed. 16:00-16:50</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="E120" t="n">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3788,24 +3782,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IR213.1</t>
+          <t>PSY414.1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Fri. 15:00-17:50</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E121" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3816,24 +3810,24 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>LAW206.1</t>
+          <t>TLT427.1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E122" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3844,24 +3838,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>NS112.1</t>
+          <t>BOS112.2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Thu. 09:00-10:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E123" t="n">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3872,24 +3866,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LAW530.1</t>
+          <t>BIO514.1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Fri. 18:00-20:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E124" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3900,24 +3894,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TLT317.1</t>
+          <t>IR304.1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Thu 15:00 – 17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E125" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3928,7 +3922,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EDU323.1</t>
+          <t>MAC102.1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3938,11 +3932,11 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E126" t="n">
         <v>12</v>
@@ -3956,24 +3950,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CS310.1</t>
+          <t>PSY308.1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F1.25 Computer Lab</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E127" t="n">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3984,24 +3978,24 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ELIT200.13</t>
+          <t>ENS209</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E128" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4012,24 +4006,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MBA581.1</t>
+          <t>ECON221.2</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E129" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4040,24 +4034,24 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ARCH307.1</t>
+          <t>ECON204.1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Fri. 09:00-10:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E130" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4068,24 +4062,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>IBF208.1</t>
+          <t>NS207.1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E131" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4096,24 +4090,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SE308.2</t>
+          <t>ELT371.1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E132" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4124,24 +4118,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TURK112.6</t>
+          <t>ARCH304.1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Wed. 14:00-15:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E133" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4152,7 +4146,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ARCH405.1</t>
+          <t>CS600.1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4162,11 +4156,11 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Tue. 17:00 - 19:50</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E134" t="n">
         <v>12</v>
@@ -4180,24 +4174,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AID101.1</t>
+          <t>MAN406.1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E135" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4208,24 +4202,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ME206.1</t>
+          <t>ELT370.1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Wed. 10:00-12:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4236,24 +4230,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>VA519.1</t>
+          <t>LAW316.1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Mon. 18:00-20:50</t>
+          <t>Wed. 12:00-15:50</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E137" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4264,24 +4258,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ME580.1</t>
+          <t>PSY458.1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Mon. 17:00 - 19:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E138" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4292,24 +4286,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IBF507.1</t>
+          <t>IBF205.2</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E139" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4320,24 +4314,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>VA217.2</t>
+          <t>ENS201.1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Mon. 14:00-16:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E140" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4348,24 +4342,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ARCH303.1</t>
+          <t>TLT214.1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E141" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4376,21 +4370,21 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ENS201.1</t>
+          <t>VA323.2</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Fri. 12:00-14:50</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E142" t="n">
         <v>20</v>
@@ -4404,24 +4398,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>LAW106.1</t>
+          <t>MATH100.2</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E143" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4432,24 +4426,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>VA312.2</t>
+          <t>TLT114.1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E144" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -4460,24 +4454,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ARCH108.2</t>
+          <t>CS314.1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E145" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4488,24 +4482,24 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MAN352.1</t>
+          <t>NS112.1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Thu. 09:00-10:50</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E146" t="n">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -4516,24 +4510,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PSY310.1</t>
+          <t>ARCH403.1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E147" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -4544,24 +4538,24 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MATH102.1</t>
+          <t>VA312.2</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Mon. 09:00-09:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="E148" t="n">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -4572,24 +4566,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>VA416.1</t>
+          <t>ENS203.1</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="E149" t="n">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -4600,24 +4594,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BIO404.1</t>
+          <t>CS308.1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 16:00-18:50</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="E150" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -4628,24 +4622,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>LAW316.1</t>
+          <t>NS209.1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>RC1.5 - Electronic Laboratory</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Wed. 12:00-15:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E151" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4656,24 +4650,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PSY414.1</t>
+          <t>EE429.1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Fri. 15:00-17:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E152" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4684,24 +4678,24 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SOC102.1</t>
+          <t>PSY336.1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E153" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4712,24 +4706,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>VA315.1</t>
+          <t>TURK111.2</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Fri. 15:00-16:50</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E154" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4740,7 +4734,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>IE425.1</t>
+          <t>IE307.1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4750,11 +4744,11 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E155" t="n">
         <v>20</v>
@@ -4768,24 +4762,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ARCH412.1</t>
+          <t>CS103.2</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E156" t="n">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4796,7 +4790,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ELT670.1</t>
+          <t>BUS602.1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4806,11 +4800,11 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157" t="n">
         <v>12</v>
@@ -4824,24 +4818,24 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SPS603.1</t>
+          <t>IR651.1</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4852,7 +4846,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ECON404.1</t>
+          <t>ARCH304.2</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4862,11 +4856,11 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E159" t="n">
         <v>12</v>
@@ -4880,24 +4874,24 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PSY329.1</t>
+          <t>EDU583.1</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Thu. 16:00-18:50</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4908,24 +4902,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CS427.1</t>
+          <t>LAW202.1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F2.5</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E161" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4936,24 +4930,24 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PSY412.1</t>
+          <t>EDU323.1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Tue. 10:00-12:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E162" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4964,24 +4958,24 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TLT427.1</t>
+          <t>IR101.1</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Thu 12:00 – 14:50</t>
+          <t>Wed. 14:00-16:50</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="E163" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4992,24 +4986,24 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ARCH107.1</t>
+          <t>MATH102.1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Mon. 09:00-09:50</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="E164" t="n">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -5020,24 +5014,24 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>POLS101.1</t>
+          <t>ECON430.1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>A F1.26</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="E165" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -5048,24 +5042,24 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ARCH570.1</t>
+          <t>MATH306.1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Tue. 17:00-18:50</t>
+          <t>Wed. 13:00-15:50</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E166" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5076,24 +5070,24 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>LAW408.1</t>
+          <t>EE321.1</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E167" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -5104,24 +5098,24 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>EDU103.1</t>
+          <t>TLT371.1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -5132,24 +5126,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>VA452.1</t>
+          <t>ELIT200.12</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E169" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -5160,24 +5154,24 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ECON202.1</t>
+          <t>LAW242.1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E170" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -5188,24 +5182,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TLT411.1</t>
+          <t>LAW302.1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Tue 09:00 – 11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E171" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -5216,24 +5210,24 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>LAW402.1</t>
+          <t>MATH100.1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E172" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -5244,24 +5238,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>IE307.1</t>
+          <t>ARCH208.2</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E173" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -5272,24 +5266,24 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>IR652.1</t>
+          <t>ECON112.2</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E174" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -5300,24 +5294,24 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>VA323.2</t>
+          <t>TLT317.1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Fri. 12:00-14:50</t>
+          <t>Thu 15:00 – 17:50</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E175" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5328,24 +5322,24 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TURK112.5</t>
+          <t>NS122.1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.35 FBA Conference Room &amp; B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Tue. 14:00-16:50</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="E176" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -5356,12 +5350,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>TLT214.1</t>
+          <t>VA104.1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5370,10 +5364,10 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E177" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -5384,24 +5378,24 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ITA101.1</t>
+          <t>LAW530.1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Fri. 18:00-20:50</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E178" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5412,24 +5406,24 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ARCH208.2</t>
+          <t>TLT212.1</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Thu 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E179" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5440,24 +5434,24 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>LAW210.1</t>
+          <t>SE407.1</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>A F3.10 - Architecture Classroom</t>
+          <t>B F1.25 Computer Lab</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Tue. 17:00-20:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E180" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -5468,24 +5462,24 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TURK111.1</t>
+          <t>MAN332.1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Tue. 17:00-20:50</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E181" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -5496,24 +5490,24 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>LAW104.1</t>
+          <t>ECON202.2</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E182" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -5524,24 +5518,24 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>LAW204.1</t>
+          <t>POLS499.1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Thu. 15:00-18:50</t>
+          <t>Wed. 16:00-17:50</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -5552,24 +5546,24 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>IR304.1</t>
+          <t>ELT562.1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E184" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -5580,52 +5574,46 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ELIT401.1</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>B F1.2 - Class/ECON Lab</t>
-        </is>
-      </c>
+          <t>MATH201.1</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Mon. 14:00-14:50</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>5</v>
-      </c>
-      <c r="E185" t="n">
-        <v>20</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Infeasible</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>MATH201.2</t>
+          <t>BIO312.1</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Mon. 10:00-10:50</t>
+          <t>Mon. 09:00-10:50</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E186" t="n">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -5636,24 +5624,24 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ECON320.1</t>
+          <t>ME580.1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 17:00 - 19:50</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E187" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -5664,24 +5652,24 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MATH205.1</t>
+          <t>IBF409.1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E188" t="n">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -5692,24 +5680,24 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BOS112.2</t>
+          <t>ARCH211.1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Thu. 09:00-10:50</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E189" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -5720,24 +5708,24 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BIO312.1</t>
+          <t>ELIT100.5</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Mon. 09:00-10:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E190" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -5748,24 +5736,24 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CS103.1</t>
+          <t>PSY406.1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="E191" t="n">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -5776,24 +5764,24 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BIO306.1</t>
+          <t>VA517.1</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E192" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -5804,24 +5792,24 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ELIT100.5</t>
+          <t>ELIT100.3</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E193" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5832,24 +5820,24 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ARCH201.2</t>
+          <t>ARCH570.1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Tue. 17:00-18:50</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E194" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5860,24 +5848,24 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>VA304.1</t>
+          <t>ARCH311.1</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E195" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5888,24 +5876,24 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>VA341.1</t>
+          <t>PSY529.1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E196" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5916,24 +5904,24 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>PSY336.1</t>
+          <t>CS511.1</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E197" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5944,24 +5932,24 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ELT322.1</t>
+          <t>ARCH100.1</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E198" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5972,24 +5960,24 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ELIT200.4</t>
+          <t>ENS206.1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Thu. 10:00-12:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E199" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -6000,21 +5988,21 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>LAW118.1</t>
+          <t>TURK112.6</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.22</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Tue. 12:00-15:50</t>
+          <t>Wed. 14:00-15:50</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E200" t="n">
         <v>45</v>
@@ -6028,24 +6016,24 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ELIT415.1</t>
+          <t>PSY303.1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E201" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -6056,24 +6044,24 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ELIT200.3</t>
+          <t>TURK111.1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E202" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -6084,24 +6072,24 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MBA525.1</t>
+          <t>IBF410.1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E203" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -6112,24 +6100,24 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ARCH414.1</t>
+          <t>IBF208.1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Thu. 11:00-12:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E204" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -6140,7 +6128,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>EDU102.1</t>
+          <t>ELIT103.2</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6150,11 +6138,11 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E205" t="n">
         <v>20</v>
@@ -6168,24 +6156,24 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ELIT103.1</t>
+          <t>VA310.1</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Wed. 09:00-10:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E206" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -6196,24 +6184,24 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ARCH357.1</t>
+          <t>LAW416.1</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Mon. 15:00-18:50</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E207" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -6224,21 +6212,21 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>NS103.1</t>
+          <t>MAN443.1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E208" t="n">
         <v>20</v>
@@ -6252,24 +6240,24 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ME304.1</t>
+          <t>ECON601.1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E209" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -6280,24 +6268,24 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>PSY402.1</t>
+          <t>CS427.1</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E210" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -6308,24 +6296,24 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>LAW302.1</t>
+          <t>IE502.1</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E211" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -6336,24 +6324,24 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>IBF205.2</t>
+          <t>MATH209.2</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E212" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -6364,24 +6352,24 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>EE422.1</t>
+          <t>LAW406.1</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 14:00-17:50</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E213" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -6392,24 +6380,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>VA217.3</t>
+          <t>PSY311.1</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E214" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -6420,24 +6408,24 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ARCH110.1</t>
+          <t>ARCH210.1</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Mon. 09:00-10:50</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E215" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -6448,24 +6436,24 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>TLT319.1</t>
+          <t>IR467.1</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Wed 09:00 – 11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E216" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -6476,24 +6464,24 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ECON202.2</t>
+          <t>ELIT401.1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E217" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -6504,24 +6492,24 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>NS122.1</t>
+          <t>ARCH109.1</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room &amp; B F1.2 - Class/ECON Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Tue. 14:00-16:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E218" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -6532,21 +6520,21 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>VA517.1</t>
+          <t>ELT471.1</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E219" t="n">
         <v>20</v>
@@ -6560,24 +6548,24 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>CS314.1</t>
+          <t>IR216.1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E220" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -6588,24 +6576,24 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ELT599.1</t>
+          <t>SOC311.1</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Mon. 17:00-17:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E221" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -6616,24 +6604,24 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>LAW120.1</t>
+          <t>ARCH209.1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E222" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -6644,12 +6632,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BIO305.1</t>
+          <t>LAW333.1</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.1</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6658,10 +6646,10 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E223" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -6672,24 +6660,24 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MATH209.1</t>
+          <t>CULT101.1</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>RC.G3 - GBE III</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 09:00-10:50</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E224" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -6700,24 +6688,24 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>MATH207.1</t>
+          <t>EE325.1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F1.11</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E225" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -6728,21 +6716,21 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>POLS304.1</t>
+          <t>BIO407.1</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E226" t="n">
         <v>20</v>
@@ -6756,7 +6744,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ARCH510.1</t>
+          <t>ME206.1</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -6766,11 +6754,11 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Wed. 17:00-18:50</t>
+          <t>Wed. 10:00-12:50</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E227" t="n">
         <v>12</v>
@@ -6784,24 +6772,24 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ELT323.1</t>
+          <t>MBA581.1</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E228" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -6812,29 +6800,35 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ELIT100.6</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr"/>
+          <t>MAN453.1</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>RC1.3 - GSM and Network Laboratories</t>
+        </is>
+      </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
-      </c>
-      <c r="E229" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="E229" t="n">
+        <v>20</v>
+      </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Unassigned (enrollment=0)</t>
+          <t>Assigned</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ARCH360.1</t>
+          <t>LAW104.1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -6844,11 +6838,11 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Fri. 14:00-15:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E230" t="n">
         <v>40</v>
@@ -6862,24 +6856,24 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>IBF401.1</t>
+          <t>ELIT200.9</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E231" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -6890,7 +6884,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ARCH208.1</t>
+          <t>ARCH107.1</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -6900,11 +6894,11 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E232" t="n">
         <v>35</v>
@@ -6918,24 +6912,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>TURK111.2</t>
+          <t>BOS111.1</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Fri. 15:00-16:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E233" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -6946,24 +6940,24 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ELIT200.8</t>
+          <t>CS105.2</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A F2.3</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E234" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -6974,24 +6968,24 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>IE502.1</t>
+          <t>IE303.1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Thu. 13:00-15:50</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="E235" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -7002,21 +6996,21 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>CS511.1</t>
+          <t>IR212.1</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E236" t="n">
         <v>25</v>
@@ -7030,24 +7024,24 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>IR214.1</t>
+          <t>LAW402.1</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E237" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -7058,24 +7052,24 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SE308.1</t>
+          <t>TLT319.1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Wed 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E238" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -7086,24 +7080,24 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>VA451.1</t>
+          <t>POLS101.1</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.35 FBA Conference Room &amp; B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E239" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -7114,24 +7108,24 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ARCH304.2</t>
+          <t>LAW206.1</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E240" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -7142,24 +7136,24 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>MAN406.1</t>
+          <t>TURK112.5</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E241" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -7170,24 +7164,24 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>BUS602.1</t>
+          <t>ECON108.1</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E242" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -7198,24 +7192,24 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ELT105.1</t>
+          <t>ELT660.1</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -7226,24 +7220,24 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>MAN105.1</t>
+          <t>ECON112.1</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>A F2.3</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Mon. 16:00-17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E244" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -7254,24 +7248,24 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>MATH209.2</t>
+          <t>EE301.1</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E245" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -7282,24 +7276,24 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>PSY524.1</t>
+          <t>ELIT208.1</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.11</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="E246" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -7310,24 +7304,24 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>PSY311.1</t>
+          <t>IR214.1</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E247" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -7338,24 +7332,24 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CS600.1</t>
+          <t>CS310.1</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Tue. 17:00 - 19:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E248" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -7366,46 +7360,52 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>TURK112.4</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr"/>
+          <t>ARCH412.1</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
+        </is>
+      </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Wed. 11:00-12:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
-      </c>
-      <c r="E249" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="E249" t="n">
+        <v>18</v>
+      </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Unassigned (enrollment=0)</t>
+          <t>Assigned</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>EE325.1</t>
+          <t>TURK112.2</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>A F1.11</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 10:00-11:50</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E250" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -7416,24 +7416,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>MAN402.1</t>
+          <t>PSY412.1</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 10:00-12:50</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E251" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -7444,12 +7444,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>VA310.1</t>
+          <t>ELIT200.8</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -7458,10 +7458,10 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E252" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -7472,24 +7472,24 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>LAW310.1</t>
+          <t>IR472.1</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Mon. 09:00-12:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E253" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -7500,24 +7500,24 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ELIT406.1</t>
+          <t>MAN352.1</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="E254" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -7528,24 +7528,24 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ARCH216-3/6.1</t>
+          <t>MBA525.1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E255" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -7556,24 +7556,24 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ME605.1</t>
+          <t>ARCH202.3</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Wed. 17:00 - 19:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E256" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -7584,24 +7584,24 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>PSY103.1</t>
+          <t>ELIT200.5</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Fri. 13:00-15:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E257" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -7612,24 +7612,24 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ARCH569.1</t>
+          <t>TURK112.1</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Thu. 17:00-18:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E258" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -7640,24 +7640,24 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>MATH100.2</t>
+          <t>ENS207</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Fri. 09:00-09:50</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E259" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -7668,24 +7668,24 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>IBF205.1</t>
+          <t>ARCH108.1</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E260" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -7696,24 +7696,24 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ELT660.1</t>
+          <t>LAW218.1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E261" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -7724,24 +7724,24 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>CS404.1</t>
+          <t>MAN105.1</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.3</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 16:00-17:50</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E262" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -7752,24 +7752,24 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>BOS112.3</t>
+          <t>EE603.1</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Mon. 15:00 - 17:50</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E263" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -7780,24 +7780,24 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>EE321.1</t>
+          <t>IR478.1</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E264" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -7808,24 +7808,24 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ELIT200.6</t>
+          <t>IR100.1</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F3.7 - Small Architecture Studio &amp; A F3.10 - Architecture Classroom</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Mon. 14:00-16:50</t>
+          <t>nThu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E265" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -7836,24 +7836,24 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ME510.1</t>
+          <t>IR305.1</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Thu. 13:00-15:50</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E266" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -7864,24 +7864,24 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>TURK112.7</t>
+          <t>PSY490.1</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Mon. 15:00-16:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E267" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -7892,24 +7892,24 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ELIT100.2</t>
+          <t>CS509.1</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E268" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -7920,24 +7920,24 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>CS413.1</t>
+          <t>IE305.1</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Wed. 16:00-18:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E269" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -7948,24 +7948,24 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ARCH358.1</t>
+          <t>SPS312.1</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E270" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -7976,24 +7976,24 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ELIT100.3</t>
+          <t>VA315.1</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E271" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -8004,24 +8004,24 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ITA102.1</t>
+          <t>CS303.1</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Fri. 10:00-12:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E272" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -8032,24 +8032,24 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>BOS112.1</t>
+          <t>ARCH405.1</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Tue. 14:00-15:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E273" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -8060,24 +8060,24 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ELIT208.1</t>
+          <t>ME304.1</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E274" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -8088,24 +8088,24 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>POLS302.1</t>
+          <t>TLT471.1</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Mon 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>CS207.2</t>
+          <t>VA104.2</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -8126,11 +8126,11 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E276" t="n">
         <v>20</v>
@@ -8144,52 +8144,46 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>AID304.1</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
-        </is>
-      </c>
+          <t>ELIT100.6</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Thu. 14:00-16:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>32</v>
-      </c>
-      <c r="E277" t="n">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Unassigned (enrollment=0)</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>VA306.1</t>
+          <t>ARCH208.1</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E278" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -8200,24 +8194,24 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ECON112.1</t>
+          <t>CS207.1</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="E279" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -8228,24 +8222,24 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ME411.1</t>
+          <t>LAW204.1</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 15:00-18:50</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E280" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -8256,24 +8250,24 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ECON601.1</t>
+          <t>VA304.1</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E281" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -8284,24 +8278,24 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>VA211.1</t>
+          <t>ARCH102.1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.25 Computer Lab</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Wed. 12:00-12:50</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E282" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -8312,24 +8306,24 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>BIO513.1</t>
+          <t>ME211.1</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E283" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -8340,24 +8334,24 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>IBF310.1</t>
+          <t>CS413.1</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Wed. 16:00-18:50</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E284" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -8368,24 +8362,24 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ELIT100.1</t>
+          <t>ARCH110.1</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E285" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -8396,24 +8390,24 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ENS207</t>
+          <t>ELIT100.4</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Fri. 09:00-09:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E286" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -8424,24 +8418,24 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>IE305.1</t>
+          <t>PSY105.1</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E287" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -8452,24 +8446,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>MAN443.1</t>
+          <t>VA334.1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E288" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -8480,24 +8474,24 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>MAN102.1</t>
+          <t>VA455.1</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="E289" t="n">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -8508,24 +8502,24 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ARCH403.1</t>
+          <t>ARCH101.1</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E290" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -8536,24 +8530,24 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>PSY457.1</t>
+          <t>VA323.1</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E291" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -8564,24 +8558,24 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ECON108.1</t>
+          <t>ITA102.1</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Fri. 10:00-12:50</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E292" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -8592,24 +8586,24 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>IBF105.1</t>
+          <t>SE308.1</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Mon. 16:00-17:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E293" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -8620,24 +8614,24 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>PSY105.2</t>
+          <t>VA406.1</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E294" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -8648,24 +8642,24 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>MATH101.1</t>
+          <t>ENS211.1</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="E295" t="n">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -8676,24 +8670,24 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>BIO646.1</t>
+          <t>MAN304.1</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E296" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -8704,24 +8698,24 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ARCH101.1</t>
+          <t>EE422.1</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E297" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -8732,24 +8726,24 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>EE301.1</t>
+          <t>POLS211.1</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E298" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -8760,24 +8754,24 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>LAW333.1</t>
+          <t>CS304.1</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="E299" t="n">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -8788,24 +8782,24 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>IBF562.1</t>
+          <t>ELIT200.3</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E300" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -8816,24 +8810,24 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>VA443.1</t>
+          <t>ECON404.1</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E301" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -8844,12 +8838,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>NS207.1</t>
+          <t>LAW408.1</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8858,7 +8852,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E302" t="n">
         <v>20</v>
@@ -8872,24 +8866,24 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>IR520.1</t>
+          <t>ELIT200.6</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Mon. 14:00-16:50</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E303" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -8900,24 +8894,24 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SOC503.1</t>
+          <t>MAN102.1</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="E304" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -8928,24 +8922,24 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>MBA535.1</t>
+          <t>PSY310.1</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E305" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -8956,24 +8950,24 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>CS308.1</t>
+          <t>MATH207.1</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Mon. 16:00-18:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E306" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -8984,46 +8978,52 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>MATH201.1</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr"/>
+          <t>CS207.2</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>A F2.16 - Architecture Studio</t>
+        </is>
+      </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Mon. 14:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>164</v>
-      </c>
-      <c r="E307" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="E307" t="n">
+        <v>20</v>
+      </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Infeasible</t>
+          <t>Assigned</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ARCH210.1</t>
+          <t>ELIT100.2</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Mon. 09:00-10:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E308" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -9034,24 +9034,24 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ARCH304.1</t>
+          <t>MATH205.1</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="E309" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -9062,12 +9062,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ELIT200.12</t>
+          <t>CS306.1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -9076,10 +9076,10 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="E310" t="n">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -9090,21 +9090,21 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BIO407.1</t>
+          <t>BIO646.1</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E311" t="n">
         <v>20</v>
@@ -9118,24 +9118,24 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ENS204.1</t>
+          <t>ARCH106.1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.25</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E312" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -9146,24 +9146,24 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>VA217.1</t>
+          <t>PSY329.1</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E313" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -9174,24 +9174,24 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ARCH202.2</t>
+          <t>MBA535.1</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E314" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -9202,24 +9202,24 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>PSY490.1</t>
+          <t>BOS112.1</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 14:00-15:50</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E315" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -9230,24 +9230,24 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>IR467.1</t>
+          <t>SPS509.1</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ARCH517.1</t>
+          <t>ECON311.1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -9268,11 +9268,11 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Tue. 10:00-15:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E317" t="n">
         <v>18</v>
@@ -9286,24 +9286,24 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>IR651.1</t>
+          <t>ELIT100.7</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E318" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -9314,21 +9314,21 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>CS417.1</t>
+          <t>EE305.1</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E319" t="n">
         <v>30</v>
@@ -9342,24 +9342,24 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BIO514.1</t>
+          <t>PSY103.2</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E320" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -9370,24 +9370,24 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SPS312.1</t>
+          <t>ARCH202.1</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E321" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -9398,24 +9398,24 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>MAN328.1</t>
+          <t>ARCH109.2</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E322" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -9426,21 +9426,21 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ARCH109.1</t>
+          <t>LAW443.1</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E323" t="n">
         <v>20</v>
@@ -9454,24 +9454,24 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>VA406.1</t>
+          <t>ELT571.1</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E324" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -9482,24 +9482,24 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ELIT200.14</t>
+          <t>ARCH216-3/6.1</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E325" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -9510,24 +9510,24 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ENS203.1</t>
+          <t>ARCH414.1</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 11:00-12:50</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="E326" t="n">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -9538,24 +9538,24 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>MAN304.1</t>
+          <t>BIO518.1</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E327" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -9566,24 +9566,24 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ARCH311.1</t>
+          <t>SOC102.1</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E328" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -9594,24 +9594,24 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>VA211.2</t>
+          <t>ELT599.1</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 17:00-17:50</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E329" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -9622,24 +9622,24 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>TLT212.1</t>
+          <t>VA217.2</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Thu 09:00 – 11:50</t>
+          <t>Mon. 14:00-16:50</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E330" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -9650,24 +9650,24 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>VA324.1</t>
+          <t>MATH201.2</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Fri. 15:00-17:50</t>
+          <t>Mon. 10:00-10:50</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="E331" t="n">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -9678,24 +9678,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>EE429.1</t>
+          <t>TURK112.7</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Mon. 15:00-16:50</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E332" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -9706,24 +9706,24 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>TT304.1</t>
+          <t>ITA101.1</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Thu 09:00 – 11:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E333" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -9734,24 +9734,24 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>IR216.1</t>
+          <t>ECON506.1</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E334" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -9762,12 +9762,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>PSY103.2</t>
+          <t>PSY105.2</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9776,10 +9776,10 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E335" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -9790,24 +9790,24 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ELIT200.2</t>
+          <t>CS417.1</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E336" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>MATH201.3</t>
+          <t>IBF407.1</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -9828,11 +9828,11 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E337" t="n">
         <v>12</v>
@@ -9846,24 +9846,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ARCH308.1</t>
+          <t>BIO404.1</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E338" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>

--- a/course_assignments.xlsx
+++ b/course_assignments.xlsx
@@ -456,24 +456,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELIT201.1</t>
+          <t>ARCH517.1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue. 10:00-15:50</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -484,12 +484,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ARCH201.1</t>
+          <t>ARCH201.2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
         <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -512,24 +512,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ARCH201.2</t>
+          <t>CS103.2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -540,24 +540,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ARCH303.2</t>
+          <t>ITA102.1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Fri. 10:00-12:50</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -568,24 +568,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MATH201.3</t>
+          <t>ENS207</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Fri. 09:00-09:50</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -596,24 +596,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TLT312.1</t>
+          <t>MATH101.2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tue 12:00 – 14:50</t>
+          <t>Wed. 16:00-16:50</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -624,24 +624,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ARCH517.1</t>
+          <t>MATH205.1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue. 10:00-15:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -652,24 +652,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PSY524.1</t>
+          <t>TLT471.1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Mon 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -680,24 +680,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ME411.1</t>
+          <t>IE307.1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -708,24 +708,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELIT203.1</t>
+          <t>BOS112.2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>B F1.35 FBA Conference Room</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -736,24 +736,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BIO424.1</t>
+          <t>TURK112.3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Tue. 14:00-15:50</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -764,24 +764,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ME510.1</t>
+          <t>ARCH107.1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -792,24 +792,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NS103.1</t>
+          <t>CS303.1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -820,24 +820,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VA443.1</t>
+          <t>BIO312.1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 09:00-10:50</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PSY312.1</t>
+          <t>LAW316.1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Wed. 12:00-15:50</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -876,12 +876,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BOS111.2</t>
+          <t>ARCH412.1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -904,12 +904,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BIO604.1</t>
+          <t>MATH101.1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -932,24 +932,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELIT413.1</t>
+          <t>TURK112.7</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 15:00-16:50</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -960,24 +960,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ARCH358.1</t>
+          <t>ARCH102.1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F1.9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Wed. 12:00-12:50</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -988,24 +988,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PSY424.1</t>
+          <t>VA312.1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1016,24 +1016,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MATH101.1</t>
+          <t>MAN304.1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1044,24 +1044,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>VA306.2</t>
+          <t>VA211.2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1072,24 +1072,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BIO305.1</t>
+          <t>ARCH403.1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TT304.1</t>
+          <t>ECON601.1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1110,11 +1110,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Thu 09:00 – 11:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
         <v>12</v>
@@ -1128,24 +1128,24 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IBF562.1</t>
+          <t>PSY402.1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1156,21 +1156,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ELT670.1</t>
+          <t>ARCH109.1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
@@ -1184,24 +1184,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IBF310.1</t>
+          <t>MAN302.1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1212,24 +1212,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MAN402.1</t>
+          <t>MAN105.1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F2.3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 16:00-17:50</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1240,21 +1240,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>VA217.3</t>
+          <t>EE305.1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" t="n">
         <v>30</v>
@@ -1268,24 +1268,24 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LAW310.1</t>
+          <t>CS306.1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mon. 09:00-12:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="E31" t="n">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1296,24 +1296,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LAW120.1</t>
+          <t>ARCH311.1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1324,24 +1324,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ECON320.1</t>
+          <t>VA315.1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1352,24 +1352,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ELIT103.1</t>
+          <t>PSY308.1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>B F1.25 Computer Lab</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Wed. 09:00-10:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E34" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IBF105.1</t>
+          <t>SE308.2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>A F1.23</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mon. 16:00-17:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E35" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1408,21 +1408,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ELT565.1</t>
+          <t>IR651.1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
         <v>20</v>
@@ -1436,24 +1436,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>VA211.2</t>
+          <t>CS509.1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1464,24 +1464,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>VA451.1</t>
+          <t>VA517.1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1492,24 +1492,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EDU102.1</t>
+          <t>ECON202.2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E39" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1520,24 +1520,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VA416.1</t>
+          <t>IBF105.1</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 16:00-17:50</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E40" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1548,24 +1548,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PSY103.1</t>
+          <t>ARCH569.1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fri. 13:00-15:50</t>
+          <t>Thu. 17:00-18:50</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1576,24 +1576,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ARCH307.1</t>
+          <t>POLS101.1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F1.35 FBA Conference Room &amp; B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fri. 09:00-10:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E42" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1604,24 +1604,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>POLS304.1</t>
+          <t>MAN352.1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E43" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1632,24 +1632,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ARCH569.1</t>
+          <t>PSY103.2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Thu. 17:00-18:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1660,24 +1660,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ME605.1</t>
+          <t>ELIT100.3</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wed. 17:00 - 19:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E45" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1688,24 +1688,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ELIT415.1</t>
+          <t>ELIT100.7</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E46" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1716,24 +1716,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IBF507.1</t>
+          <t>ELT571.1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1744,24 +1744,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CS103.1</t>
+          <t>IBF407.1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1772,12 +1772,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>POLS302.1</t>
+          <t>ELT322.1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E49" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1800,24 +1800,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MATH209.1</t>
+          <t>LAW302.1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E50" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1828,24 +1828,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ARCH357.1</t>
+          <t>VA519.1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Mon. 18:00-20:50</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1856,24 +1856,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ARCH360.1</t>
+          <t>VA455.1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Fri. 14:00-15:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E52" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1884,24 +1884,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AID304.1</t>
+          <t>ELT212.1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Thu. 14:00-16:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1912,21 +1912,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ELIT200.2</t>
+          <t>MAN453.1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" t="n">
         <v>20</v>
@@ -1940,21 +1940,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PSY519.1</t>
+          <t>BIO306.1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E55" t="n">
         <v>25</v>
@@ -1968,24 +1968,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ENS204.1</t>
+          <t>ARCH357.1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1996,24 +1996,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SPS603.1</t>
+          <t>BIO513.1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E57" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2024,24 +2024,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PSY402.1</t>
+          <t>IBF507.1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E58" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2052,24 +2052,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TLT411.1</t>
+          <t>ECON204.1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tue 09:00 – 11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2080,24 +2080,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IBF401.1</t>
+          <t>ELT105.1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E60" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2108,24 +2108,24 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SE211.1</t>
+          <t>TLT212.1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2136,24 +2136,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BOS112.3</t>
+          <t>TURK112.1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E62" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2164,24 +2164,24 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PSY496.1</t>
+          <t>PSY105.1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2192,24 +2192,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ELIT200.14</t>
+          <t>ME206.1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Wed. 10:00-12:50</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E64" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2220,24 +2220,24 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ECON202.1</t>
+          <t>VA304.1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E65" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IE425.1</t>
+          <t>EE301.1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2258,11 +2258,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E66" t="n">
         <v>20</v>
@@ -2276,24 +2276,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ELT212.1</t>
+          <t>VA443.1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E67" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2304,24 +2304,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>LAW106.1</t>
+          <t>CS207.1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2332,24 +2332,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TURK112.3</t>
+          <t>EDU102.1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tue. 14:00-15:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2360,24 +2360,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ARCH510.1</t>
+          <t>MAN102.1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Wed. 17:00-18:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2388,24 +2388,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ELIT200.10</t>
+          <t>ARCH202.3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E71" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2416,21 +2416,21 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BIO513.1</t>
+          <t>ELT471.1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
         <v>20</v>
@@ -2444,7 +2444,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>VA341.1</t>
+          <t>VA312.2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2454,11 +2454,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E73" t="n">
         <v>40</v>
@@ -2472,21 +2472,21 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ELIT200.1</t>
+          <t>NS209.1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>RC1.5 - Electronic Laboratory</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E74" t="n">
         <v>30</v>
@@ -2500,24 +2500,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MAN328.1</t>
+          <t>TURK112.6</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.17</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 14:00-15:50</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E75" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2528,24 +2528,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ELIT200.11</t>
+          <t>ARCH414.1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Thu. 11:00-12:50</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E76" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2556,24 +2556,24 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ELIT100.1</t>
+          <t>VA314.1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E77" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ELT105.1</t>
+          <t>VA217.1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E78" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2612,21 +2612,21 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ARCH303.1</t>
+          <t>ELT371.1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E79" t="n">
         <v>20</v>
@@ -2640,24 +2640,24 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ELT323.1</t>
+          <t>POLS302.1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E80" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2668,24 +2668,24 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>VA306.1</t>
+          <t>ME510.1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2696,24 +2696,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ECON221.1</t>
+          <t>PSY336.1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E82" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2724,24 +2724,24 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BIO306.1</t>
+          <t>SOC102.1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E83" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2752,24 +2752,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>VA211.1</t>
+          <t>EE429.1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2780,24 +2780,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ARCH202.2</t>
+          <t>LAW242.1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E85" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2808,24 +2808,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PSY457.1</t>
+          <t>IBF562.1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E86" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2836,24 +2836,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IR520.1</t>
+          <t>ECON221.1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E87" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2864,24 +2864,24 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ELT322.1</t>
+          <t>ELIT100.1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E88" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2892,24 +2892,24 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ARCH108.2</t>
+          <t>CULT101.2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 11:00-12:50</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E89" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2920,24 +2920,24 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ELIT200.4</t>
+          <t>LAW204.1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Thu. 10:00-12:50</t>
+          <t>Thu. 15:00-18:50</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E90" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2948,24 +2948,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MAN303.1</t>
+          <t>ENS309.1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Wed. 10:00-12:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="E91" t="n">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2976,24 +2976,24 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOC503.1</t>
+          <t>LAW310.1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Mon. 09:00-12:50</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="E92" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3004,24 +3004,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>VA324.1</t>
+          <t>BIO404.1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Fri. 15:00-17:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="E93" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3032,24 +3032,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ENS309.1</t>
+          <t>ELIT200.6</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Mon. 14:00-16:50</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3060,24 +3060,24 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LAW210.1</t>
+          <t>ENS203.1</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Tue. 17:00-20:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="E95" t="n">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3088,24 +3088,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>VA452.1</t>
+          <t>VA306.2</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E96" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3116,24 +3116,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IBF208.2</t>
+          <t>ECON430.1</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E97" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3144,24 +3144,24 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IR213.1</t>
+          <t>ELIT200.10</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E98" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3172,24 +3172,24 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TURK112.9</t>
+          <t>MAN443.1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E99" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3200,24 +3200,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>VA312.1</t>
+          <t>ECON202.1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E100" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3228,24 +3228,24 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SE308.2</t>
+          <t>VA406.1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E101" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3256,24 +3256,24 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IR652.1</t>
+          <t>MATH100.1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E102" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3284,24 +3284,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EDU103.1</t>
+          <t>IR467.1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E103" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3312,24 +3312,24 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ELIT406.1</t>
+          <t>ENS204.1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E104" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3340,35 +3340,29 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>IBF205.1</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>A F2.13</t>
-        </is>
-      </c>
+          <t>ELIT100.6</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>53</v>
-      </c>
-      <c r="E105" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Unassigned (enrollment=0)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CS404.1</t>
+          <t>ARCH216-3/6.1</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3378,11 +3372,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E106" t="n">
         <v>18</v>
@@ -3396,24 +3390,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>VA519.1</t>
+          <t>ELIT401.1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Mon. 18:00-20:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E107" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3424,24 +3418,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>VA314.1</t>
+          <t>IBF208.1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E108" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3452,24 +3446,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ARCH308.1</t>
+          <t>ELIT200.3</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E109" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3480,24 +3474,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>VA217.1</t>
+          <t>TURK112.5</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Mon. 11:00-12:50</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E110" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3508,24 +3502,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>VA502.1</t>
+          <t>EE325.1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.11</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Thu. 18:00-20:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3536,24 +3530,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AID101.1</t>
+          <t>ELIT203.1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>B F2.1</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E112" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3564,24 +3558,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ELIT200.13</t>
+          <t>BIO518.1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E113" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3592,24 +3586,24 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MAN302.1</t>
+          <t>ENS209</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E114" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3620,24 +3614,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CULT101.2</t>
+          <t>CS413.1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Tue. 11:00-12:50</t>
+          <t>Wed. 16:00-18:50</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E115" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3648,46 +3642,52 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TURK112.4</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
+          <t>ARCH211.1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>A B.1 - VACD Multimedia Studio</t>
+        </is>
+      </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Wed. 11:00-12:50</t>
+          <t>Thu. 09:00-10:50</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E116" t="n">
+        <v>35</v>
+      </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Unassigned (enrollment=0)</t>
+          <t>Assigned</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TURK112.8</t>
+          <t>LAW443.1</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E117" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3698,24 +3698,24 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>LAW118.1</t>
+          <t>BIO646.1</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Tue. 12:00-15:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E118" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3726,24 +3726,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CS105.1</t>
+          <t>EDU323.1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="E119" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3754,24 +3754,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MATH101.2</t>
+          <t>IBF208.2</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Wed. 16:00-16:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="E120" t="n">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3782,24 +3782,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PSY414.1</t>
+          <t>BIO407.1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Fri. 15:00-17:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3810,24 +3810,24 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TLT427.1</t>
+          <t>BOS111.1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Thu 12:00 – 14:50</t>
+          <t>Mon. 10:00-11:50</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="E122" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3838,24 +3838,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BOS112.2</t>
+          <t>ARCH108.2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E123" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3866,24 +3866,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BIO514.1</t>
+          <t>EE422.1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E124" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3894,24 +3894,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IR304.1</t>
+          <t>BOS111.2</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E125" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3922,24 +3922,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MAC102.1</t>
+          <t>VA104.2</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E126" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3950,12 +3950,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PSY308.1</t>
+          <t>SE211.1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>B F1.25 Computer Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3964,10 +3964,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E127" t="n">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3978,24 +3978,24 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ENS209</t>
+          <t>PSY424.1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E128" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4006,24 +4006,24 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ECON221.2</t>
+          <t>NS112.1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Thu. 09:00-10:50</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="E129" t="n">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4034,24 +4034,24 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ECON204.1</t>
+          <t>PSY529.1</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E130" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4062,24 +4062,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NS207.1</t>
+          <t>TLT411.1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E131" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4090,24 +4090,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ELT371.1</t>
+          <t>LAW202.1</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F1.9</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E132" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4118,24 +4118,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ARCH304.1</t>
+          <t>IE425.1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E133" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4146,24 +4146,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CS600.1</t>
+          <t>VA416.1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Tue. 17:00 - 19:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E134" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4174,24 +4174,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MAN406.1</t>
+          <t>BOS112.3</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E135" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -4202,24 +4202,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ELT370.1</t>
+          <t>ARCH106.1</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.25</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E136" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4230,24 +4230,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>LAW316.1</t>
+          <t>CS105.2</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F2.3</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Wed. 12:00-15:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E137" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4258,24 +4258,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PSY458.1</t>
+          <t>ARCH202.2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E138" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4286,24 +4286,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IBF205.2</t>
+          <t>MATH201.2</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Wed. 11:00-13:50</t>
+          <t>Mon. 10:00-10:50</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="E139" t="n">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4314,24 +4314,24 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ENS201.1</t>
+          <t>PSY490.1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E140" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TLT214.1</t>
+          <t>ECON320.1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4352,11 +4352,11 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E141" t="n">
         <v>12</v>
@@ -4370,24 +4370,24 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>VA323.2</t>
+          <t>EDU103.1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Fri. 12:00-14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E142" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4398,24 +4398,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MATH100.2</t>
+          <t>ELIT200.1</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E143" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4426,24 +4426,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TLT114.1</t>
+          <t>MATH306.1</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Tue 09:00 – 11:50</t>
+          <t>Wed. 13:00-15:50</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E144" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -4454,24 +4454,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CS314.1</t>
+          <t>ELT323.1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>B F2.14</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E145" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4482,24 +4482,24 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>NS112.1</t>
+          <t>LAW106.1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Thu. 09:00-10:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="E146" t="n">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -4510,24 +4510,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ARCH403.1</t>
+          <t>ELIT415.1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -4538,24 +4538,24 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>VA312.2</t>
+          <t>ARCH208.1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E148" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -4566,24 +4566,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ENS203.1</t>
+          <t>ELIT200.14</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A F3.7 - Small Architecture Studio</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="E149" t="n">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -4594,24 +4594,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CS308.1</t>
+          <t>MATH209.2</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Mon. 16:00-18:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E150" t="n">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -4622,24 +4622,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NS209.1</t>
+          <t>EE603.1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>RC1.5 - Electronic Laboratory</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Mon. 15:00 - 17:50</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E151" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4650,24 +4650,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>EE429.1</t>
+          <t>CS310.1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E152" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4678,24 +4678,24 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PSY336.1</t>
+          <t>ARCH100.1</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E153" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4706,24 +4706,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TURK111.2</t>
+          <t>ECON506.1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Fri. 15:00-16:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E154" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>IE307.1</t>
+          <t>PSY406.1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E155" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4762,24 +4762,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CS103.2</t>
+          <t>CS207.2</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="E156" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4790,24 +4790,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BUS602.1</t>
+          <t>ARCH202.1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E157" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4818,24 +4818,24 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>IR651.1</t>
+          <t>ELIT100.2</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E158" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4846,24 +4846,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ARCH304.2</t>
+          <t>IBF205.2</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Wed. 09:00-14:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E159" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4874,24 +4874,24 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>EDU583.1</t>
+          <t>MATH100.2</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Thu. 16:00-18:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E160" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4902,24 +4902,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>LAW202.1</t>
+          <t>ELIT103.2</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>B F2.5</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E161" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4930,24 +4930,24 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>EDU323.1</t>
+          <t>LAW120.1</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E162" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4958,24 +4958,24 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>IR101.1</t>
+          <t>ARCH109.2</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Wed. 14:00-16:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E163" t="n">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4986,24 +4986,24 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MATH102.1</t>
+          <t>LAW406.1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Mon. 09:00-09:50</t>
+          <t>Fri. 14:00-17:50</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="E164" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -5014,24 +5014,24 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ECON430.1</t>
+          <t>CS511.1</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E165" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -5042,24 +5042,24 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MATH306.1</t>
+          <t>IR214.1</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Wed. 13:00-15:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E166" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5070,52 +5070,46 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>EE321.1</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>A B.13 - Class/PSY Lab</t>
-        </is>
-      </c>
+          <t>TURK112.4</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Wed. 11:00-12:50</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10</v>
-      </c>
-      <c r="E167" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Unassigned (enrollment=0)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TLT371.1</t>
+          <t>VA211.1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Mon 12:00 – 14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E168" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -5126,24 +5120,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ELIT200.12</t>
+          <t>PSY457.1</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E169" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -5154,7 +5148,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>LAW242.1</t>
+          <t>PSY414.1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5164,7 +5158,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Fri. 15:00-17:50</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -5182,24 +5176,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>LAW302.1</t>
+          <t>ARCH108.1</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E171" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -5210,24 +5204,24 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MATH100.1</t>
+          <t>IBF410.1</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E172" t="n">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -5238,24 +5232,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ARCH208.2</t>
+          <t>IR216.1</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E173" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -5266,24 +5260,24 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ECON112.2</t>
+          <t>ELIT200.5</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E174" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -5294,24 +5288,24 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TLT317.1</t>
+          <t>BIO305.1</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Thu 15:00 – 17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E175" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5322,24 +5316,24 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>NS122.1</t>
+          <t>ELIT200.8</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room &amp; B F1.2 - Class/ECON Lab</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Tue. 14:00-16:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E176" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -5350,24 +5344,24 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>VA104.1</t>
+          <t>SPS603.1</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -5378,24 +5372,24 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>LAW530.1</t>
+          <t>SE407.1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.25 Computer Lab</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Fri. 18:00-20:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E178" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5406,24 +5400,24 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>TLT212.1</t>
+          <t>ARCH208.2</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Thu 09:00 – 11:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E179" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5434,24 +5428,24 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SE407.1</t>
+          <t>ECON108.1</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>B F1.25 Computer Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E180" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -5462,24 +5456,24 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MAN332.1</t>
+          <t>TLT371.1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>B F1.17</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Tue. 17:00-20:50</t>
+          <t>Mon 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -5490,24 +5484,24 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ECON202.2</t>
+          <t>ARCH358.1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E182" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -5518,24 +5512,24 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>POLS499.1</t>
+          <t>MBA581.1</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Wed. 16:00-17:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E183" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -5546,24 +5540,24 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ELT562.1</t>
+          <t>ENS206.1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E184" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -5574,46 +5568,52 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MATH201.1</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr"/>
+          <t>PSY496.1</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>A B.13 - Class/PSY Lab</t>
+        </is>
+      </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Mon. 14:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>164</v>
-      </c>
-      <c r="E185" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="E185" t="n">
+        <v>12</v>
+      </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Infeasible</t>
+          <t>Assigned</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BIO312.1</t>
+          <t>TURK112.2</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Mon. 09:00-10:50</t>
+          <t>Tue. 10:00-11:50</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E186" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -5624,24 +5624,24 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ME580.1</t>
+          <t>PSY312.1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Mon. 17:00 - 19:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E187" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -5652,24 +5652,24 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>IBF409.1</t>
+          <t>ELIT100.4</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E188" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ARCH211.1</t>
+          <t>IE305.1</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Thu. 09:00-10:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E189" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -5708,24 +5708,24 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ELIT100.5</t>
+          <t>TLT312.1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E190" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -5736,24 +5736,24 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PSY406.1</t>
+          <t>BIO604.1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E191" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -5764,24 +5764,24 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>VA517.1</t>
+          <t>ELIT100.5</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E192" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -5792,24 +5792,24 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ELIT100.3</t>
+          <t>MAN328.1</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E193" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5820,24 +5820,24 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ARCH570.1</t>
+          <t>LAW218.1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Tue. 17:00-18:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E194" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5848,24 +5848,24 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ARCH311.1</t>
+          <t>ECON221.2</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E195" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5876,24 +5876,24 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>PSY529.1</t>
+          <t>ARCH304.1</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E196" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5904,12 +5904,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CS511.1</t>
+          <t>PSY329.1</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5918,10 +5918,10 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E197" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5932,24 +5932,24 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ARCH100.1</t>
+          <t>AID101.1</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F2.1</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E198" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5960,24 +5960,24 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ENS206.1</t>
+          <t>ARCH303.1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Mon. 15:00-17:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E199" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5988,24 +5988,24 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>TURK112.6</t>
+          <t>VA217.2</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>B F1.22</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Wed. 14:00-15:50</t>
+          <t>Mon. 14:00-16:50</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E200" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -6016,24 +6016,24 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>PSY303.1</t>
+          <t>SOC311.1</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E201" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -6044,24 +6044,24 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>TURK111.1</t>
+          <t>MATH207.1</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E202" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -6072,24 +6072,24 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>IBF410.1</t>
+          <t>ENS201.1</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E203" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -6100,24 +6100,24 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>IBF208.1</t>
+          <t>TT304.1</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>B F2.2</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Thu 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E204" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -6128,24 +6128,24 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ELIT103.2</t>
+          <t>IE502.1</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E205" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -6156,21 +6156,21 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>VA310.1</t>
+          <t>ARCH360.1</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>B F1.24 (MAC Studio)</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 14:00-15:50</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E206" t="n">
         <v>40</v>
@@ -6184,24 +6184,24 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>LAW416.1</t>
+          <t>ELT660.1</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Mon. 15:00-18:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -6212,24 +6212,24 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>MAN443.1</t>
+          <t>ELT370.1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Wed. 12:00-13:50</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ECON601.1</t>
+          <t>ME605.1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6250,11 +6250,11 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Wed. 17:00 - 19:50</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E209" t="n">
         <v>12</v>
@@ -6268,35 +6268,29 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>CS427.1</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
-        </is>
-      </c>
+          <t>MATH201.1</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Mon. 14:00-14:50</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>18</v>
-      </c>
-      <c r="E210" t="n">
-        <v>18</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Assigned</t>
+          <t>Infeasible</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>IE502.1</t>
+          <t>SPS312.1</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6306,11 +6300,11 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E211" t="n">
         <v>18</v>
@@ -6324,24 +6318,24 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MATH209.2</t>
+          <t>EDU583.1</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Thu. 16:00-18:50</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E212" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -6352,24 +6346,24 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>LAW406.1</t>
+          <t>TLT427.1</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Fri. 14:00-17:50</t>
+          <t>Thu 12:00 – 14:50</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E213" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -6380,24 +6374,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>PSY311.1</t>
+          <t>ELT599.1</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 17:00-17:50</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E214" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -6408,24 +6402,24 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ARCH210.1</t>
+          <t>MATH201.3</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Mon. 09:00-10:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E215" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -6436,24 +6430,24 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>IR467.1</t>
+          <t>LAW530.1</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Fri. 18:00-20:50</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E216" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -6464,24 +6458,24 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ELIT401.1</t>
+          <t>IR304.1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E217" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -6492,24 +6486,24 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ARCH109.1</t>
+          <t>PSY310.1</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E218" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -6520,24 +6514,24 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ELT471.1</t>
+          <t>IR212.1</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E219" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -6548,24 +6542,24 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>IR216.1</t>
+          <t>IBF205.1</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E220" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -6576,24 +6570,24 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SOC311.1</t>
+          <t>POLS499.1</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Wed. 16:00-17:50</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -6604,24 +6598,24 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ARCH209.1</t>
+          <t>CS103.1</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>A F2.13</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="E222" t="n">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -6632,24 +6626,24 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>LAW333.1</t>
+          <t>VA324.1</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>B F2.1</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Fri. 15:00-17:50</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E223" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -6660,24 +6654,24 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CULT101.1</t>
+          <t>LAW333.1</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>RC.G3 - GBE III</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Tue. 09:00-10:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E224" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -6688,24 +6682,24 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>EE325.1</t>
+          <t>MBA525.1</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>A F1.11</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E225" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -6716,21 +6710,21 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BIO407.1</t>
+          <t>ELT670.1</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E226" t="n">
         <v>20</v>
@@ -6744,7 +6738,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ME206.1</t>
+          <t>SPS509.1</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -6754,11 +6748,11 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Wed. 10:00-12:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E227" t="n">
         <v>12</v>
@@ -6772,24 +6766,24 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>MBA581.1</t>
+          <t>CS600.1</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Wed. 17:00-19:50</t>
+          <t>Tue. 17:00 - 19:50</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E228" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -6800,24 +6794,24 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>MAN453.1</t>
+          <t>TURK111.2</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Fri. 15:00-16:50</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E229" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -6828,24 +6822,24 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>LAW104.1</t>
+          <t>VA334.1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E230" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -6856,7 +6850,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ELIT200.9</t>
+          <t>CS417.1</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -6866,11 +6860,11 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E231" t="n">
         <v>30</v>
@@ -6884,24 +6878,24 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ARCH107.1</t>
+          <t>ME411.1</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F3.8 - Big Architecture Studio</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E232" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -6912,24 +6906,24 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BOS111.1</t>
+          <t>MAN303.1</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Mon. 10:00-11:50</t>
+          <t>Wed. 10:00-12:50</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E233" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -6940,24 +6934,24 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>CS105.2</t>
+          <t>VA451.1</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>A F2.3</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E234" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -6968,24 +6962,24 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>IE303.1</t>
+          <t>ECON311.1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Thu. 13:00-15:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="E235" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -6996,24 +6990,24 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>IR212.1</t>
+          <t>MAC102.1</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E236" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -7024,24 +7018,24 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>LAW402.1</t>
+          <t>CS404.1</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Tue. 15:00-17:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E237" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -7052,24 +7046,24 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>TLT319.1</t>
+          <t>CULT101.1</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Wed 09:00 – 11:50</t>
+          <t>Tue. 09:00-10:50</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E238" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -7080,24 +7074,24 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>POLS101.1</t>
+          <t>BOS112.1</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>B F1.35 FBA Conference Room &amp; B F1.2 - Class/ECON Lab</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 14:00-15:50</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E239" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -7108,24 +7102,24 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>LAW206.1</t>
+          <t>ELIT200.4</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 10:00-12:50</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E240" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -7136,7 +7130,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>TURK112.5</t>
+          <t>ECON404.1</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -7146,11 +7140,11 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E241" t="n">
         <v>12</v>
@@ -7164,24 +7158,24 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ECON108.1</t>
+          <t>TURK111.1</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E242" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -7192,24 +7186,24 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ELT660.1</t>
+          <t>MAN406.1</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E243" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -7220,24 +7214,24 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ECON112.1</t>
+          <t>CS308.1</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>B F2.16</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Mon. 16:00-18:50</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E244" t="n">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -7248,24 +7242,24 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>EE301.1</t>
+          <t>NS103.1</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E245" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -7276,24 +7270,24 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ELIT208.1</t>
+          <t>TLT319.1</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>A F1.11</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E246" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -7304,12 +7298,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>IR214.1</t>
+          <t>POLS304.1</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -7318,7 +7312,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E247" t="n">
         <v>20</v>
@@ -7332,24 +7326,24 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>CS310.1</t>
+          <t>AID304.1</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>B F2.15 - Amphitheater II</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Thu. 14:00-16:50</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="E248" t="n">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -7360,24 +7354,24 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ARCH412.1</t>
+          <t>ARCH303.2</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E249" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -7388,24 +7382,24 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>TURK112.2</t>
+          <t>POLS211.1</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Tue. 10:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E250" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -7416,24 +7410,24 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>PSY412.1</t>
+          <t>SOC503.1</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Tue. 10:00-12:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E251" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -7444,24 +7438,24 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ELIT200.8</t>
+          <t>MATH209.1</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E252" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -7472,24 +7466,24 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>IR472.1</t>
+          <t>LAW416.1</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Mon. 15:00-18:50</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E253" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -7500,24 +7494,24 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>MAN352.1</t>
+          <t>BIO424.1</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E254" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -7528,24 +7522,24 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>MBA525.1</t>
+          <t>LAW118.1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Fri. 17:00-19:50</t>
+          <t>Tue. 12:00-15:50</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E255" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -7556,24 +7550,24 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ARCH202.3</t>
+          <t>ARCH308.1</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E256" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -7584,21 +7578,21 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ELIT200.5</t>
+          <t>IBF401.1</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>B F2.2</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E257" t="n">
         <v>35</v>
@@ -7612,24 +7606,24 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>TURK112.1</t>
+          <t>IBF409.1</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Mon. 11:00-12:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E258" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -7640,24 +7634,24 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ENS207</t>
+          <t>ARCH210.1</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>B F2.17</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Fri. 09:00-09:50</t>
+          <t>Mon. 09:00-10:50</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E259" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -7668,24 +7662,24 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ARCH108.1</t>
+          <t>ELIT200.11</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E260" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -7696,24 +7690,24 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>LAW218.1</t>
+          <t>VA323.1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E261" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -7724,24 +7718,24 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>MAN105.1</t>
+          <t>PSY311.1</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>A F2.3</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Mon. 16:00-17:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E262" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -7752,24 +7746,24 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>EE603.1</t>
+          <t>TURK112.9</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Mon. 15:00 - 17:50</t>
+          <t>Fri. 10:00-11:50</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E263" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -7780,24 +7774,24 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>IR478.1</t>
+          <t>TLT317.1</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu 15:00 – 17:50</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E264" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -7808,24 +7802,24 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>IR100.1</t>
+          <t>ECON112.1</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio &amp; A F3.10 - Architecture Classroom</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>nThu. 13:00-14:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E265" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -7836,24 +7830,24 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>IR305.1</t>
+          <t>ARCH209.1</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A F2.13</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Thu. 13:00-15:50</t>
+          <t>Mon. 13:00-14:50</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E266" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -7864,24 +7858,24 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>PSY490.1</t>
+          <t>LAW206.1</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E267" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -7892,24 +7886,24 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>CS509.1</t>
+          <t>CS427.1</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E268" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -7920,24 +7914,24 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>IE305.1</t>
+          <t>ITA101.1</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.8</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E269" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -7948,24 +7942,24 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SPS312.1</t>
+          <t>PSY412.1</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Tue. 10:00-12:50</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E270" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -7976,24 +7970,24 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>VA315.1</t>
+          <t>MAN402.1</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E271" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -8004,21 +7998,21 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>CS303.1</t>
+          <t>VA217.3</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A F1.4 - Class/Laboratory</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Wed. 15:00-17:50</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E272" t="n">
         <v>30</v>
@@ -8032,24 +8026,24 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ARCH405.1</t>
+          <t>ENS211.1</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>RC1.4 - Computer Laboratory</t>
+          <t>A F1.18 - Computer Lab</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E273" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -8060,24 +8054,24 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ME304.1</t>
+          <t>EE321.1</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Tue. 13:00-15:50</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E274" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -8088,24 +8082,24 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>TLT471.1</t>
+          <t>VA104.1</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Mon 12:00 – 14:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E275" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -8116,24 +8110,24 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>VA104.2</t>
+          <t>ME211.1</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Tue. 13:00-15:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E276" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -8144,46 +8138,52 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ELIT100.6</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr"/>
+          <t>VA310.1</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>B F1.24 (MAC Studio)</t>
+        </is>
+      </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
-      </c>
-      <c r="E277" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="E277" t="n">
+        <v>40</v>
+      </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Unassigned (enrollment=0)</t>
+          <t>Assigned</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ARCH208.1</t>
+          <t>ARCH405.1</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E278" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -8194,24 +8194,24 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>CS207.1</t>
+          <t>MAN332.1</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>B F1.10 Class/ART Studio</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 17:00-20:50</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E279" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -8222,21 +8222,21 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>LAW204.1</t>
+          <t>VA306.1</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Thu. 15:00-18:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E280" t="n">
         <v>45</v>
@@ -8250,24 +8250,24 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>VA304.1</t>
+          <t>BUS602.1</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Fri. 14:00-16:50</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E281" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -8278,24 +8278,24 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ARCH102.1</t>
+          <t>ELIT103.1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>B F1.25 Computer Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Wed. 12:00-12:50</t>
+          <t>Wed. 09:00-10:50</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E282" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -8306,24 +8306,24 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ME211.1</t>
+          <t>CS314.1</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.14</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E283" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -8334,24 +8334,24 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>CS413.1</t>
+          <t>IE303.1</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>B F2.16</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Wed. 16:00-18:50</t>
+          <t>Thu. 13:00-15:50</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E284" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -8362,21 +8362,21 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ARCH110.1</t>
+          <t>LAW402.1</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Thu. 13:00-14:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E285" t="n">
         <v>20</v>
@@ -8390,24 +8390,24 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ELIT100.4</t>
+          <t>PSY519.1</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>B F1.16</t>
+          <t>A F2.8 - Drawing Studio</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E286" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -8418,24 +8418,24 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>PSY105.1</t>
+          <t>PSY458.1</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>A F3.7 - Small Architecture Studio</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 15:00-17:50</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E287" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -8446,24 +8446,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>VA334.1</t>
+          <t>LAW408.1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E288" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -8474,24 +8474,24 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>VA455.1</t>
+          <t>ELT565.1</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Wed. 12:00-14:50</t>
+          <t>Thu. 17:00-19:50</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E289" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -8502,24 +8502,24 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ARCH101.1</t>
+          <t>ECON112.2</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.17</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E290" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -8530,12 +8530,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>VA323.1</t>
+          <t>IR213.1</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -8544,10 +8544,10 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E291" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -8558,24 +8558,24 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ITA102.1</t>
+          <t>ME580.1</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Fri. 10:00-12:50</t>
+          <t>Mon. 17:00 - 19:50</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E292" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -8586,24 +8586,24 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SE308.1</t>
+          <t>ELIT201.1</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E293" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -8614,24 +8614,24 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>VA406.1</t>
+          <t>ELIT200.9</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>A B.16 - VACD Drawing Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E294" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -8642,24 +8642,24 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ENS211.1</t>
+          <t>TLT214.1</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Wed. 12:00-14:50</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E295" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -8670,24 +8670,24 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>MAN304.1</t>
+          <t>PSY105.2</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>A F1.17</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Fri. 09:00-11:50</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E296" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -8698,24 +8698,24 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>EE422.1</t>
+          <t>ARCH110.1</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>A F1.3 - Computer Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E297" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -8726,24 +8726,24 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>POLS211.1</t>
+          <t>ARCH510.1</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Wed. 17:00-18:50</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E298" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -8754,24 +8754,24 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>CS304.1</t>
+          <t>ELT562.1</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Fri. 17:00-19:50</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="E299" t="n">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -8782,24 +8782,24 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ELIT200.3</t>
+          <t>ELIT200.12</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Fri. 14:00-16:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E300" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -8810,24 +8810,24 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ECON404.1</t>
+          <t>ARCH101.1</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E301" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>LAW408.1</t>
+          <t>IR520.1</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -8848,11 +8848,11 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E302" t="n">
         <v>20</v>
@@ -8866,24 +8866,24 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ELIT200.6</t>
+          <t>ELIT208.1</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.11</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Mon. 14:00-16:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E303" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -8894,24 +8894,24 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>MAN102.1</t>
+          <t>PSY103.1</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Fri. 13:00-15:50</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E304" t="n">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -8922,24 +8922,24 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>PSY310.1</t>
+          <t>ARCH201.1</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>B F1.10 Class/ART Studio</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Tue. 09:00-14:50</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E305" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -8950,21 +8950,21 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>MATH207.1</t>
+          <t>IR472.1</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>B F1.2 - Class/ECON Lab</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 12:00-14:50</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E306" t="n">
         <v>20</v>
@@ -8978,24 +8978,24 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>CS207.2</t>
+          <t>LAW210.1</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Mon. 12:00-14:50</t>
+          <t>Tue. 17:00-20:50</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E307" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -9006,24 +9006,24 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ELIT100.2</t>
+          <t>NS207.1</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>A F1.18 - Computer Lab</t>
+          <t>RC1.4 - Computer Laboratory</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Mon. 09:00-11:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E308" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>MATH205.1</t>
+          <t>CS304.1</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -9044,11 +9044,11 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Wed. 15:00-17:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E309" t="n">
         <v>154</v>
@@ -9062,24 +9062,24 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>CS306.1</t>
+          <t>ELIT413.1</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="E310" t="n">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -9090,24 +9090,24 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BIO646.1</t>
+          <t>SE308.1</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Tue. 17:00-19:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="E311" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -9118,24 +9118,24 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ARCH106.1</t>
+          <t>VA323.2</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>A F1.25</t>
+          <t>A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Fri. 12:00-14:50</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E312" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -9146,24 +9146,24 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>PSY329.1</t>
+          <t>VA341.1</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>B F1.24 (MAC Studio)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E313" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -9174,24 +9174,24 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>MBA535.1</t>
+          <t>IR100.1</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F3.7 - Small Architecture Studio &amp; A F3.10 - Architecture Classroom</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>nThu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E314" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -9202,24 +9202,24 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BOS112.1</t>
+          <t>IR101.1</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
+          <t>B F1.23 - Amphitheater I</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Tue. 14:00-15:50</t>
+          <t>Wed. 14:00-16:50</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E315" t="n">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -9230,24 +9230,24 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SPS509.1</t>
+          <t>IR305.1</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A B.2 - EE Lab</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Mon. 17:00-19:50</t>
+          <t>Thu. 13:00-15:50</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E316" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ECON311.1</t>
+          <t>PSY524.1</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -9268,11 +9268,11 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Thu. 12:00-14:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E317" t="n">
         <v>18</v>
@@ -9286,24 +9286,24 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ELIT100.7</t>
+          <t>ELIT200.2</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Thu. 09:00-11:50</t>
+          <t>Mon. 15:00-17:50</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E318" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -9314,12 +9314,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>EE305.1</t>
+          <t>IR478.1</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>B F1.1 FBA Graduate Seminar Room</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -9328,10 +9328,10 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E319" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -9342,24 +9342,24 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>PSY103.2</t>
+          <t>ME304.1</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>A F1.4 - Class/Laboratory</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Thu. 15:00-17:50</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E320" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -9370,24 +9370,24 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ARCH202.1</t>
+          <t>BIO514.1</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Tue. 09:00-14:50</t>
+          <t>Wed. 17:00-19:50</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E321" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -9398,24 +9398,24 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ARCH109.2</t>
+          <t>ARCH570.1</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>A B.2 - EE Lab</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Mon. 13:00-14:50</t>
+          <t>Tue. 17:00-18:50</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E322" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -9426,24 +9426,24 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>LAW443.1</t>
+          <t>TURK112.8</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>RC1.3 - GSM and Network Laboratories</t>
+          <t>A B.16 - VACD Drawing Studio</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Tue. 12:00-14:50</t>
+          <t>Thu. 13:00-14:50</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E323" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -9454,24 +9454,24 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ELT571.1</t>
+          <t>IBF310.1</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>A F1.17</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Wed. 12:00-13:50</t>
+          <t>Wed. 09:00-11:50</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="E324" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -9482,24 +9482,24 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ARCH216-3/6.1</t>
+          <t>PSY303.1</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>B F2.27 Creative Writing and Translation Studio</t>
+          <t>A F1.10</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Fri. 10:00-11:50</t>
+          <t>Mon. 09:00-11:50</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E325" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
@@ -9510,24 +9510,24 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ARCH414.1</t>
+          <t>MBA535.1</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>A F2.8 - Drawing Studio</t>
+          <t>A B.1 - VACD Multimedia Studio</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Thu. 11:00-12:50</t>
+          <t>Mon. 17:00-19:50</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E326" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -9538,24 +9538,24 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BIO518.1</t>
+          <t>MATH102.1</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Mon. 09:00-09:50</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="E327" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -9566,24 +9566,24 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SOC102.1</t>
+          <t>ARCH304.2</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>A F1.10</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Wed. 09:00-14:50</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E328" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -9594,24 +9594,24 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ELT599.1</t>
+          <t>LAW104.1</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.16</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Mon. 17:00-17:50</t>
+          <t>Tue. 09:00-11:50</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E329" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -9622,24 +9622,24 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>VA217.2</t>
+          <t>ELIT406.1</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F1.1 FBA Graduate Seminar Room</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Mon. 14:00-16:50</t>
+          <t>Thu. 12:00-14:50</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E330" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -9650,24 +9650,24 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>MATH201.2</t>
+          <t>TLT114.1</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>B F1.23 - Amphitheater I</t>
+          <t>B F2.27 Creative Writing and Translation Studio</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Mon. 10:00-10:50</t>
+          <t>Tue 09:00 – 11:50</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="E331" t="n">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -9678,24 +9678,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>TURK112.7</t>
+          <t>VA452.1</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>A B.1 - VACD Multimedia Studio</t>
+          <t>A F1.3 - Computer Lab</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Mon. 15:00-16:50</t>
+          <t>Thu. 09:00-11:50</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E332" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -9706,24 +9706,24 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ITA101.1</t>
+          <t>VA502.1</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>B F2.8</t>
+          <t>A B.13 - Class/PSY Lab</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Thu. 18:00-20:50</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E333" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -9734,24 +9734,24 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ECON506.1</t>
+          <t>ELIT200.13</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>A F3.8 - Big Architecture Studio</t>
+          <t>A B.8 - Fabrication Lab</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Thu. 17:00-19:50</t>
+          <t>Mon. 12:00-14:50</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E334" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -9762,24 +9762,24 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>PSY105.2</t>
+          <t>ARCH307.1</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>B F1.2 - Class/ECON Lab</t>
+          <t>A F2.8 - Drawing Studio &amp; A F2.16 - Architecture Studio</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Fri. 09:00-11:50</t>
+          <t>Fri. 09:00-10:50</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E335" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -9790,24 +9790,24 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>CS417.1</t>
+          <t>IR652.1</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>A B.8 - Fabrication Lab</t>
+          <t>RC1.3 - GSM and Network Laboratories</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Wed. 09:00-11:50</t>
+          <t>Tue. 17:00-19:50</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -9818,24 +9818,24 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>IBF407.1</t>
+          <t>CS105.1</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>A B.13 - Class/PSY Lab</t>
+          <t>B F2.15 - Amphitheater II</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Thu. 15:00-17:50</t>
+          <t>Wed. 11:00-13:50</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="E337" t="n">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
@@ -9846,24 +9846,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BIO404.1</t>
+          <t>NS122.1</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>A F2.16 - Architecture Studio</t>
+          <t>B F2.6</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Tue. 09:00-11:50</t>
+          <t>Tue. 14:00-16:50</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E338" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
